--- a/data/cleaned/Compound annotation updated.xlsx
+++ b/data/cleaned/Compound annotation updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottericr/Documents/Tufts/Research Projects/2017 - 2018 Leafhopper Density/data/cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393F9A0A-1DC3-8440-815C-6B062AAD6DD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A4F2C2-8ED8-494C-89CC-87A709BBCC20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25580" yWindow="460" windowWidth="25600" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound annotation updated" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4244" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4243" uniqueCount="1336">
   <si>
     <t>Compound</t>
   </si>
@@ -4020,13 +4020,22 @@
   </si>
   <si>
     <t>Reported as major biomarker of leafhopper damage on tea by Zeng et al. 2018 (doi: 10.1080/10408398.2018.1506907).  Precursor to hotrienol, which is formed durring dehydration and heating durring processing.</t>
+  </si>
+  <si>
+    <t>cis-Linalool oxide (pyranoid)</t>
+  </si>
+  <si>
+    <t>fungicide used in citrus farming</t>
+  </si>
+  <si>
+    <t>Aromatic compound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4160,6 +4169,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4503,12 +4518,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4866,8 +4882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5350,7 +5366,7 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>1324</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -5368,7 +5384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5393,9 +5409,7 @@
       <c r="H12" t="s">
         <v>55</v>
       </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
+      <c r="I12" s="3"/>
       <c r="J12" t="s">
         <v>17</v>
       </c>
@@ -5834,7 +5848,7 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>319</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -6588,7 +6602,7 @@
         <v>185</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>1319</v>
       </c>
       <c r="J39" t="s">
         <v>17</v>
@@ -6632,7 +6646,7 @@
         <v>189</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="J40" t="s">
         <v>17</v>
@@ -7738,7 +7752,7 @@
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>311</v>
+        <v>1333</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -8096,13 +8110,13 @@
         <v>354</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>1334</v>
       </c>
       <c r="H73" t="s">
         <v>17</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>1335</v>
       </c>
       <c r="J73" t="s">
         <v>17</v>
@@ -19574,5 +19588,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/cleaned/Compound annotation updated.xlsx
+++ b/data/cleaned/Compound annotation updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottericr/Documents/Tufts/Research Projects/2017 - 2018 Leafhopper Density/data/cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A4F2C2-8ED8-494C-89CC-87A709BBCC20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCECA3B-918D-B545-93DC-E0F096FA341D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25580" yWindow="460" windowWidth="25600" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound annotation updated" sheetId="1" r:id="rId1"/>
@@ -4883,7 +4883,7 @@
   <dimension ref="A1:O333"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6646,7 +6646,7 @@
         <v>189</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
+        <v>319</v>
       </c>
       <c r="J40" t="s">
         <v>17</v>
@@ -6778,7 +6778,7 @@
         <v>203</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>1320</v>
       </c>
       <c r="J43" t="s">
         <v>17</v>
@@ -7764,7 +7764,7 @@
         <v>312</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>319</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
@@ -8694,7 +8694,7 @@
         <v>17</v>
       </c>
       <c r="I86" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="J86" t="s">
         <v>17</v>
@@ -9046,7 +9046,7 @@
         <v>189</v>
       </c>
       <c r="I94" t="s">
-        <v>17</v>
+        <v>319</v>
       </c>
       <c r="J94" t="s">
         <v>17</v>
@@ -17538,7 +17538,7 @@
         <v>17</v>
       </c>
       <c r="I287" t="s">
-        <v>17</v>
+        <v>319</v>
       </c>
       <c r="J287" t="s">
         <v>17</v>

--- a/data/cleaned/Compound annotation updated.xlsx
+++ b/data/cleaned/Compound annotation updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottericr/Documents/Tufts/Research Projects/2017 - 2018 Leafhopper Density/data/cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A981BE-4937-FE4C-9BE5-41EEC3DB5253}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B1031D-8961-A44F-A170-62E90CCCEFDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound annotation updated" sheetId="1" r:id="rId1"/>
@@ -889,9 +889,6 @@
     <t>(3$\mathit{Z}$)-Hexenyl hexanoate</t>
   </si>
   <si>
-    <t>fruit, prune</t>
-  </si>
-  <si>
     <t>Indole</t>
   </si>
   <si>
@@ -4068,13 +4065,16 @@
   </si>
   <si>
     <t>Phenolic</t>
+  </si>
+  <si>
+    <t>green, fruity, fatty, tropical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4214,6 +4214,12 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4557,13 +4563,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4921,8 +4928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4974,7 +4981,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -5021,7 +5028,7 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -5068,7 +5075,7 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -5405,7 +5412,7 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -5535,7 +5542,7 @@
         <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -5567,7 +5574,7 @@
         <v>545831</v>
       </c>
       <c r="E15" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F15" t="s">
         <v>69</v>
@@ -5579,7 +5586,7 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -5687,31 +5694,31 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B18" t="s">
         <v>1341</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>1342</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
         <v>1343</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
         <v>1344</v>
       </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1345</v>
-      </c>
       <c r="I18" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -5755,7 +5762,7 @@
         <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -5919,19 +5926,19 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
         <v>1328</v>
       </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1329</v>
-      </c>
       <c r="H23" t="s">
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -6019,7 +6026,7 @@
         <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -6101,7 +6108,7 @@
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H27" t="s">
         <v>112</v>
@@ -6169,7 +6176,7 @@
         <v>20</v>
       </c>
       <c r="O28" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -6242,7 +6249,7 @@
         <v>129</v>
       </c>
       <c r="I30" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
@@ -6304,7 +6311,7 @@
         <v>20</v>
       </c>
       <c r="O31" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -6333,7 +6340,7 @@
         <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
@@ -6465,7 +6472,7 @@
         <v>158</v>
       </c>
       <c r="I35" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
@@ -6553,7 +6560,7 @@
         <v>167</v>
       </c>
       <c r="I37" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="J37" t="s">
         <v>17</v>
@@ -6597,7 +6604,7 @@
         <v>174</v>
       </c>
       <c r="I38" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J38" t="s">
         <v>17</v>
@@ -6685,7 +6692,7 @@
         <v>183</v>
       </c>
       <c r="I40" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J40" t="s">
         <v>17</v>
@@ -6729,7 +6736,7 @@
         <v>187</v>
       </c>
       <c r="I41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -6861,7 +6868,7 @@
         <v>201</v>
       </c>
       <c r="I44" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -7037,7 +7044,7 @@
         <v>225</v>
       </c>
       <c r="I48" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
@@ -7125,7 +7132,7 @@
         <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
@@ -7169,7 +7176,7 @@
         <v>235</v>
       </c>
       <c r="I51" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
@@ -7257,7 +7264,7 @@
         <v>245</v>
       </c>
       <c r="I53" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
@@ -7333,7 +7340,7 @@
         <v>9862</v>
       </c>
       <c r="E55" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -7451,7 +7458,7 @@
         <v>20</v>
       </c>
       <c r="O57" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -7480,7 +7487,7 @@
         <v>272</v>
       </c>
       <c r="I58" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
@@ -7524,7 +7531,7 @@
         <v>278</v>
       </c>
       <c r="I59" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
@@ -7542,27 +7549,27 @@
         <v>20</v>
       </c>
       <c r="O59" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="E60" t="s">
         <v>1338</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
         <v>1339</v>
-      </c>
-      <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1340</v>
       </c>
       <c r="I60" t="s">
         <v>284</v>
@@ -7627,10 +7634,10 @@
         <v>17</v>
       </c>
       <c r="O61" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>285</v>
       </c>
@@ -7652,11 +7659,11 @@
       <c r="G62" t="s">
         <v>17</v>
       </c>
-      <c r="H62" t="s">
-        <v>289</v>
+      <c r="H62" s="4" t="s">
+        <v>1348</v>
       </c>
       <c r="I62" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
@@ -7674,24 +7681,24 @@
         <v>20</v>
       </c>
       <c r="O62" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>289</v>
+      </c>
+      <c r="B63" t="s">
         <v>290</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>291</v>
-      </c>
-      <c r="C63" t="s">
-        <v>292</v>
       </c>
       <c r="D63">
         <v>798</v>
       </c>
       <c r="E63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -7700,13 +7707,13 @@
         <v>17</v>
       </c>
       <c r="H63" t="s">
+        <v>292</v>
+      </c>
+      <c r="I63" t="s">
+        <v>402</v>
+      </c>
+      <c r="J63" t="s">
         <v>293</v>
-      </c>
-      <c r="I63" t="s">
-        <v>403</v>
-      </c>
-      <c r="J63" t="s">
-        <v>294</v>
       </c>
       <c r="K63" t="s">
         <v>46</v>
@@ -7721,24 +7728,24 @@
         <v>20</v>
       </c>
       <c r="O63" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>294</v>
+      </c>
+      <c r="B64" t="s">
         <v>295</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>296</v>
-      </c>
-      <c r="C64" t="s">
-        <v>297</v>
       </c>
       <c r="D64">
         <v>10430</v>
       </c>
       <c r="E64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -7747,7 +7754,7 @@
         <v>3.66</v>
       </c>
       <c r="H64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I64" t="s">
         <v>213</v>
@@ -7770,19 +7777,19 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" t="s">
         <v>299</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>300</v>
-      </c>
-      <c r="C65" t="s">
-        <v>301</v>
       </c>
       <c r="D65">
         <v>699486</v>
       </c>
       <c r="E65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -7794,7 +7801,7 @@
         <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
@@ -7814,31 +7821,31 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" t="s">
         <v>302</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>303</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>301</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
         <v>304</v>
       </c>
-      <c r="D66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" t="s">
-        <v>302</v>
-      </c>
-      <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s">
-        <v>305</v>
-      </c>
       <c r="I66" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
@@ -7856,24 +7863,24 @@
         <v>20</v>
       </c>
       <c r="O66" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>305</v>
+      </c>
+      <c r="B67" t="s">
         <v>306</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>307</v>
       </c>
-      <c r="C67" t="s">
-        <v>308</v>
-      </c>
       <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -7882,10 +7889,10 @@
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
@@ -7905,31 +7912,31 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B68" t="s">
         <v>311</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>312</v>
-      </c>
-      <c r="C68" t="s">
-        <v>313</v>
       </c>
       <c r="D68">
         <v>6429213</v>
       </c>
       <c r="E68" t="s">
+        <v>313</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
         <v>314</v>
       </c>
-      <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>315</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>316</v>
-      </c>
-      <c r="I68" t="s">
-        <v>317</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
@@ -7949,37 +7956,37 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>317</v>
+      </c>
+      <c r="B69" t="s">
         <v>318</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>319</v>
-      </c>
-      <c r="C69" t="s">
-        <v>320</v>
       </c>
       <c r="D69">
         <v>1738122</v>
       </c>
       <c r="E69" t="s">
+        <v>320</v>
+      </c>
+      <c r="F69" t="s">
         <v>321</v>
-      </c>
-      <c r="F69" t="s">
-        <v>322</v>
       </c>
       <c r="G69">
         <v>34.99</v>
       </c>
       <c r="H69" t="s">
+        <v>322</v>
+      </c>
+      <c r="I69" t="s">
         <v>323</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" t="s">
         <v>324</v>
-      </c>
-      <c r="J69" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" t="s">
-        <v>325</v>
       </c>
       <c r="L69">
         <v>1655</v>
@@ -7993,28 +8000,28 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>325</v>
+      </c>
+      <c r="B70" t="s">
         <v>326</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>327</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F70" t="s">
         <v>328</v>
       </c>
-      <c r="D70" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
         <v>329</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s">
-        <v>330</v>
       </c>
       <c r="I70" t="s">
         <v>148</v>
@@ -8037,19 +8044,19 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>330</v>
+      </c>
+      <c r="B71" t="s">
         <v>331</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>332</v>
-      </c>
-      <c r="C71" t="s">
-        <v>333</v>
       </c>
       <c r="D71">
         <v>2969</v>
       </c>
       <c r="E71" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -8058,7 +8065,7 @@
         <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I71" t="s">
         <v>213</v>
@@ -8067,7 +8074,7 @@
         <v>114</v>
       </c>
       <c r="K71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L71">
         <v>1366</v>
@@ -8081,28 +8088,28 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>334</v>
+      </c>
+      <c r="B72" t="s">
         <v>335</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>336</v>
-      </c>
-      <c r="C72" t="s">
-        <v>337</v>
       </c>
       <c r="D72">
         <v>985</v>
       </c>
       <c r="E72" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
       </c>
       <c r="G72" t="s">
+        <v>337</v>
+      </c>
+      <c r="H72" t="s">
         <v>338</v>
-      </c>
-      <c r="H72" t="s">
-        <v>339</v>
       </c>
       <c r="I72" t="s">
         <v>213</v>
@@ -8111,7 +8118,7 @@
         <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L72">
         <v>1958</v>
@@ -8125,19 +8132,19 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>340</v>
+      </c>
+      <c r="B73" t="s">
         <v>341</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>342</v>
-      </c>
-      <c r="C73" t="s">
-        <v>343</v>
       </c>
       <c r="D73">
         <v>31289</v>
       </c>
       <c r="E73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -8146,13 +8153,13 @@
         <v>11.51</v>
       </c>
       <c r="H73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I73" t="s">
         <v>241</v>
       </c>
       <c r="J73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K73" t="s">
         <v>192</v>
@@ -8169,19 +8176,19 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s">
         <v>346</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>347</v>
-      </c>
-      <c r="C74" t="s">
-        <v>348</v>
       </c>
       <c r="D74">
         <v>8158</v>
       </c>
       <c r="E74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -8190,7 +8197,7 @@
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I74" t="s">
         <v>213</v>
@@ -8213,31 +8220,31 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>349</v>
+      </c>
+      <c r="B75" t="s">
         <v>350</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>349</v>
+      </c>
+      <c r="F75" t="s">
         <v>351</v>
       </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" t="s">
-        <v>350</v>
-      </c>
-      <c r="F75" t="s">
-        <v>352</v>
-      </c>
       <c r="G75" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
         <v>1331</v>
-      </c>
-      <c r="H75" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" t="s">
-        <v>1332</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
@@ -8257,28 +8264,28 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>352</v>
+      </c>
+      <c r="B76" t="s">
         <v>353</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
         <v>354</v>
       </c>
-      <c r="C76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>355</v>
-      </c>
-      <c r="F76" t="s">
-        <v>356</v>
       </c>
       <c r="G76">
         <v>9.42</v>
       </c>
       <c r="H76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I76" t="s">
         <v>148</v>
@@ -8287,7 +8294,7 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -8299,33 +8306,33 @@
         <v>79</v>
       </c>
       <c r="O76" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>358</v>
+      </c>
+      <c r="B77" t="s">
         <v>359</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>360</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
         <v>361</v>
       </c>
-      <c r="D77" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>362</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
         <v>363</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s">
-        <v>364</v>
       </c>
       <c r="I77" t="s">
         <v>148</v>
@@ -8346,33 +8353,33 @@
         <v>20</v>
       </c>
       <c r="O77" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>364</v>
+      </c>
+      <c r="B78" t="s">
         <v>365</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>366</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" t="s">
         <v>367</v>
       </c>
-      <c r="D78" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>368</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
         <v>369</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s">
-        <v>370</v>
       </c>
       <c r="I78" t="s">
         <v>148</v>
@@ -8395,28 +8402,28 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>370</v>
+      </c>
+      <c r="B79" t="s">
         <v>371</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>372</v>
-      </c>
-      <c r="C79" t="s">
-        <v>373</v>
       </c>
       <c r="D79">
         <v>8221</v>
       </c>
       <c r="E79" t="s">
+        <v>373</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
         <v>374</v>
-      </c>
-      <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s">
-        <v>375</v>
       </c>
       <c r="I79" t="s">
         <v>263</v>
@@ -8439,28 +8446,28 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>375</v>
+      </c>
+      <c r="B80" t="s">
         <v>376</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>377</v>
-      </c>
-      <c r="C80" t="s">
-        <v>378</v>
       </c>
       <c r="D80">
         <v>454</v>
       </c>
       <c r="E80" t="s">
+        <v>378</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
         <v>379</v>
-      </c>
-      <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s">
-        <v>380</v>
       </c>
       <c r="I80" t="s">
         <v>241</v>
@@ -8469,7 +8476,7 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L80">
         <v>1002</v>
@@ -8483,10 +8490,10 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" t="s">
         <v>382</v>
-      </c>
-      <c r="B81" t="s">
-        <v>383</v>
       </c>
       <c r="C81" t="s">
         <v>211</v>
@@ -8495,22 +8502,22 @@
         <v>379</v>
       </c>
       <c r="E81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
       </c>
       <c r="G81" t="s">
+        <v>383</v>
+      </c>
+      <c r="H81" t="s">
         <v>384</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J81" t="s">
         <v>385</v>
-      </c>
-      <c r="I81" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J81" t="s">
-        <v>386</v>
       </c>
       <c r="K81" t="s">
         <v>45</v>
@@ -8527,31 +8534,31 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82" t="s">
         <v>387</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>388</v>
-      </c>
-      <c r="C82" t="s">
-        <v>389</v>
       </c>
       <c r="D82">
         <v>61346</v>
       </c>
       <c r="E82" t="s">
+        <v>389</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
         <v>390</v>
       </c>
-      <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>391</v>
-      </c>
-      <c r="I82" t="s">
-        <v>392</v>
       </c>
       <c r="J82" t="s">
         <v>17</v>
@@ -8566,33 +8573,33 @@
         <v>978</v>
       </c>
       <c r="N82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>393</v>
+      </c>
+      <c r="B83" t="s">
         <v>394</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>395</v>
-      </c>
-      <c r="C83" t="s">
-        <v>396</v>
       </c>
       <c r="D83">
         <v>7809</v>
       </c>
       <c r="E83" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F83" t="s">
+        <v>396</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
         <v>397</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s">
-        <v>398</v>
       </c>
       <c r="I83" t="s">
         <v>218</v>
@@ -8615,31 +8622,31 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>398</v>
+      </c>
+      <c r="B84" t="s">
         <v>399</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>400</v>
-      </c>
-      <c r="C84" t="s">
-        <v>401</v>
       </c>
       <c r="D84">
         <v>220639</v>
       </c>
       <c r="E84" t="s">
+        <v>401</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
         <v>402</v>
-      </c>
-      <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" t="s">
-        <v>403</v>
       </c>
       <c r="J84" t="s">
         <v>17</v>
@@ -8659,31 +8666,31 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>403</v>
+      </c>
+      <c r="B85" t="s">
         <v>404</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>405</v>
-      </c>
-      <c r="C85" t="s">
-        <v>406</v>
       </c>
       <c r="D85">
         <v>7991</v>
       </c>
       <c r="E85" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
       </c>
       <c r="G85" t="s">
+        <v>406</v>
+      </c>
+      <c r="H85" t="s">
         <v>407</v>
       </c>
-      <c r="H85" t="s">
-        <v>408</v>
-      </c>
       <c r="I85" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J85" t="s">
         <v>17</v>
@@ -8703,19 +8710,19 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>408</v>
+      </c>
+      <c r="B86" t="s">
         <v>409</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>410</v>
-      </c>
-      <c r="C86" t="s">
-        <v>411</v>
       </c>
       <c r="D86">
         <v>19602</v>
       </c>
       <c r="E86" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
@@ -8724,16 +8731,16 @@
         <v>7.34</v>
       </c>
       <c r="H86" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I86" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J86" t="s">
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -8747,19 +8754,19 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>413</v>
+      </c>
+      <c r="B87" t="s">
         <v>414</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>415</v>
-      </c>
-      <c r="C87" t="s">
-        <v>416</v>
       </c>
       <c r="D87">
         <v>20488062</v>
       </c>
       <c r="E87" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
@@ -8768,16 +8775,16 @@
         <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I87" t="s">
         <v>136</v>
       </c>
       <c r="J87" t="s">
+        <v>417</v>
+      </c>
+      <c r="K87" t="s">
         <v>418</v>
-      </c>
-      <c r="K87" t="s">
-        <v>419</v>
       </c>
       <c r="L87">
         <v>981</v>
@@ -8791,19 +8798,19 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>419</v>
+      </c>
+      <c r="B88" t="s">
         <v>420</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>421</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" t="s">
         <v>422</v>
-      </c>
-      <c r="D88" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" t="s">
-        <v>423</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -8835,28 +8842,28 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>423</v>
+      </c>
+      <c r="B89" t="s">
         <v>424</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>425</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
         <v>426</v>
       </c>
-      <c r="D89" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>427</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
         <v>428</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s">
-        <v>429</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -8879,31 +8886,31 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>429</v>
+      </c>
+      <c r="B90" t="s">
         <v>430</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>431</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
         <v>432</v>
       </c>
-      <c r="D90" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
         <v>433</v>
       </c>
-      <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s">
-        <v>434</v>
-      </c>
       <c r="I90" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="J90" t="s">
         <v>17</v>
@@ -8923,28 +8930,28 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>434</v>
+      </c>
+      <c r="B91" t="s">
         <v>435</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>436</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s">
         <v>437</v>
       </c>
-      <c r="D91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
         <v>438</v>
-      </c>
-      <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s">
-        <v>439</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -8967,31 +8974,31 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>439</v>
+      </c>
+      <c r="B92" t="s">
         <v>440</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>441</v>
-      </c>
-      <c r="C92" t="s">
-        <v>442</v>
       </c>
       <c r="D92">
         <v>551387</v>
       </c>
       <c r="E92" t="s">
+        <v>442</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
         <v>443</v>
       </c>
-      <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
         <v>444</v>
-      </c>
-      <c r="H92" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" t="s">
-        <v>445</v>
       </c>
       <c r="J92" t="s">
         <v>17</v>
@@ -9011,34 +9018,34 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>445</v>
+      </c>
+      <c r="B93" t="s">
         <v>446</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>447</v>
-      </c>
-      <c r="C93" t="s">
-        <v>448</v>
       </c>
       <c r="D93">
         <v>7461</v>
       </c>
       <c r="E93" t="s">
+        <v>448</v>
+      </c>
+      <c r="F93" t="s">
         <v>449</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s">
         <v>450</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s">
-        <v>451</v>
       </c>
       <c r="I93" t="s">
         <v>148</v>
       </c>
       <c r="J93" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K93" t="s">
         <v>150</v>
@@ -9055,10 +9062,10 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>452</v>
+      </c>
+      <c r="B94" t="s">
         <v>453</v>
-      </c>
-      <c r="B94" t="s">
-        <v>454</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -9067,7 +9074,7 @@
         <v>11005</v>
       </c>
       <c r="E94" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -9076,16 +9083,16 @@
         <v>17</v>
       </c>
       <c r="H94" t="s">
+        <v>454</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J94" t="s">
         <v>455</v>
       </c>
-      <c r="I94" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>456</v>
-      </c>
-      <c r="K94" t="s">
-        <v>457</v>
       </c>
       <c r="L94">
         <v>1759</v>
@@ -9099,28 +9106,28 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>457</v>
+      </c>
+      <c r="B95" t="s">
         <v>458</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
         <v>459</v>
       </c>
-      <c r="C95" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>460</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
         <v>461</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s">
-        <v>462</v>
       </c>
       <c r="I95" t="s">
         <v>148</v>
@@ -9143,7 +9150,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B96" t="s">
         <v>185</v>
@@ -9155,7 +9162,7 @@
         <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -9167,7 +9174,7 @@
         <v>187</v>
       </c>
       <c r="I96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J96" t="s">
         <v>17</v>
@@ -9187,37 +9194,37 @@
     </row>
     <row r="97" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>463</v>
+      </c>
+      <c r="B97" t="s">
         <v>464</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>465</v>
-      </c>
-      <c r="C97" t="s">
-        <v>466</v>
       </c>
       <c r="D97">
         <v>1183</v>
       </c>
       <c r="E97" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
       </c>
       <c r="G97" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H97" t="s">
         <v>467</v>
-      </c>
-      <c r="H97" t="s">
-        <v>468</v>
       </c>
       <c r="I97" t="s">
         <v>119</v>
       </c>
       <c r="J97" t="s">
+        <v>468</v>
+      </c>
+      <c r="K97" t="s">
         <v>469</v>
-      </c>
-      <c r="K97" t="s">
-        <v>470</v>
       </c>
       <c r="L97">
         <v>1403</v>
@@ -9231,22 +9238,22 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>470</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C98" t="s">
         <v>471</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s">
         <v>472</v>
       </c>
-      <c r="D98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>473</v>
-      </c>
-      <c r="F98" t="s">
-        <v>474</v>
       </c>
       <c r="G98" t="s">
         <v>17</v>
@@ -9275,7 +9282,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B99" t="s">
         <v>17</v>
@@ -9319,19 +9326,19 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>475</v>
+      </c>
+      <c r="B100" t="s">
         <v>476</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>477</v>
       </c>
-      <c r="C100" t="s">
-        <v>478</v>
-      </c>
       <c r="D100" t="s">
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
@@ -9363,28 +9370,28 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>478</v>
+      </c>
+      <c r="B101" t="s">
         <v>479</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s">
         <v>480</v>
       </c>
-      <c r="C101" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
         <v>481</v>
-      </c>
-      <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s">
-        <v>482</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -9407,10 +9414,10 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>482</v>
+      </c>
+      <c r="B102" t="s">
         <v>483</v>
-      </c>
-      <c r="B102" t="s">
-        <v>484</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
@@ -9419,7 +9426,7 @@
         <v>43551</v>
       </c>
       <c r="E102" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
@@ -9437,7 +9444,7 @@
         <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -9451,19 +9458,19 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>486</v>
+      </c>
+      <c r="B103" t="s">
         <v>487</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>488</v>
       </c>
-      <c r="C103" t="s">
-        <v>489</v>
-      </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
@@ -9495,19 +9502,19 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>489</v>
+      </c>
+      <c r="B104" t="s">
         <v>490</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>491</v>
-      </c>
-      <c r="C104" t="s">
-        <v>492</v>
       </c>
       <c r="D104">
         <v>7247</v>
       </c>
       <c r="E104" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
@@ -9516,7 +9523,7 @@
         <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I104" t="s">
         <v>218</v>
@@ -9525,7 +9532,7 @@
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
@@ -9539,19 +9546,19 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>493</v>
+      </c>
+      <c r="B105" t="s">
         <v>494</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>495</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" t="s">
         <v>496</v>
-      </c>
-      <c r="D105" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" t="s">
-        <v>497</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
@@ -9583,28 +9590,28 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>497</v>
+      </c>
+      <c r="B106" t="s">
         <v>498</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>499</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" t="s">
+        <v>497</v>
+      </c>
+      <c r="F106" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" t="s">
         <v>500</v>
-      </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" t="s">
-        <v>498</v>
-      </c>
-      <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s">
-        <v>17</v>
-      </c>
-      <c r="H106" t="s">
-        <v>501</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -9627,11 +9634,11 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>501</v>
+      </c>
+      <c r="B107" t="s">
         <v>502</v>
       </c>
-      <c r="B107" t="s">
-        <v>503</v>
-      </c>
       <c r="C107" t="s">
         <v>17</v>
       </c>
@@ -9639,7 +9646,7 @@
         <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -9847,7 +9854,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B112" t="s">
         <v>17</v>
@@ -10375,7 +10382,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B124" t="s">
         <v>17</v>
@@ -10551,7 +10558,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B128" t="s">
         <v>17</v>
@@ -10639,7 +10646,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B130" t="s">
         <v>17</v>
@@ -10815,7 +10822,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B134" t="s">
         <v>17</v>
@@ -10859,28 +10866,28 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>508</v>
+      </c>
+      <c r="B135" t="s">
         <v>509</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>510</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" t="s">
+        <v>508</v>
+      </c>
+      <c r="F135" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" t="s">
         <v>511</v>
-      </c>
-      <c r="D135" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135" t="s">
-        <v>509</v>
-      </c>
-      <c r="F135" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" t="s">
-        <v>17</v>
-      </c>
-      <c r="H135" t="s">
-        <v>512</v>
       </c>
       <c r="I135" t="s">
         <v>17</v>
@@ -10903,28 +10910,28 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>512</v>
+      </c>
+      <c r="B136" t="s">
         <v>513</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>514</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" t="s">
         <v>515</v>
       </c>
-      <c r="D136" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s">
         <v>516</v>
-      </c>
-      <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" t="s">
-        <v>517</v>
       </c>
       <c r="I136" t="s">
         <v>17</v>
@@ -10947,19 +10954,19 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>517</v>
+      </c>
+      <c r="B137" t="s">
         <v>518</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>519</v>
       </c>
-      <c r="C137" t="s">
-        <v>520</v>
-      </c>
       <c r="D137" t="s">
         <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
@@ -10991,19 +10998,19 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>520</v>
+      </c>
+      <c r="B138" t="s">
         <v>521</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>522</v>
-      </c>
-      <c r="C138" t="s">
-        <v>523</v>
       </c>
       <c r="D138">
         <v>13588</v>
       </c>
       <c r="E138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
@@ -11035,19 +11042,19 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>524</v>
+      </c>
+      <c r="B139" t="s">
         <v>525</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>526</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" t="s">
         <v>527</v>
-      </c>
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" t="s">
-        <v>528</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
@@ -11079,19 +11086,19 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>528</v>
+      </c>
+      <c r="B140" t="s">
         <v>529</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>530</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" t="s">
         <v>531</v>
-      </c>
-      <c r="D140" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" t="s">
-        <v>532</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
@@ -11123,28 +11130,28 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>532</v>
+      </c>
+      <c r="B141" t="s">
         <v>533</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>534</v>
-      </c>
-      <c r="C141" t="s">
-        <v>535</v>
       </c>
       <c r="D141">
         <v>13572</v>
       </c>
       <c r="E141" t="s">
+        <v>535</v>
+      </c>
+      <c r="F141" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" t="s">
         <v>536</v>
-      </c>
-      <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s">
-        <v>17</v>
-      </c>
-      <c r="H141" t="s">
-        <v>537</v>
       </c>
       <c r="I141" t="s">
         <v>256</v>
@@ -11153,7 +11160,7 @@
         <v>17</v>
       </c>
       <c r="K141" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -11167,28 +11174,28 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>537</v>
+      </c>
+      <c r="B142" t="s">
         <v>538</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>539</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" t="s">
+        <v>537</v>
+      </c>
+      <c r="F142" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" t="s">
         <v>540</v>
-      </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142" t="s">
-        <v>538</v>
-      </c>
-      <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H142" t="s">
-        <v>541</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -11211,19 +11218,19 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>541</v>
+      </c>
+      <c r="B143" t="s">
         <v>542</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>543</v>
-      </c>
-      <c r="C143" t="s">
-        <v>544</v>
       </c>
       <c r="D143">
         <v>66341</v>
       </c>
       <c r="E143" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
@@ -11232,10 +11239,10 @@
         <v>17</v>
       </c>
       <c r="H143" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I143" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J143" t="s">
         <v>17</v>
@@ -11255,19 +11262,19 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>545</v>
+      </c>
+      <c r="B144" t="s">
         <v>546</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>547</v>
-      </c>
-      <c r="C144" t="s">
-        <v>548</v>
       </c>
       <c r="D144">
         <v>8093</v>
       </c>
       <c r="E144" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F144" t="s">
         <v>17</v>
@@ -11276,7 +11283,7 @@
         <v>17</v>
       </c>
       <c r="H144" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I144" t="s">
         <v>256</v>
@@ -11285,7 +11292,7 @@
         <v>17</v>
       </c>
       <c r="K144" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L144">
         <v>989</v>
@@ -11299,31 +11306,31 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>549</v>
+      </c>
+      <c r="B145" t="s">
         <v>550</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>551</v>
-      </c>
-      <c r="C145" t="s">
-        <v>552</v>
       </c>
       <c r="D145">
         <v>5318599</v>
       </c>
       <c r="E145" t="s">
+        <v>552</v>
+      </c>
+      <c r="F145" t="s">
         <v>553</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s">
         <v>554</v>
       </c>
-      <c r="G145" t="s">
-        <v>17</v>
-      </c>
-      <c r="H145" t="s">
-        <v>555</v>
-      </c>
       <c r="I145" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J145" t="s">
         <v>17</v>
@@ -11343,31 +11350,31 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>555</v>
+      </c>
+      <c r="B146" t="s">
         <v>556</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>557</v>
-      </c>
-      <c r="C146" t="s">
-        <v>558</v>
       </c>
       <c r="D146">
         <v>8846</v>
       </c>
       <c r="E146" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
       </c>
       <c r="G146" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H146" t="s">
         <v>17</v>
       </c>
       <c r="I146" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J146" t="s">
         <v>17</v>
@@ -11387,19 +11394,19 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>559</v>
+      </c>
+      <c r="B147" t="s">
         <v>560</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>561</v>
-      </c>
-      <c r="C147" t="s">
-        <v>562</v>
       </c>
       <c r="D147">
         <v>13387</v>
       </c>
       <c r="E147" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F147" t="s">
         <v>17</v>
@@ -11431,19 +11438,19 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>563</v>
+      </c>
+      <c r="B148" t="s">
         <v>564</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>565</v>
       </c>
-      <c r="C148" t="s">
-        <v>566</v>
-      </c>
       <c r="D148" t="s">
         <v>17</v>
       </c>
       <c r="E148" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
@@ -11475,19 +11482,19 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>566</v>
+      </c>
+      <c r="B149" t="s">
         <v>567</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" t="s">
         <v>568</v>
-      </c>
-      <c r="C149" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" t="s">
-        <v>569</v>
       </c>
       <c r="F149" t="s">
         <v>17</v>
@@ -11519,31 +11526,31 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>569</v>
+      </c>
+      <c r="B150" t="s">
         <v>570</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>571</v>
-      </c>
-      <c r="C150" t="s">
-        <v>572</v>
       </c>
       <c r="D150">
         <v>12756</v>
       </c>
       <c r="E150" t="s">
+        <v>572</v>
+      </c>
+      <c r="F150" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" t="s">
         <v>573</v>
       </c>
-      <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s">
-        <v>17</v>
-      </c>
-      <c r="H150" t="s">
-        <v>574</v>
-      </c>
       <c r="I150" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J150" t="s">
         <v>17</v>
@@ -11739,28 +11746,28 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>574</v>
+      </c>
+      <c r="B155" t="s">
         <v>575</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>576</v>
-      </c>
-      <c r="C155" t="s">
-        <v>577</v>
       </c>
       <c r="D155">
         <v>25311</v>
       </c>
       <c r="E155" t="s">
+        <v>577</v>
+      </c>
+      <c r="F155" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" t="s">
         <v>578</v>
-      </c>
-      <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s">
-        <v>17</v>
-      </c>
-      <c r="H155" t="s">
-        <v>579</v>
       </c>
       <c r="I155" t="s">
         <v>241</v>
@@ -11783,7 +11790,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B156" t="s">
         <v>17</v>
@@ -11827,19 +11834,19 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>580</v>
+      </c>
+      <c r="B157" t="s">
         <v>581</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>582</v>
       </c>
-      <c r="C157" t="s">
-        <v>583</v>
-      </c>
       <c r="D157" t="s">
         <v>17</v>
       </c>
       <c r="E157" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F157" t="s">
         <v>17</v>
@@ -11871,19 +11878,19 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>583</v>
+      </c>
+      <c r="B158" t="s">
         <v>584</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>585</v>
-      </c>
-      <c r="C158" t="s">
-        <v>586</v>
       </c>
       <c r="D158">
         <v>7802</v>
       </c>
       <c r="E158" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F158" t="s">
         <v>17</v>
@@ -11892,7 +11899,7 @@
         <v>17</v>
       </c>
       <c r="H158" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I158" t="s">
         <v>256</v>
@@ -11915,19 +11922,19 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>587</v>
+      </c>
+      <c r="B159" t="s">
         <v>588</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>589</v>
-      </c>
-      <c r="C159" t="s">
-        <v>590</v>
       </c>
       <c r="D159">
         <v>30945</v>
       </c>
       <c r="E159" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F159" t="s">
         <v>17</v>
@@ -11939,7 +11946,7 @@
         <v>17</v>
       </c>
       <c r="I159" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J159" t="s">
         <v>17</v>
@@ -11959,19 +11966,19 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>590</v>
+      </c>
+      <c r="B160" t="s">
         <v>591</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>592</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" t="s">
         <v>593</v>
-      </c>
-      <c r="D160" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160" t="s">
-        <v>594</v>
       </c>
       <c r="F160" t="s">
         <v>17</v>
@@ -12003,28 +12010,28 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>594</v>
+      </c>
+      <c r="B161" t="s">
         <v>595</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>596</v>
-      </c>
-      <c r="C161" t="s">
-        <v>597</v>
       </c>
       <c r="D161">
         <v>11271</v>
       </c>
       <c r="E161" t="s">
+        <v>597</v>
+      </c>
+      <c r="F161" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" t="s">
         <v>598</v>
-      </c>
-      <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s">
-        <v>17</v>
-      </c>
-      <c r="H161" t="s">
-        <v>599</v>
       </c>
       <c r="I161" t="s">
         <v>95</v>
@@ -12033,7 +12040,7 @@
         <v>17</v>
       </c>
       <c r="K161" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
@@ -12047,19 +12054,19 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>600</v>
+      </c>
+      <c r="B162" t="s">
         <v>601</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>602</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" t="s">
         <v>603</v>
-      </c>
-      <c r="D162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E162" t="s">
-        <v>604</v>
       </c>
       <c r="F162" t="s">
         <v>17</v>
@@ -12179,28 +12186,28 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>604</v>
+      </c>
+      <c r="B165" t="s">
         <v>605</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>606</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" t="s">
+        <v>604</v>
+      </c>
+      <c r="F165" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" t="s">
         <v>607</v>
-      </c>
-      <c r="D165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E165" t="s">
-        <v>605</v>
-      </c>
-      <c r="F165" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" t="s">
-        <v>17</v>
-      </c>
-      <c r="H165" t="s">
-        <v>608</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -12253,7 +12260,7 @@
         <v>17</v>
       </c>
       <c r="K166" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L166" t="s">
         <v>17</v>
@@ -12311,7 +12318,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B168" t="s">
         <v>17</v>
@@ -12355,19 +12362,19 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>609</v>
+      </c>
+      <c r="B169" t="s">
         <v>610</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>611</v>
-      </c>
-      <c r="C169" t="s">
-        <v>612</v>
       </c>
       <c r="D169">
         <v>237332</v>
       </c>
       <c r="E169" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F169" t="s">
         <v>17</v>
@@ -12376,16 +12383,16 @@
         <v>17</v>
       </c>
       <c r="H169" t="s">
+        <v>612</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J169" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" t="s">
         <v>613</v>
-      </c>
-      <c r="I169" t="s">
-        <v>1347</v>
-      </c>
-      <c r="J169" t="s">
-        <v>17</v>
-      </c>
-      <c r="K169" t="s">
-        <v>614</v>
       </c>
       <c r="L169" t="s">
         <v>17</v>
@@ -12399,28 +12406,28 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>614</v>
+      </c>
+      <c r="B170" t="s">
         <v>615</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>616</v>
-      </c>
-      <c r="C170" t="s">
-        <v>617</v>
       </c>
       <c r="D170">
         <v>1549778</v>
       </c>
       <c r="E170" t="s">
+        <v>617</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" t="s">
         <v>618</v>
-      </c>
-      <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s">
-        <v>17</v>
-      </c>
-      <c r="H170" t="s">
-        <v>619</v>
       </c>
       <c r="I170" t="s">
         <v>148</v>
@@ -12707,7 +12714,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B177" t="s">
         <v>17</v>
@@ -12781,7 +12788,7 @@
         <v>17</v>
       </c>
       <c r="K178" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L178" t="s">
         <v>17</v>
@@ -13191,28 +13198,28 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>621</v>
+      </c>
+      <c r="B188" t="s">
         <v>622</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>623</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" t="s">
         <v>624</v>
       </c>
-      <c r="D188" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
+        <v>17</v>
+      </c>
+      <c r="G188" t="s">
+        <v>17</v>
+      </c>
+      <c r="H188" t="s">
         <v>625</v>
-      </c>
-      <c r="F188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" t="s">
-        <v>17</v>
-      </c>
-      <c r="H188" t="s">
-        <v>626</v>
       </c>
       <c r="I188" t="s">
         <v>17</v>
@@ -13235,22 +13242,22 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>626</v>
+      </c>
+      <c r="B189" t="s">
         <v>627</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>628</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" t="s">
         <v>629</v>
       </c>
-      <c r="D189" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>630</v>
-      </c>
-      <c r="F189" t="s">
-        <v>631</v>
       </c>
       <c r="G189" t="s">
         <v>17</v>
@@ -13279,28 +13286,28 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>631</v>
+      </c>
+      <c r="B190" t="s">
         <v>632</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>633</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" t="s">
         <v>634</v>
       </c>
-      <c r="D190" t="s">
-        <v>17</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>635</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
+        <v>17</v>
+      </c>
+      <c r="H190" t="s">
         <v>636</v>
-      </c>
-      <c r="G190" t="s">
-        <v>17</v>
-      </c>
-      <c r="H190" t="s">
-        <v>637</v>
       </c>
       <c r="I190" t="s">
         <v>17</v>
@@ -13323,28 +13330,28 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>637</v>
+      </c>
+      <c r="B191" t="s">
         <v>638</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>639</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" t="s">
         <v>640</v>
       </c>
-      <c r="D191" t="s">
-        <v>17</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>641</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
+        <v>17</v>
+      </c>
+      <c r="H191" t="s">
         <v>642</v>
-      </c>
-      <c r="G191" t="s">
-        <v>17</v>
-      </c>
-      <c r="H191" t="s">
-        <v>643</v>
       </c>
       <c r="I191" t="s">
         <v>17</v>
@@ -13367,22 +13374,22 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>643</v>
+      </c>
+      <c r="B192" t="s">
         <v>644</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" t="s">
         <v>645</v>
       </c>
-      <c r="C192" t="s">
-        <v>17</v>
-      </c>
-      <c r="D192" t="s">
-        <v>17</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>646</v>
-      </c>
-      <c r="F192" t="s">
-        <v>647</v>
       </c>
       <c r="G192" t="s">
         <v>17</v>
@@ -13411,19 +13418,19 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>647</v>
+      </c>
+      <c r="B193" t="s">
         <v>648</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>649</v>
-      </c>
-      <c r="C193" t="s">
-        <v>650</v>
       </c>
       <c r="D193">
         <v>8418</v>
       </c>
       <c r="E193" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F193" t="s">
         <v>17</v>
@@ -13441,7 +13448,7 @@
         <v>17</v>
       </c>
       <c r="K193" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L193" t="s">
         <v>17</v>
@@ -13455,28 +13462,28 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>651</v>
+      </c>
+      <c r="B194" t="s">
         <v>652</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>653</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" t="s">
         <v>654</v>
       </c>
-      <c r="D194" t="s">
-        <v>17</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" t="s">
         <v>655</v>
-      </c>
-      <c r="F194" t="s">
-        <v>17</v>
-      </c>
-      <c r="G194" t="s">
-        <v>17</v>
-      </c>
-      <c r="H194" t="s">
-        <v>656</v>
       </c>
       <c r="I194" t="s">
         <v>17</v>
@@ -13499,28 +13506,28 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>656</v>
+      </c>
+      <c r="B195" t="s">
         <v>657</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>658</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" t="s">
         <v>659</v>
       </c>
-      <c r="D195" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>660</v>
       </c>
-      <c r="F195" t="s">
+      <c r="G195" t="s">
+        <v>17</v>
+      </c>
+      <c r="H195" t="s">
         <v>661</v>
-      </c>
-      <c r="G195" t="s">
-        <v>17</v>
-      </c>
-      <c r="H195" t="s">
-        <v>662</v>
       </c>
       <c r="I195" t="s">
         <v>17</v>
@@ -13543,25 +13550,25 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>662</v>
+      </c>
+      <c r="B196" t="s">
         <v>663</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>664</v>
-      </c>
-      <c r="C196" t="s">
-        <v>665</v>
       </c>
       <c r="D196">
         <v>7934</v>
       </c>
       <c r="E196" t="s">
+        <v>665</v>
+      </c>
+      <c r="F196" t="s">
         <v>666</v>
       </c>
-      <c r="F196" t="s">
-        <v>667</v>
-      </c>
       <c r="G196" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H196" t="s">
         <v>17</v>
@@ -13587,22 +13594,22 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>667</v>
+      </c>
+      <c r="B197" t="s">
         <v>668</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>669</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" t="s">
         <v>670</v>
       </c>
-      <c r="D197" t="s">
-        <v>17</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>671</v>
-      </c>
-      <c r="F197" t="s">
-        <v>672</v>
       </c>
       <c r="G197" t="s">
         <v>17</v>
@@ -13631,19 +13638,19 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>672</v>
+      </c>
+      <c r="B198" t="s">
         <v>673</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>674</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" t="s">
         <v>675</v>
-      </c>
-      <c r="D198" t="s">
-        <v>17</v>
-      </c>
-      <c r="E198" t="s">
-        <v>676</v>
       </c>
       <c r="F198" t="s">
         <v>17</v>
@@ -13675,19 +13682,19 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>676</v>
+      </c>
+      <c r="B199" t="s">
         <v>677</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>678</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" t="s">
         <v>679</v>
-      </c>
-      <c r="D199" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" t="s">
-        <v>680</v>
       </c>
       <c r="F199" t="s">
         <v>17</v>
@@ -13719,22 +13726,22 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>680</v>
+      </c>
+      <c r="B200" t="s">
         <v>681</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>682</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" t="s">
         <v>683</v>
       </c>
-      <c r="D200" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>684</v>
-      </c>
-      <c r="F200" t="s">
-        <v>685</v>
       </c>
       <c r="G200" t="s">
         <v>17</v>
@@ -13763,28 +13770,28 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>685</v>
+      </c>
+      <c r="B201" t="s">
         <v>686</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>687</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" t="s">
         <v>688</v>
       </c>
-      <c r="D201" t="s">
-        <v>17</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
+        <v>17</v>
+      </c>
+      <c r="H201" t="s">
         <v>689</v>
-      </c>
-      <c r="F201" t="s">
-        <v>17</v>
-      </c>
-      <c r="G201" t="s">
-        <v>17</v>
-      </c>
-      <c r="H201" t="s">
-        <v>690</v>
       </c>
       <c r="I201" t="s">
         <v>17</v>
@@ -13807,37 +13814,37 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>690</v>
+      </c>
+      <c r="B202" t="s">
         <v>691</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>692</v>
-      </c>
-      <c r="C202" t="s">
-        <v>693</v>
       </c>
       <c r="D202">
         <v>20144841</v>
       </c>
       <c r="E202" t="s">
+        <v>693</v>
+      </c>
+      <c r="F202" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" t="s">
+        <v>693</v>
+      </c>
+      <c r="H202" t="s">
         <v>694</v>
-      </c>
-      <c r="F202" t="s">
-        <v>17</v>
-      </c>
-      <c r="G202" t="s">
-        <v>694</v>
-      </c>
-      <c r="H202" t="s">
-        <v>695</v>
       </c>
       <c r="I202" t="s">
         <v>213</v>
       </c>
       <c r="J202" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K202" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L202" t="s">
         <v>17</v>
@@ -13851,28 +13858,28 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>696</v>
+      </c>
+      <c r="B203" t="s">
         <v>697</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>698</v>
-      </c>
-      <c r="C203" t="s">
-        <v>699</v>
       </c>
       <c r="D203">
         <v>12053</v>
       </c>
       <c r="E203" t="s">
+        <v>699</v>
+      </c>
+      <c r="F203" t="s">
         <v>700</v>
       </c>
-      <c r="F203" t="s">
+      <c r="G203" t="s">
+        <v>17</v>
+      </c>
+      <c r="H203" t="s">
         <v>701</v>
-      </c>
-      <c r="G203" t="s">
-        <v>17</v>
-      </c>
-      <c r="H203" t="s">
-        <v>702</v>
       </c>
       <c r="I203" t="s">
         <v>77</v>
@@ -13895,37 +13902,37 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>702</v>
+      </c>
+      <c r="B204" t="s">
         <v>703</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>704</v>
-      </c>
-      <c r="C204" t="s">
-        <v>705</v>
       </c>
       <c r="D204">
         <v>9223</v>
       </c>
       <c r="E204" t="s">
+        <v>705</v>
+      </c>
+      <c r="F204" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" t="s">
+        <v>17</v>
+      </c>
+      <c r="H204" t="s">
+        <v>17</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J204" t="s">
+        <v>17</v>
+      </c>
+      <c r="K204" t="s">
         <v>706</v>
-      </c>
-      <c r="F204" t="s">
-        <v>17</v>
-      </c>
-      <c r="G204" t="s">
-        <v>17</v>
-      </c>
-      <c r="H204" t="s">
-        <v>17</v>
-      </c>
-      <c r="I204" t="s">
-        <v>1347</v>
-      </c>
-      <c r="J204" t="s">
-        <v>17</v>
-      </c>
-      <c r="K204" t="s">
-        <v>707</v>
       </c>
       <c r="L204" t="s">
         <v>17</v>
@@ -13939,28 +13946,28 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>707</v>
+      </c>
+      <c r="B205" t="s">
         <v>708</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>709</v>
-      </c>
-      <c r="C205" t="s">
-        <v>710</v>
       </c>
       <c r="D205">
         <v>94310</v>
       </c>
       <c r="E205" t="s">
+        <v>710</v>
+      </c>
+      <c r="F205" t="s">
+        <v>17</v>
+      </c>
+      <c r="G205" t="s">
+        <v>710</v>
+      </c>
+      <c r="H205" t="s">
         <v>711</v>
-      </c>
-      <c r="F205" t="s">
-        <v>17</v>
-      </c>
-      <c r="G205" t="s">
-        <v>711</v>
-      </c>
-      <c r="H205" t="s">
-        <v>712</v>
       </c>
       <c r="I205" t="s">
         <v>284</v>
@@ -13983,19 +13990,19 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>712</v>
+      </c>
+      <c r="B206" t="s">
         <v>713</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" t="s">
         <v>714</v>
-      </c>
-      <c r="C206" t="s">
-        <v>17</v>
-      </c>
-      <c r="D206" t="s">
-        <v>17</v>
-      </c>
-      <c r="E206" t="s">
-        <v>715</v>
       </c>
       <c r="F206" t="s">
         <v>17</v>
@@ -14027,19 +14034,19 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>715</v>
+      </c>
+      <c r="B207" t="s">
         <v>716</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>717</v>
-      </c>
-      <c r="C207" t="s">
-        <v>718</v>
       </c>
       <c r="D207">
         <v>3102</v>
       </c>
       <c r="E207" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F207" t="s">
         <v>17</v>
@@ -14048,7 +14055,7 @@
         <v>17</v>
       </c>
       <c r="H207" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I207" t="s">
         <v>113</v>
@@ -14057,7 +14064,7 @@
         <v>17</v>
       </c>
       <c r="K207" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L207" t="s">
         <v>17</v>
@@ -14071,28 +14078,28 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>719</v>
+      </c>
+      <c r="B208" t="s">
         <v>720</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>721</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" t="s">
+        <v>719</v>
+      </c>
+      <c r="F208" t="s">
+        <v>17</v>
+      </c>
+      <c r="G208" t="s">
+        <v>17</v>
+      </c>
+      <c r="H208" t="s">
         <v>722</v>
-      </c>
-      <c r="D208" t="s">
-        <v>17</v>
-      </c>
-      <c r="E208" t="s">
-        <v>720</v>
-      </c>
-      <c r="F208" t="s">
-        <v>17</v>
-      </c>
-      <c r="G208" t="s">
-        <v>17</v>
-      </c>
-      <c r="H208" t="s">
-        <v>723</v>
       </c>
       <c r="I208" t="s">
         <v>17</v>
@@ -14115,31 +14122,31 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>723</v>
+      </c>
+      <c r="B209" t="s">
         <v>724</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>725</v>
-      </c>
-      <c r="C209" t="s">
-        <v>726</v>
       </c>
       <c r="D209">
         <v>2345</v>
       </c>
       <c r="E209" t="s">
+        <v>726</v>
+      </c>
+      <c r="F209" t="s">
+        <v>17</v>
+      </c>
+      <c r="G209" t="s">
+        <v>17</v>
+      </c>
+      <c r="H209" t="s">
         <v>727</v>
       </c>
-      <c r="F209" t="s">
-        <v>17</v>
-      </c>
-      <c r="G209" t="s">
-        <v>17</v>
-      </c>
-      <c r="H209" t="s">
+      <c r="I209" t="s">
         <v>728</v>
-      </c>
-      <c r="I209" t="s">
-        <v>729</v>
       </c>
       <c r="J209" t="s">
         <v>17</v>
@@ -14159,31 +14166,31 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>729</v>
+      </c>
+      <c r="B210" t="s">
         <v>730</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>731</v>
-      </c>
-      <c r="C210" t="s">
-        <v>732</v>
       </c>
       <c r="D210">
         <v>61016</v>
       </c>
       <c r="E210" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F210" t="s">
         <v>17</v>
       </c>
       <c r="G210" t="s">
+        <v>732</v>
+      </c>
+      <c r="H210" t="s">
         <v>733</v>
       </c>
-      <c r="H210" t="s">
-        <v>734</v>
-      </c>
       <c r="I210" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J210" t="s">
         <v>17</v>
@@ -14203,19 +14210,19 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>734</v>
+      </c>
+      <c r="B211" t="s">
         <v>735</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>736</v>
-      </c>
-      <c r="C211" t="s">
-        <v>737</v>
       </c>
       <c r="D211">
         <v>32735</v>
       </c>
       <c r="E211" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F211" t="s">
         <v>17</v>
@@ -14227,7 +14234,7 @@
         <v>17</v>
       </c>
       <c r="I211" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J211" t="s">
         <v>17</v>
@@ -14247,28 +14254,28 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>738</v>
+      </c>
+      <c r="B212" t="s">
         <v>739</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>740</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" t="s">
         <v>741</v>
       </c>
-      <c r="D212" t="s">
-        <v>17</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
+        <v>17</v>
+      </c>
+      <c r="G212" t="s">
+        <v>17</v>
+      </c>
+      <c r="H212" t="s">
         <v>742</v>
-      </c>
-      <c r="F212" t="s">
-        <v>17</v>
-      </c>
-      <c r="G212" t="s">
-        <v>17</v>
-      </c>
-      <c r="H212" t="s">
-        <v>743</v>
       </c>
       <c r="I212" t="s">
         <v>17</v>
@@ -14291,19 +14298,19 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>743</v>
+      </c>
+      <c r="B213" t="s">
         <v>744</v>
       </c>
-      <c r="B213" t="s">
-        <v>745</v>
-      </c>
       <c r="C213" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D213">
         <v>11038</v>
       </c>
       <c r="E213" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F213" t="s">
         <v>17</v>
@@ -14315,7 +14322,7 @@
         <v>17</v>
       </c>
       <c r="I213" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J213" t="s">
         <v>17</v>
@@ -14335,28 +14342,28 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>746</v>
+      </c>
+      <c r="B214" t="s">
         <v>747</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>748</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
+        <v>17</v>
+      </c>
+      <c r="E214" t="s">
+        <v>746</v>
+      </c>
+      <c r="F214" t="s">
+        <v>17</v>
+      </c>
+      <c r="G214" t="s">
+        <v>17</v>
+      </c>
+      <c r="H214" t="s">
         <v>749</v>
-      </c>
-      <c r="D214" t="s">
-        <v>17</v>
-      </c>
-      <c r="E214" t="s">
-        <v>747</v>
-      </c>
-      <c r="F214" t="s">
-        <v>17</v>
-      </c>
-      <c r="G214" t="s">
-        <v>17</v>
-      </c>
-      <c r="H214" t="s">
-        <v>750</v>
       </c>
       <c r="I214" t="s">
         <v>17</v>
@@ -14379,28 +14386,28 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>750</v>
+      </c>
+      <c r="B215" t="s">
         <v>751</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>752</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" t="s">
+        <v>750</v>
+      </c>
+      <c r="F215" t="s">
+        <v>17</v>
+      </c>
+      <c r="G215" t="s">
+        <v>17</v>
+      </c>
+      <c r="H215" t="s">
         <v>753</v>
-      </c>
-      <c r="D215" t="s">
-        <v>17</v>
-      </c>
-      <c r="E215" t="s">
-        <v>751</v>
-      </c>
-      <c r="F215" t="s">
-        <v>17</v>
-      </c>
-      <c r="G215" t="s">
-        <v>17</v>
-      </c>
-      <c r="H215" t="s">
-        <v>754</v>
       </c>
       <c r="I215" t="s">
         <v>17</v>
@@ -14423,19 +14430,19 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>754</v>
+      </c>
+      <c r="B216" t="s">
         <v>755</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>756</v>
       </c>
-      <c r="C216" t="s">
-        <v>757</v>
-      </c>
       <c r="D216" t="s">
         <v>17</v>
       </c>
       <c r="E216" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F216" t="s">
         <v>17</v>
@@ -14467,28 +14474,28 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>757</v>
+      </c>
+      <c r="B217" t="s">
         <v>758</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>759</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" t="s">
+        <v>757</v>
+      </c>
+      <c r="F217" t="s">
+        <v>17</v>
+      </c>
+      <c r="G217" t="s">
+        <v>17</v>
+      </c>
+      <c r="H217" t="s">
         <v>760</v>
-      </c>
-      <c r="D217" t="s">
-        <v>17</v>
-      </c>
-      <c r="E217" t="s">
-        <v>758</v>
-      </c>
-      <c r="F217" t="s">
-        <v>17</v>
-      </c>
-      <c r="G217" t="s">
-        <v>17</v>
-      </c>
-      <c r="H217" t="s">
-        <v>761</v>
       </c>
       <c r="I217" t="s">
         <v>17</v>
@@ -14511,19 +14518,19 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>761</v>
+      </c>
+      <c r="B218" t="s">
         <v>762</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>763</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" t="s">
         <v>764</v>
-      </c>
-      <c r="D218" t="s">
-        <v>17</v>
-      </c>
-      <c r="E218" t="s">
-        <v>765</v>
       </c>
       <c r="F218" t="s">
         <v>17</v>
@@ -14555,25 +14562,25 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>765</v>
+      </c>
+      <c r="B219" t="s">
         <v>766</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>767</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" t="s">
         <v>768</v>
       </c>
-      <c r="D219" t="s">
-        <v>17</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
+        <v>17</v>
+      </c>
+      <c r="G219" t="s">
         <v>769</v>
-      </c>
-      <c r="F219" t="s">
-        <v>17</v>
-      </c>
-      <c r="G219" t="s">
-        <v>770</v>
       </c>
       <c r="H219" t="s">
         <v>17</v>
@@ -14599,28 +14606,28 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>770</v>
+      </c>
+      <c r="B220" t="s">
         <v>771</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>772</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" t="s">
         <v>773</v>
       </c>
-      <c r="D220" t="s">
-        <v>17</v>
-      </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
+        <v>17</v>
+      </c>
+      <c r="G220" t="s">
+        <v>17</v>
+      </c>
+      <c r="H220" t="s">
         <v>774</v>
-      </c>
-      <c r="F220" t="s">
-        <v>17</v>
-      </c>
-      <c r="G220" t="s">
-        <v>17</v>
-      </c>
-      <c r="H220" t="s">
-        <v>775</v>
       </c>
       <c r="I220" t="s">
         <v>17</v>
@@ -14643,28 +14650,28 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>775</v>
+      </c>
+      <c r="B221" t="s">
         <v>776</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>777</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" t="s">
         <v>778</v>
       </c>
-      <c r="D221" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
+        <v>17</v>
+      </c>
+      <c r="G221" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221" t="s">
         <v>779</v>
-      </c>
-      <c r="F221" t="s">
-        <v>17</v>
-      </c>
-      <c r="G221" t="s">
-        <v>17</v>
-      </c>
-      <c r="H221" t="s">
-        <v>780</v>
       </c>
       <c r="I221" t="s">
         <v>17</v>
@@ -14687,19 +14694,19 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>780</v>
+      </c>
+      <c r="B222" t="s">
         <v>781</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>782</v>
-      </c>
-      <c r="C222" t="s">
-        <v>783</v>
       </c>
       <c r="D222">
         <v>10225</v>
       </c>
       <c r="E222" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F222" t="s">
         <v>17</v>
@@ -14711,7 +14718,7 @@
         <v>17</v>
       </c>
       <c r="I222" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J222" t="s">
         <v>17</v>
@@ -14731,28 +14738,28 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>784</v>
+      </c>
+      <c r="B223" t="s">
         <v>785</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>786</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
+        <v>17</v>
+      </c>
+      <c r="E223" t="s">
         <v>787</v>
       </c>
-      <c r="D223" t="s">
-        <v>17</v>
-      </c>
-      <c r="E223" t="s">
+      <c r="F223" t="s">
         <v>788</v>
       </c>
-      <c r="F223" t="s">
+      <c r="G223" t="s">
+        <v>17</v>
+      </c>
+      <c r="H223" t="s">
         <v>789</v>
-      </c>
-      <c r="G223" t="s">
-        <v>17</v>
-      </c>
-      <c r="H223" t="s">
-        <v>790</v>
       </c>
       <c r="I223" t="s">
         <v>17</v>
@@ -14775,28 +14782,28 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>790</v>
+      </c>
+      <c r="B224" t="s">
         <v>791</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>792</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224" t="s">
         <v>793</v>
       </c>
-      <c r="D224" t="s">
-        <v>17</v>
-      </c>
-      <c r="E224" t="s">
+      <c r="F224" t="s">
         <v>794</v>
       </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
+        <v>17</v>
+      </c>
+      <c r="H224" t="s">
         <v>795</v>
-      </c>
-      <c r="G224" t="s">
-        <v>17</v>
-      </c>
-      <c r="H224" t="s">
-        <v>796</v>
       </c>
       <c r="I224" t="s">
         <v>17</v>
@@ -14819,28 +14826,28 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>796</v>
+      </c>
+      <c r="B225" t="s">
         <v>797</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
+        <v>17</v>
+      </c>
+      <c r="D225" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225" t="s">
         <v>798</v>
       </c>
-      <c r="C225" t="s">
-        <v>17</v>
-      </c>
-      <c r="D225" t="s">
-        <v>17</v>
-      </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
         <v>799</v>
       </c>
-      <c r="F225" t="s">
-        <v>800</v>
-      </c>
       <c r="G225" t="s">
         <v>17</v>
       </c>
       <c r="H225" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I225" t="s">
         <v>17</v>
@@ -14863,19 +14870,19 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>800</v>
+      </c>
+      <c r="B226" t="s">
         <v>801</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" t="s">
+        <v>17</v>
+      </c>
+      <c r="E226" t="s">
         <v>802</v>
-      </c>
-      <c r="C226" t="s">
-        <v>17</v>
-      </c>
-      <c r="D226" t="s">
-        <v>17</v>
-      </c>
-      <c r="E226" t="s">
-        <v>803</v>
       </c>
       <c r="F226" t="s">
         <v>17</v>
@@ -14907,34 +14914,34 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>803</v>
+      </c>
+      <c r="B227" t="s">
         <v>804</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>805</v>
-      </c>
-      <c r="C227" t="s">
-        <v>806</v>
       </c>
       <c r="D227">
         <v>2537</v>
       </c>
       <c r="E227" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F227" t="s">
         <v>17</v>
       </c>
       <c r="G227" t="s">
+        <v>806</v>
+      </c>
+      <c r="H227" t="s">
         <v>807</v>
       </c>
-      <c r="H227" t="s">
+      <c r="I227" t="s">
+        <v>316</v>
+      </c>
+      <c r="J227" t="s">
         <v>808</v>
-      </c>
-      <c r="I227" t="s">
-        <v>317</v>
-      </c>
-      <c r="J227" t="s">
-        <v>809</v>
       </c>
       <c r="K227" t="s">
         <v>26</v>
@@ -14951,19 +14958,19 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>809</v>
+      </c>
+      <c r="B228" t="s">
         <v>810</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>811</v>
       </c>
-      <c r="C228" t="s">
-        <v>812</v>
-      </c>
       <c r="D228" t="s">
         <v>17</v>
       </c>
       <c r="E228" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F228" t="s">
         <v>17</v>
@@ -14972,7 +14979,7 @@
         <v>17</v>
       </c>
       <c r="H228" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I228" t="s">
         <v>17</v>
@@ -14995,28 +15002,28 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>812</v>
+      </c>
+      <c r="B229" t="s">
         <v>813</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
+        <v>17</v>
+      </c>
+      <c r="D229" t="s">
+        <v>17</v>
+      </c>
+      <c r="E229" t="s">
         <v>814</v>
       </c>
-      <c r="C229" t="s">
-        <v>17</v>
-      </c>
-      <c r="D229" t="s">
-        <v>17</v>
-      </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
         <v>815</v>
       </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
+        <v>17</v>
+      </c>
+      <c r="H229" t="s">
         <v>816</v>
-      </c>
-      <c r="G229" t="s">
-        <v>17</v>
-      </c>
-      <c r="H229" t="s">
-        <v>817</v>
       </c>
       <c r="I229" t="s">
         <v>17</v>
@@ -15039,28 +15046,28 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>817</v>
+      </c>
+      <c r="B230" t="s">
         <v>818</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>819</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" t="s">
         <v>820</v>
       </c>
-      <c r="D230" t="s">
-        <v>17</v>
-      </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
+        <v>17</v>
+      </c>
+      <c r="G230" t="s">
+        <v>17</v>
+      </c>
+      <c r="H230" t="s">
         <v>821</v>
-      </c>
-      <c r="F230" t="s">
-        <v>17</v>
-      </c>
-      <c r="G230" t="s">
-        <v>17</v>
-      </c>
-      <c r="H230" t="s">
-        <v>822</v>
       </c>
       <c r="I230" t="s">
         <v>17</v>
@@ -15083,19 +15090,19 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>822</v>
+      </c>
+      <c r="B231" t="s">
         <v>823</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>824</v>
-      </c>
-      <c r="C231" t="s">
-        <v>825</v>
       </c>
       <c r="D231">
         <v>7439</v>
       </c>
       <c r="E231" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F231" t="s">
         <v>17</v>
@@ -15104,13 +15111,13 @@
         <v>17</v>
       </c>
       <c r="H231" t="s">
+        <v>825</v>
+      </c>
+      <c r="I231" t="s">
+        <v>316</v>
+      </c>
+      <c r="J231" t="s">
         <v>826</v>
-      </c>
-      <c r="I231" t="s">
-        <v>317</v>
-      </c>
-      <c r="J231" t="s">
-        <v>827</v>
       </c>
       <c r="K231" t="s">
         <v>88</v>
@@ -15127,28 +15134,28 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>827</v>
+      </c>
+      <c r="B232" t="s">
         <v>828</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>829</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" t="s">
         <v>830</v>
       </c>
-      <c r="D232" t="s">
-        <v>17</v>
-      </c>
-      <c r="E232" t="s">
+      <c r="F232" t="s">
         <v>831</v>
       </c>
-      <c r="F232" t="s">
+      <c r="G232" t="s">
+        <v>17</v>
+      </c>
+      <c r="H232" t="s">
         <v>832</v>
-      </c>
-      <c r="G232" t="s">
-        <v>17</v>
-      </c>
-      <c r="H232" t="s">
-        <v>833</v>
       </c>
       <c r="I232" t="s">
         <v>17</v>
@@ -15171,28 +15178,28 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>833</v>
+      </c>
+      <c r="B233" t="s">
         <v>834</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>835</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" t="s">
         <v>836</v>
       </c>
-      <c r="D233" t="s">
-        <v>17</v>
-      </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
+        <v>17</v>
+      </c>
+      <c r="G233" t="s">
+        <v>17</v>
+      </c>
+      <c r="H233" t="s">
         <v>837</v>
-      </c>
-      <c r="F233" t="s">
-        <v>17</v>
-      </c>
-      <c r="G233" t="s">
-        <v>17</v>
-      </c>
-      <c r="H233" t="s">
-        <v>838</v>
       </c>
       <c r="I233" t="s">
         <v>17</v>
@@ -15215,28 +15222,28 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>838</v>
+      </c>
+      <c r="B234" t="s">
         <v>839</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>840</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234" t="s">
+        <v>838</v>
+      </c>
+      <c r="F234" t="s">
+        <v>17</v>
+      </c>
+      <c r="G234" t="s">
+        <v>17</v>
+      </c>
+      <c r="H234" t="s">
         <v>841</v>
-      </c>
-      <c r="D234" t="s">
-        <v>17</v>
-      </c>
-      <c r="E234" t="s">
-        <v>839</v>
-      </c>
-      <c r="F234" t="s">
-        <v>17</v>
-      </c>
-      <c r="G234" t="s">
-        <v>17</v>
-      </c>
-      <c r="H234" t="s">
-        <v>842</v>
       </c>
       <c r="I234" t="s">
         <v>17</v>
@@ -15259,28 +15266,28 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>842</v>
+      </c>
+      <c r="B235" t="s">
         <v>843</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>844</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
+        <v>17</v>
+      </c>
+      <c r="E235" t="s">
+        <v>842</v>
+      </c>
+      <c r="F235" t="s">
+        <v>17</v>
+      </c>
+      <c r="G235" t="s">
+        <v>17</v>
+      </c>
+      <c r="H235" t="s">
         <v>845</v>
-      </c>
-      <c r="D235" t="s">
-        <v>17</v>
-      </c>
-      <c r="E235" t="s">
-        <v>843</v>
-      </c>
-      <c r="F235" t="s">
-        <v>17</v>
-      </c>
-      <c r="G235" t="s">
-        <v>17</v>
-      </c>
-      <c r="H235" t="s">
-        <v>846</v>
       </c>
       <c r="I235" t="s">
         <v>17</v>
@@ -15303,28 +15310,28 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>846</v>
+      </c>
+      <c r="B236" t="s">
         <v>847</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>848</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
+        <v>17</v>
+      </c>
+      <c r="E236" t="s">
         <v>849</v>
       </c>
-      <c r="D236" t="s">
-        <v>17</v>
-      </c>
-      <c r="E236" t="s">
+      <c r="F236" t="s">
         <v>850</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
+        <v>17</v>
+      </c>
+      <c r="H236" t="s">
         <v>851</v>
-      </c>
-      <c r="G236" t="s">
-        <v>17</v>
-      </c>
-      <c r="H236" t="s">
-        <v>852</v>
       </c>
       <c r="I236" t="s">
         <v>17</v>
@@ -15347,19 +15354,19 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>852</v>
+      </c>
+      <c r="B237" t="s">
         <v>853</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>854</v>
       </c>
-      <c r="C237" t="s">
-        <v>855</v>
-      </c>
       <c r="D237" t="s">
         <v>17</v>
       </c>
       <c r="E237" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F237" t="s">
         <v>17</v>
@@ -15391,28 +15398,28 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>855</v>
+      </c>
+      <c r="B238" t="s">
         <v>856</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>857</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
+        <v>17</v>
+      </c>
+      <c r="E238" t="s">
+        <v>855</v>
+      </c>
+      <c r="F238" t="s">
+        <v>17</v>
+      </c>
+      <c r="G238" t="s">
+        <v>17</v>
+      </c>
+      <c r="H238" t="s">
         <v>858</v>
-      </c>
-      <c r="D238" t="s">
-        <v>17</v>
-      </c>
-      <c r="E238" t="s">
-        <v>856</v>
-      </c>
-      <c r="F238" t="s">
-        <v>17</v>
-      </c>
-      <c r="G238" t="s">
-        <v>17</v>
-      </c>
-      <c r="H238" t="s">
-        <v>859</v>
       </c>
       <c r="I238" t="s">
         <v>17</v>
@@ -15435,19 +15442,19 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>859</v>
+      </c>
+      <c r="B239" t="s">
         <v>860</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>861</v>
-      </c>
-      <c r="C239" t="s">
-        <v>862</v>
       </c>
       <c r="D239">
         <v>7967</v>
       </c>
       <c r="E239" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F239" t="s">
         <v>17</v>
@@ -15456,7 +15463,7 @@
         <v>17</v>
       </c>
       <c r="H239" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I239" t="s">
         <v>113</v>
@@ -15465,7 +15472,7 @@
         <v>17</v>
       </c>
       <c r="K239" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L239">
         <v>892</v>
@@ -15479,19 +15486,19 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>864</v>
+      </c>
+      <c r="B240" t="s">
         <v>865</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>866</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
+        <v>17</v>
+      </c>
+      <c r="E240" t="s">
         <v>867</v>
-      </c>
-      <c r="D240" t="s">
-        <v>17</v>
-      </c>
-      <c r="E240" t="s">
-        <v>868</v>
       </c>
       <c r="F240" t="s">
         <v>17</v>
@@ -15523,34 +15530,34 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>868</v>
+      </c>
+      <c r="B241" t="s">
         <v>869</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>870</v>
-      </c>
-      <c r="C241" t="s">
-        <v>871</v>
       </c>
       <c r="D241">
         <v>10703</v>
       </c>
       <c r="E241" t="s">
+        <v>871</v>
+      </c>
+      <c r="F241" t="s">
         <v>872</v>
       </c>
-      <c r="F241" t="s">
+      <c r="G241" t="s">
+        <v>17</v>
+      </c>
+      <c r="H241" t="s">
         <v>873</v>
-      </c>
-      <c r="G241" t="s">
-        <v>17</v>
-      </c>
-      <c r="H241" t="s">
-        <v>874</v>
       </c>
       <c r="I241" t="s">
         <v>148</v>
       </c>
       <c r="J241" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K241" t="s">
         <v>17</v>
@@ -15567,28 +15574,28 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>875</v>
+      </c>
+      <c r="B242" t="s">
         <v>876</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>877</v>
-      </c>
-      <c r="C242" t="s">
-        <v>878</v>
       </c>
       <c r="D242">
         <v>62385</v>
       </c>
       <c r="E242" t="s">
+        <v>878</v>
+      </c>
+      <c r="F242" t="s">
         <v>879</v>
       </c>
-      <c r="F242" t="s">
+      <c r="G242" t="s">
         <v>880</v>
       </c>
-      <c r="G242" t="s">
+      <c r="H242" t="s">
         <v>881</v>
-      </c>
-      <c r="H242" t="s">
-        <v>882</v>
       </c>
       <c r="I242" t="s">
         <v>218</v>
@@ -15611,19 +15618,19 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>882</v>
+      </c>
+      <c r="B243" t="s">
         <v>883</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>884</v>
-      </c>
-      <c r="C243" t="s">
-        <v>885</v>
       </c>
       <c r="D243">
         <v>8175</v>
       </c>
       <c r="E243" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F243" t="s">
         <v>17</v>
@@ -15632,7 +15639,7 @@
         <v>15.83</v>
       </c>
       <c r="H243" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I243" t="s">
         <v>241</v>
@@ -15655,19 +15662,19 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>886</v>
+      </c>
+      <c r="B244" t="s">
         <v>887</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>888</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" t="s">
         <v>889</v>
-      </c>
-      <c r="D244" t="s">
-        <v>17</v>
-      </c>
-      <c r="E244" t="s">
-        <v>890</v>
       </c>
       <c r="F244" t="s">
         <v>17</v>
@@ -15699,19 +15706,19 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>890</v>
+      </c>
+      <c r="B245" t="s">
         <v>891</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>892</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
+        <v>17</v>
+      </c>
+      <c r="E245" t="s">
         <v>893</v>
-      </c>
-      <c r="D245" t="s">
-        <v>17</v>
-      </c>
-      <c r="E245" t="s">
-        <v>894</v>
       </c>
       <c r="F245" t="s">
         <v>17</v>
@@ -15743,19 +15750,19 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>894</v>
+      </c>
+      <c r="B246" t="s">
         <v>895</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>896</v>
-      </c>
-      <c r="C246" t="s">
-        <v>897</v>
       </c>
       <c r="D246">
         <v>12741</v>
       </c>
       <c r="E246" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F246" t="s">
         <v>17</v>
@@ -15764,7 +15771,7 @@
         <v>15.38</v>
       </c>
       <c r="H246" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I246" t="s">
         <v>256</v>
@@ -15787,19 +15794,19 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>899</v>
+      </c>
+      <c r="B247" t="s">
         <v>900</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>901</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
+        <v>17</v>
+      </c>
+      <c r="E247" t="s">
         <v>902</v>
-      </c>
-      <c r="D247" t="s">
-        <v>17</v>
-      </c>
-      <c r="E247" t="s">
-        <v>903</v>
       </c>
       <c r="F247" t="s">
         <v>17</v>
@@ -15831,37 +15838,37 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>903</v>
+      </c>
+      <c r="B248" t="s">
         <v>904</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>905</v>
-      </c>
-      <c r="C248" t="s">
-        <v>906</v>
       </c>
       <c r="D248">
         <v>27209</v>
       </c>
       <c r="E248" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F248" t="s">
         <v>17</v>
       </c>
       <c r="G248" t="s">
+        <v>906</v>
+      </c>
+      <c r="H248" t="s">
         <v>907</v>
       </c>
-      <c r="H248" t="s">
-        <v>908</v>
-      </c>
       <c r="I248" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J248" t="s">
         <v>17</v>
       </c>
       <c r="K248" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L248" t="s">
         <v>17</v>
@@ -15875,28 +15882,28 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>908</v>
+      </c>
+      <c r="B249" t="s">
         <v>909</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>910</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249" t="s">
+        <v>908</v>
+      </c>
+      <c r="F249" t="s">
+        <v>17</v>
+      </c>
+      <c r="G249" t="s">
+        <v>17</v>
+      </c>
+      <c r="H249" t="s">
         <v>911</v>
-      </c>
-      <c r="D249" t="s">
-        <v>17</v>
-      </c>
-      <c r="E249" t="s">
-        <v>909</v>
-      </c>
-      <c r="F249" t="s">
-        <v>17</v>
-      </c>
-      <c r="G249" t="s">
-        <v>17</v>
-      </c>
-      <c r="H249" t="s">
-        <v>912</v>
       </c>
       <c r="I249" t="s">
         <v>17</v>
@@ -15919,28 +15926,28 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>912</v>
+      </c>
+      <c r="B250" t="s">
         <v>913</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>914</v>
-      </c>
-      <c r="C250" t="s">
-        <v>915</v>
       </c>
       <c r="D250">
         <v>8194</v>
       </c>
       <c r="E250" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F250" t="s">
         <v>17</v>
       </c>
       <c r="G250" t="s">
+        <v>915</v>
+      </c>
+      <c r="H250" t="s">
         <v>916</v>
-      </c>
-      <c r="H250" t="s">
-        <v>917</v>
       </c>
       <c r="I250" t="s">
         <v>241</v>
@@ -15963,19 +15970,19 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>917</v>
+      </c>
+      <c r="B251" t="s">
         <v>918</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>919</v>
-      </c>
-      <c r="C251" t="s">
-        <v>920</v>
       </c>
       <c r="D251">
         <v>8193</v>
       </c>
       <c r="E251" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F251" t="s">
         <v>17</v>
@@ -15984,7 +15991,7 @@
         <v>27.52</v>
       </c>
       <c r="H251" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I251" t="s">
         <v>19</v>
@@ -16007,28 +16014,28 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>922</v>
+      </c>
+      <c r="B252" t="s">
         <v>923</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>924</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
+        <v>17</v>
+      </c>
+      <c r="E252" t="s">
+        <v>922</v>
+      </c>
+      <c r="F252" t="s">
+        <v>17</v>
+      </c>
+      <c r="G252" t="s">
+        <v>17</v>
+      </c>
+      <c r="H252" t="s">
         <v>925</v>
-      </c>
-      <c r="D252" t="s">
-        <v>17</v>
-      </c>
-      <c r="E252" t="s">
-        <v>923</v>
-      </c>
-      <c r="F252" t="s">
-        <v>17</v>
-      </c>
-      <c r="G252" t="s">
-        <v>17</v>
-      </c>
-      <c r="H252" t="s">
-        <v>926</v>
       </c>
       <c r="I252" t="s">
         <v>17</v>
@@ -16051,28 +16058,28 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>926</v>
+      </c>
+      <c r="B253" t="s">
         <v>927</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>928</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
+        <v>17</v>
+      </c>
+      <c r="E253" t="s">
         <v>929</v>
       </c>
-      <c r="D253" t="s">
-        <v>17</v>
-      </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>930</v>
       </c>
-      <c r="F253" t="s">
+      <c r="G253" t="s">
+        <v>17</v>
+      </c>
+      <c r="H253" t="s">
         <v>931</v>
-      </c>
-      <c r="G253" t="s">
-        <v>17</v>
-      </c>
-      <c r="H253" t="s">
-        <v>932</v>
       </c>
       <c r="I253" t="s">
         <v>17</v>
@@ -16095,31 +16102,31 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B254" t="s">
         <v>1333</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>1334</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F254" t="s">
+        <v>17</v>
+      </c>
+      <c r="G254" t="s">
+        <v>17</v>
+      </c>
+      <c r="H254" t="s">
         <v>1335</v>
       </c>
-      <c r="D254" t="s">
-        <v>17</v>
-      </c>
-      <c r="E254" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F254" t="s">
-        <v>17</v>
-      </c>
-      <c r="G254" t="s">
-        <v>17</v>
-      </c>
-      <c r="H254" t="s">
-        <v>1336</v>
-      </c>
       <c r="I254" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J254" t="s">
         <v>17</v>
@@ -16139,28 +16146,28 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>932</v>
+      </c>
+      <c r="B255" t="s">
         <v>933</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>934</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255" t="s">
         <v>935</v>
       </c>
-      <c r="D255" t="s">
-        <v>17</v>
-      </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
+        <v>17</v>
+      </c>
+      <c r="G255" t="s">
+        <v>17</v>
+      </c>
+      <c r="H255" t="s">
         <v>936</v>
-      </c>
-      <c r="F255" t="s">
-        <v>17</v>
-      </c>
-      <c r="G255" t="s">
-        <v>17</v>
-      </c>
-      <c r="H255" t="s">
-        <v>937</v>
       </c>
       <c r="I255" t="s">
         <v>17</v>
@@ -16183,34 +16190,34 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>937</v>
+      </c>
+      <c r="B256" t="s">
         <v>938</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>939</v>
-      </c>
-      <c r="C256" t="s">
-        <v>940</v>
       </c>
       <c r="D256">
         <v>2758</v>
       </c>
       <c r="E256" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F256" t="s">
         <v>17</v>
       </c>
       <c r="G256" t="s">
+        <v>940</v>
+      </c>
+      <c r="H256" t="s">
         <v>941</v>
       </c>
-      <c r="H256" t="s">
+      <c r="I256" t="s">
+        <v>316</v>
+      </c>
+      <c r="J256" t="s">
         <v>942</v>
-      </c>
-      <c r="I256" t="s">
-        <v>317</v>
-      </c>
-      <c r="J256" t="s">
-        <v>943</v>
       </c>
       <c r="K256" t="s">
         <v>197</v>
@@ -16227,19 +16234,19 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>943</v>
+      </c>
+      <c r="B257" t="s">
         <v>944</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
         <v>945</v>
-      </c>
-      <c r="C257" t="s">
-        <v>946</v>
       </c>
       <c r="D257">
         <v>3314</v>
       </c>
       <c r="E257" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F257" t="s">
         <v>17</v>
@@ -16248,13 +16255,13 @@
         <v>17</v>
       </c>
       <c r="H257" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I257" t="s">
         <v>77</v>
       </c>
       <c r="J257" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K257" t="s">
         <v>17</v>
@@ -16271,28 +16278,28 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>948</v>
+      </c>
+      <c r="B258" t="s">
         <v>949</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
+        <v>17</v>
+      </c>
+      <c r="D258" t="s">
+        <v>17</v>
+      </c>
+      <c r="E258" t="s">
         <v>950</v>
       </c>
-      <c r="C258" t="s">
-        <v>17</v>
-      </c>
-      <c r="D258" t="s">
-        <v>17</v>
-      </c>
-      <c r="E258" t="s">
+      <c r="F258" t="s">
+        <v>17</v>
+      </c>
+      <c r="G258" t="s">
+        <v>17</v>
+      </c>
+      <c r="H258" t="s">
         <v>951</v>
-      </c>
-      <c r="F258" t="s">
-        <v>17</v>
-      </c>
-      <c r="G258" t="s">
-        <v>17</v>
-      </c>
-      <c r="H258" t="s">
-        <v>952</v>
       </c>
       <c r="I258" t="s">
         <v>17</v>
@@ -16315,19 +16322,19 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>952</v>
+      </c>
+      <c r="B259" t="s">
         <v>953</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>954</v>
       </c>
-      <c r="C259" t="s">
-        <v>955</v>
-      </c>
       <c r="D259" t="s">
         <v>17</v>
       </c>
       <c r="E259" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F259" t="s">
         <v>17</v>
@@ -16359,19 +16366,19 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>955</v>
+      </c>
+      <c r="B260" t="s">
         <v>956</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>957</v>
       </c>
-      <c r="C260" t="s">
-        <v>958</v>
-      </c>
       <c r="D260" t="s">
         <v>17</v>
       </c>
       <c r="E260" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F260" t="s">
         <v>17</v>
@@ -16403,19 +16410,19 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>958</v>
+      </c>
+      <c r="B261" t="s">
         <v>959</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>960</v>
-      </c>
-      <c r="C261" t="s">
-        <v>961</v>
       </c>
       <c r="D261">
         <v>12051</v>
       </c>
       <c r="E261" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F261" t="s">
         <v>17</v>
@@ -16427,13 +16434,13 @@
         <v>17</v>
       </c>
       <c r="I261" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J261" t="s">
         <v>17</v>
       </c>
       <c r="K261" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L261" t="s">
         <v>17</v>
@@ -16447,31 +16454,31 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>962</v>
+      </c>
+      <c r="B262" t="s">
         <v>963</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>964</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
+        <v>17</v>
+      </c>
+      <c r="E262" t="s">
         <v>965</v>
       </c>
-      <c r="D262" t="s">
-        <v>17</v>
-      </c>
-      <c r="E262" t="s">
+      <c r="F262" t="s">
         <v>966</v>
       </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
+        <v>17</v>
+      </c>
+      <c r="H262" t="s">
         <v>967</v>
       </c>
-      <c r="G262" t="s">
-        <v>17</v>
-      </c>
-      <c r="H262" t="s">
-        <v>968</v>
-      </c>
       <c r="I262" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J262" t="s">
         <v>17</v>
@@ -16491,31 +16498,31 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>968</v>
+      </c>
+      <c r="B263" t="s">
         <v>969</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>970</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
+        <v>17</v>
+      </c>
+      <c r="E263" t="s">
         <v>971</v>
       </c>
-      <c r="D263" t="s">
-        <v>17</v>
-      </c>
-      <c r="E263" t="s">
+      <c r="F263" t="s">
         <v>972</v>
       </c>
-      <c r="F263" t="s">
+      <c r="G263" t="s">
+        <v>17</v>
+      </c>
+      <c r="H263" t="s">
         <v>973</v>
       </c>
-      <c r="G263" t="s">
-        <v>17</v>
-      </c>
-      <c r="H263" t="s">
-        <v>974</v>
-      </c>
       <c r="I263" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J263" t="s">
         <v>17</v>
@@ -16535,31 +16542,31 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>974</v>
+      </c>
+      <c r="B264" t="s">
         <v>975</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>976</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
+        <v>17</v>
+      </c>
+      <c r="E264" t="s">
         <v>977</v>
       </c>
-      <c r="D264" t="s">
-        <v>17</v>
-      </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>978</v>
       </c>
-      <c r="F264" t="s">
+      <c r="G264" t="s">
+        <v>17</v>
+      </c>
+      <c r="H264" t="s">
         <v>979</v>
       </c>
-      <c r="G264" t="s">
-        <v>17</v>
-      </c>
-      <c r="H264" t="s">
-        <v>980</v>
-      </c>
       <c r="I264" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J264" t="s">
         <v>17</v>
@@ -16579,31 +16586,31 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>980</v>
+      </c>
+      <c r="B265" t="s">
         <v>981</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>982</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265" t="s">
         <v>983</v>
       </c>
-      <c r="D265" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265" t="s">
+      <c r="F265" t="s">
         <v>984</v>
       </c>
-      <c r="F265" t="s">
+      <c r="G265" t="s">
+        <v>17</v>
+      </c>
+      <c r="H265" t="s">
         <v>985</v>
       </c>
-      <c r="G265" t="s">
-        <v>17</v>
-      </c>
-      <c r="H265" t="s">
-        <v>986</v>
-      </c>
       <c r="I265" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J265" t="s">
         <v>17</v>
@@ -16623,31 +16630,31 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>986</v>
+      </c>
+      <c r="B266" t="s">
         <v>987</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
         <v>988</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
+        <v>17</v>
+      </c>
+      <c r="E266" t="s">
         <v>989</v>
       </c>
-      <c r="D266" t="s">
-        <v>17</v>
-      </c>
-      <c r="E266" t="s">
+      <c r="F266" t="s">
         <v>990</v>
       </c>
-      <c r="F266" t="s">
+      <c r="G266" t="s">
+        <v>17</v>
+      </c>
+      <c r="H266" t="s">
         <v>991</v>
       </c>
-      <c r="G266" t="s">
-        <v>17</v>
-      </c>
-      <c r="H266" t="s">
-        <v>992</v>
-      </c>
       <c r="I266" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J266" t="s">
         <v>17</v>
@@ -16667,34 +16674,34 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>992</v>
+      </c>
+      <c r="B267" t="s">
         <v>993</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>994</v>
-      </c>
-      <c r="C267" t="s">
-        <v>995</v>
       </c>
       <c r="D267">
         <v>638011</v>
       </c>
       <c r="E267" t="s">
+        <v>995</v>
+      </c>
+      <c r="F267" t="s">
+        <v>17</v>
+      </c>
+      <c r="G267" t="s">
+        <v>17</v>
+      </c>
+      <c r="H267" t="s">
         <v>996</v>
       </c>
-      <c r="F267" t="s">
-        <v>17</v>
-      </c>
-      <c r="G267" t="s">
-        <v>17</v>
-      </c>
-      <c r="H267" t="s">
+      <c r="I267" t="s">
         <v>997</v>
       </c>
-      <c r="I267" t="s">
+      <c r="J267" t="s">
         <v>998</v>
-      </c>
-      <c r="J267" t="s">
-        <v>999</v>
       </c>
       <c r="K267" t="s">
         <v>88</v>
@@ -16711,28 +16718,28 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>999</v>
+      </c>
+      <c r="B268" t="s">
         <v>1000</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>1001</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" t="s">
+        <v>999</v>
+      </c>
+      <c r="F268" t="s">
+        <v>17</v>
+      </c>
+      <c r="G268" t="s">
+        <v>17</v>
+      </c>
+      <c r="H268" t="s">
         <v>1002</v>
-      </c>
-      <c r="D268" t="s">
-        <v>17</v>
-      </c>
-      <c r="E268" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F268" t="s">
-        <v>17</v>
-      </c>
-      <c r="G268" t="s">
-        <v>17</v>
-      </c>
-      <c r="H268" t="s">
-        <v>1003</v>
       </c>
       <c r="I268" t="s">
         <v>17</v>
@@ -16755,28 +16762,28 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B269" t="s">
         <v>1004</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
+        <v>17</v>
+      </c>
+      <c r="D269" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F269" t="s">
+        <v>17</v>
+      </c>
+      <c r="G269" t="s">
+        <v>17</v>
+      </c>
+      <c r="H269" t="s">
         <v>1005</v>
-      </c>
-      <c r="C269" t="s">
-        <v>17</v>
-      </c>
-      <c r="D269" t="s">
-        <v>17</v>
-      </c>
-      <c r="E269" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F269" t="s">
-        <v>17</v>
-      </c>
-      <c r="G269" t="s">
-        <v>17</v>
-      </c>
-      <c r="H269" t="s">
-        <v>1006</v>
       </c>
       <c r="I269" t="s">
         <v>17</v>
@@ -16799,28 +16806,28 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B270" t="s">
         <v>1007</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
+        <v>17</v>
+      </c>
+      <c r="D270" t="s">
+        <v>17</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F270" t="s">
+        <v>17</v>
+      </c>
+      <c r="G270" t="s">
+        <v>17</v>
+      </c>
+      <c r="H270" t="s">
         <v>1008</v>
-      </c>
-      <c r="C270" t="s">
-        <v>17</v>
-      </c>
-      <c r="D270" t="s">
-        <v>17</v>
-      </c>
-      <c r="E270" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F270" t="s">
-        <v>17</v>
-      </c>
-      <c r="G270" t="s">
-        <v>17</v>
-      </c>
-      <c r="H270" t="s">
-        <v>1009</v>
       </c>
       <c r="I270" t="s">
         <v>17</v>
@@ -16843,28 +16850,28 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B271" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C271" t="s">
         <v>1010</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
+        <v>17</v>
+      </c>
+      <c r="E271" t="s">
+        <v>617</v>
+      </c>
+      <c r="F271" t="s">
+        <v>17</v>
+      </c>
+      <c r="G271" t="s">
+        <v>17</v>
+      </c>
+      <c r="H271" t="s">
         <v>1011</v>
-      </c>
-      <c r="D271" t="s">
-        <v>17</v>
-      </c>
-      <c r="E271" t="s">
-        <v>618</v>
-      </c>
-      <c r="F271" t="s">
-        <v>17</v>
-      </c>
-      <c r="G271" t="s">
-        <v>17</v>
-      </c>
-      <c r="H271" t="s">
-        <v>1012</v>
       </c>
       <c r="I271" t="s">
         <v>17</v>
@@ -16887,19 +16894,19 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B272" t="s">
         <v>1013</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>1014</v>
       </c>
-      <c r="C272" t="s">
-        <v>1015</v>
-      </c>
       <c r="D272" t="s">
         <v>17</v>
       </c>
       <c r="E272" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F272" t="s">
         <v>17</v>
@@ -16931,28 +16938,28 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B273" t="s">
         <v>1016</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>1017</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273" t="s">
         <v>1018</v>
       </c>
-      <c r="D273" t="s">
-        <v>17</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="F273" t="s">
         <v>1019</v>
       </c>
-      <c r="F273" t="s">
+      <c r="G273" t="s">
+        <v>17</v>
+      </c>
+      <c r="H273" t="s">
         <v>1020</v>
-      </c>
-      <c r="G273" t="s">
-        <v>17</v>
-      </c>
-      <c r="H273" t="s">
-        <v>1021</v>
       </c>
       <c r="I273" t="s">
         <v>17</v>
@@ -16975,19 +16982,19 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B274" t="s">
         <v>1022</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>1023</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1024</v>
       </c>
       <c r="D274">
         <v>16656</v>
       </c>
       <c r="E274" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F274" t="s">
         <v>17</v>
@@ -17019,19 +17026,19 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B275" t="s">
         <v>1026</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>1027</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
+        <v>17</v>
+      </c>
+      <c r="E275" t="s">
         <v>1028</v>
-      </c>
-      <c r="D275" t="s">
-        <v>17</v>
-      </c>
-      <c r="E275" t="s">
-        <v>1029</v>
       </c>
       <c r="F275" t="s">
         <v>17</v>
@@ -17063,19 +17070,19 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B276" t="s">
         <v>1030</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
         <v>1031</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1032</v>
       </c>
       <c r="D276">
         <v>8129</v>
       </c>
       <c r="E276" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F276" t="s">
         <v>17</v>
@@ -17084,10 +17091,10 @@
         <v>6.63</v>
       </c>
       <c r="H276" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I276" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J276" t="s">
         <v>17</v>
@@ -17107,19 +17114,19 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B277" t="s">
         <v>1035</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
         <v>1036</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1037</v>
       </c>
       <c r="D277">
         <v>8051</v>
       </c>
       <c r="E277" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F277" t="s">
         <v>17</v>
@@ -17128,7 +17135,7 @@
         <v>4.74</v>
       </c>
       <c r="H277" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I277" t="s">
         <v>256</v>
@@ -17151,31 +17158,31 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B278" t="s">
         <v>1040</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
+        <v>17</v>
+      </c>
+      <c r="D278" t="s">
+        <v>17</v>
+      </c>
+      <c r="E278" t="s">
         <v>1041</v>
       </c>
-      <c r="C278" t="s">
-        <v>17</v>
-      </c>
-      <c r="D278" t="s">
-        <v>17</v>
-      </c>
-      <c r="E278" t="s">
+      <c r="F278" t="s">
         <v>1042</v>
       </c>
-      <c r="F278" t="s">
+      <c r="G278" t="s">
+        <v>17</v>
+      </c>
+      <c r="H278" t="s">
         <v>1043</v>
       </c>
-      <c r="G278" t="s">
-        <v>17</v>
-      </c>
-      <c r="H278" t="s">
-        <v>1044</v>
-      </c>
       <c r="I278" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="J278" t="s">
         <v>17</v>
@@ -17195,22 +17202,22 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B279" t="s">
         <v>1045</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>1046</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
+        <v>17</v>
+      </c>
+      <c r="E279" t="s">
         <v>1047</v>
       </c>
-      <c r="D279" t="s">
-        <v>17</v>
-      </c>
-      <c r="E279" t="s">
+      <c r="F279" t="s">
         <v>1048</v>
-      </c>
-      <c r="F279" t="s">
-        <v>1049</v>
       </c>
       <c r="G279" t="s">
         <v>17</v>
@@ -17239,19 +17246,19 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B280" t="s">
         <v>1050</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
         <v>1051</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1052</v>
       </c>
       <c r="D280">
         <v>8362</v>
       </c>
       <c r="E280" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F280" t="s">
         <v>17</v>
@@ -17260,7 +17267,7 @@
         <v>17</v>
       </c>
       <c r="H280" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I280" t="s">
         <v>284</v>
@@ -17283,19 +17290,19 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B281" t="s">
         <v>1054</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>1055</v>
       </c>
-      <c r="C281" t="s">
-        <v>1056</v>
-      </c>
       <c r="D281" t="s">
         <v>17</v>
       </c>
       <c r="E281" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F281" t="s">
         <v>17</v>
@@ -17327,28 +17334,28 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B282" t="s">
         <v>1057</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
+        <v>752</v>
+      </c>
+      <c r="D282" t="s">
+        <v>17</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F282" t="s">
+        <v>17</v>
+      </c>
+      <c r="G282" t="s">
+        <v>17</v>
+      </c>
+      <c r="H282" t="s">
         <v>1058</v>
-      </c>
-      <c r="C282" t="s">
-        <v>753</v>
-      </c>
-      <c r="D282" t="s">
-        <v>17</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F282" t="s">
-        <v>17</v>
-      </c>
-      <c r="G282" t="s">
-        <v>17</v>
-      </c>
-      <c r="H282" t="s">
-        <v>1059</v>
       </c>
       <c r="I282" t="s">
         <v>17</v>
@@ -17371,28 +17378,28 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B283" t="s">
         <v>1060</v>
       </c>
-      <c r="B283" t="s">
+      <c r="C283" t="s">
         <v>1061</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
+        <v>17</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F283" t="s">
+        <v>17</v>
+      </c>
+      <c r="G283" t="s">
+        <v>17</v>
+      </c>
+      <c r="H283" t="s">
         <v>1062</v>
-      </c>
-      <c r="D283" t="s">
-        <v>17</v>
-      </c>
-      <c r="E283" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F283" t="s">
-        <v>17</v>
-      </c>
-      <c r="G283" t="s">
-        <v>17</v>
-      </c>
-      <c r="H283" t="s">
-        <v>1063</v>
       </c>
       <c r="I283" t="s">
         <v>17</v>
@@ -17415,28 +17422,28 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B284" t="s">
         <v>1064</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
         <v>1065</v>
-      </c>
-      <c r="C284" t="s">
-        <v>1066</v>
       </c>
       <c r="D284">
         <v>31276</v>
       </c>
       <c r="E284" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F284" t="s">
+        <v>17</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H284" t="s">
         <v>1067</v>
-      </c>
-      <c r="F284" t="s">
-        <v>17</v>
-      </c>
-      <c r="G284" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H284" t="s">
-        <v>1068</v>
       </c>
       <c r="I284" t="s">
         <v>284</v>
@@ -17459,19 +17466,19 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B285" t="s">
         <v>1069</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>1070</v>
       </c>
-      <c r="C285" t="s">
-        <v>1071</v>
-      </c>
       <c r="D285" t="s">
         <v>17</v>
       </c>
       <c r="E285" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F285" t="s">
         <v>17</v>
@@ -17480,7 +17487,7 @@
         <v>17</v>
       </c>
       <c r="H285" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I285" t="s">
         <v>17</v>
@@ -17503,28 +17510,28 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B286" t="s">
         <v>1072</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>1073</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1074</v>
       </c>
       <c r="D286">
         <v>8042</v>
       </c>
       <c r="E286" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F286" t="s">
         <v>17</v>
       </c>
       <c r="G286" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H286" t="s">
         <v>1075</v>
-      </c>
-      <c r="H286" t="s">
-        <v>1076</v>
       </c>
       <c r="I286" t="s">
         <v>284</v>
@@ -17547,28 +17554,28 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B287" t="s">
         <v>1077</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>1078</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
+        <v>17</v>
+      </c>
+      <c r="E287" t="s">
         <v>1079</v>
       </c>
-      <c r="D287" t="s">
-        <v>17</v>
-      </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
+        <v>17</v>
+      </c>
+      <c r="G287" t="s">
+        <v>17</v>
+      </c>
+      <c r="H287" t="s">
         <v>1080</v>
-      </c>
-      <c r="F287" t="s">
-        <v>17</v>
-      </c>
-      <c r="G287" t="s">
-        <v>17</v>
-      </c>
-      <c r="H287" t="s">
-        <v>1081</v>
       </c>
       <c r="I287" t="s">
         <v>17</v>
@@ -17591,10 +17598,10 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B288" t="s">
         <v>1082</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1083</v>
       </c>
       <c r="C288" t="s">
         <v>17</v>
@@ -17603,7 +17610,7 @@
         <v>22311</v>
       </c>
       <c r="E288" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F288" t="s">
         <v>17</v>
@@ -17612,13 +17619,13 @@
         <v>17</v>
       </c>
       <c r="H288" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I288" t="s">
         <v>148</v>
       </c>
       <c r="J288" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K288" t="s">
         <v>197</v>
@@ -17635,34 +17642,34 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B289" t="s">
         <v>1086</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
         <v>1087</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1088</v>
       </c>
       <c r="D289">
         <v>8294</v>
       </c>
       <c r="E289" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F289" t="s">
         <v>17</v>
       </c>
       <c r="G289" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H289" t="s">
         <v>1089</v>
       </c>
-      <c r="H289" t="s">
+      <c r="I289" t="s">
+        <v>316</v>
+      </c>
+      <c r="J289" t="s">
         <v>1090</v>
-      </c>
-      <c r="I289" t="s">
-        <v>317</v>
-      </c>
-      <c r="J289" t="s">
-        <v>1091</v>
       </c>
       <c r="K289" t="s">
         <v>150</v>
@@ -17679,20 +17686,20 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B290" t="s">
         <v>1092</v>
       </c>
-      <c r="B290" t="s">
-        <v>1093</v>
-      </c>
       <c r="C290" t="s">
+        <v>307</v>
+      </c>
+      <c r="D290" t="s">
+        <v>17</v>
+      </c>
+      <c r="E290" t="s">
         <v>308</v>
       </c>
-      <c r="D290" t="s">
-        <v>17</v>
-      </c>
-      <c r="E290" t="s">
-        <v>309</v>
-      </c>
       <c r="F290" t="s">
         <v>17</v>
       </c>
@@ -17703,7 +17710,7 @@
         <v>17</v>
       </c>
       <c r="I290" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J290" t="s">
         <v>17</v>
@@ -17723,28 +17730,28 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B291" t="s">
         <v>1094</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
         <v>1095</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
+        <v>17</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F291" t="s">
+        <v>17</v>
+      </c>
+      <c r="G291" t="s">
+        <v>17</v>
+      </c>
+      <c r="H291" t="s">
         <v>1096</v>
-      </c>
-      <c r="D291" t="s">
-        <v>17</v>
-      </c>
-      <c r="E291" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F291" t="s">
-        <v>17</v>
-      </c>
-      <c r="G291" t="s">
-        <v>17</v>
-      </c>
-      <c r="H291" t="s">
-        <v>1097</v>
       </c>
       <c r="I291" t="s">
         <v>17</v>
@@ -17767,34 +17774,34 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B292" t="s">
         <v>1098</v>
       </c>
-      <c r="B292" t="s">
+      <c r="C292" t="s">
         <v>1099</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1100</v>
       </c>
       <c r="D292">
         <v>8369</v>
       </c>
       <c r="E292" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F292" t="s">
         <v>17</v>
       </c>
       <c r="G292" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H292" t="s">
         <v>1101</v>
       </c>
-      <c r="H292" t="s">
+      <c r="I292" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J292" t="s">
         <v>1102</v>
-      </c>
-      <c r="I292" t="s">
-        <v>1347</v>
-      </c>
-      <c r="J292" t="s">
-        <v>1103</v>
       </c>
       <c r="K292" t="s">
         <v>130</v>
@@ -17811,19 +17818,19 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B293" t="s">
         <v>1104</v>
       </c>
-      <c r="B293" t="s">
+      <c r="C293" t="s">
         <v>1105</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1106</v>
       </c>
       <c r="D293">
         <v>16666</v>
       </c>
       <c r="E293" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F293" t="s">
         <v>17</v>
@@ -17832,10 +17839,10 @@
         <v>17</v>
       </c>
       <c r="H293" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I293" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J293" t="s">
         <v>17</v>
@@ -17855,28 +17862,28 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B294" t="s">
         <v>1108</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" t="s">
         <v>1109</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
+        <v>17</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F294" t="s">
+        <v>17</v>
+      </c>
+      <c r="G294" t="s">
+        <v>17</v>
+      </c>
+      <c r="H294" t="s">
         <v>1110</v>
-      </c>
-      <c r="D294" t="s">
-        <v>17</v>
-      </c>
-      <c r="E294" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F294" t="s">
-        <v>17</v>
-      </c>
-      <c r="G294" t="s">
-        <v>17</v>
-      </c>
-      <c r="H294" t="s">
-        <v>1111</v>
       </c>
       <c r="I294" t="s">
         <v>17</v>
@@ -17899,19 +17906,19 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B295" t="s">
         <v>1112</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
         <v>1113</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1114</v>
       </c>
       <c r="D295">
         <v>4101</v>
       </c>
       <c r="E295" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F295" t="s">
         <v>17</v>
@@ -17929,7 +17936,7 @@
         <v>17</v>
       </c>
       <c r="K295" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="L295" t="s">
         <v>17</v>
@@ -17943,28 +17950,28 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B296" t="s">
         <v>1116</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>1117</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
+        <v>17</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F296" t="s">
+        <v>17</v>
+      </c>
+      <c r="G296" t="s">
+        <v>17</v>
+      </c>
+      <c r="H296" t="s">
         <v>1118</v>
-      </c>
-      <c r="D296" t="s">
-        <v>17</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F296" t="s">
-        <v>17</v>
-      </c>
-      <c r="G296" t="s">
-        <v>17</v>
-      </c>
-      <c r="H296" t="s">
-        <v>1119</v>
       </c>
       <c r="I296" t="s">
         <v>17</v>
@@ -17987,28 +17994,28 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B297" t="s">
         <v>1120</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
         <v>1121</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
+        <v>17</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F297" t="s">
+        <v>17</v>
+      </c>
+      <c r="G297" t="s">
+        <v>17</v>
+      </c>
+      <c r="H297" t="s">
         <v>1122</v>
-      </c>
-      <c r="D297" t="s">
-        <v>17</v>
-      </c>
-      <c r="E297" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F297" t="s">
-        <v>17</v>
-      </c>
-      <c r="G297" t="s">
-        <v>17</v>
-      </c>
-      <c r="H297" t="s">
-        <v>1123</v>
       </c>
       <c r="I297" t="s">
         <v>17</v>
@@ -18031,28 +18038,28 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B298" t="s">
         <v>1124</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
         <v>1125</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
+        <v>17</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F298" t="s">
+        <v>17</v>
+      </c>
+      <c r="G298" t="s">
+        <v>17</v>
+      </c>
+      <c r="H298" t="s">
         <v>1126</v>
-      </c>
-      <c r="D298" t="s">
-        <v>17</v>
-      </c>
-      <c r="E298" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F298" t="s">
-        <v>17</v>
-      </c>
-      <c r="G298" t="s">
-        <v>17</v>
-      </c>
-      <c r="H298" t="s">
-        <v>1127</v>
       </c>
       <c r="I298" t="s">
         <v>17</v>
@@ -18075,19 +18082,19 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B299" t="s">
         <v>1128</v>
       </c>
-      <c r="B299" t="s">
+      <c r="C299" t="s">
         <v>1129</v>
       </c>
-      <c r="C299" t="s">
-        <v>1130</v>
-      </c>
       <c r="D299" t="s">
         <v>17</v>
       </c>
       <c r="E299" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F299" t="s">
         <v>17</v>
@@ -18119,19 +18126,19 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B300" t="s">
         <v>1131</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" t="s">
         <v>1132</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1133</v>
       </c>
       <c r="D300">
         <v>4133</v>
       </c>
       <c r="E300" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F300" t="s">
         <v>17</v>
@@ -18140,13 +18147,13 @@
         <v>17</v>
       </c>
       <c r="H300" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I300" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J300" t="s">
         <v>1134</v>
-      </c>
-      <c r="I300" t="s">
-        <v>1347</v>
-      </c>
-      <c r="J300" t="s">
-        <v>1135</v>
       </c>
       <c r="K300" t="s">
         <v>42</v>
@@ -18161,33 +18168,33 @@
         <v>20</v>
       </c>
       <c r="O300" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B301" t="s">
         <v>1136</v>
       </c>
-      <c r="B301" t="s">
+      <c r="C301" t="s">
         <v>1137</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
+        <v>17</v>
+      </c>
+      <c r="E301" t="s">
         <v>1138</v>
       </c>
-      <c r="D301" t="s">
-        <v>17</v>
-      </c>
-      <c r="E301" t="s">
+      <c r="F301" t="s">
         <v>1139</v>
       </c>
-      <c r="F301" t="s">
+      <c r="G301" t="s">
+        <v>17</v>
+      </c>
+      <c r="H301" t="s">
         <v>1140</v>
-      </c>
-      <c r="G301" t="s">
-        <v>17</v>
-      </c>
-      <c r="H301" t="s">
-        <v>1141</v>
       </c>
       <c r="I301" t="s">
         <v>17</v>
@@ -18210,19 +18217,19 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B302" t="s">
         <v>1142</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>1143</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1144</v>
       </c>
       <c r="D302">
         <v>931</v>
       </c>
       <c r="E302" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F302" t="s">
         <v>17</v>
@@ -18231,7 +18238,7 @@
         <v>17</v>
       </c>
       <c r="H302" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I302" t="s">
         <v>218</v>
@@ -18249,33 +18256,33 @@
         <v>1186</v>
       </c>
       <c r="N302" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B303" t="s">
         <v>1147</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>1148</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1149</v>
       </c>
       <c r="D303">
         <v>7002</v>
       </c>
       <c r="E303" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F303" t="s">
+        <v>17</v>
+      </c>
+      <c r="G303" t="s">
+        <v>17</v>
+      </c>
+      <c r="H303" t="s">
         <v>1150</v>
-      </c>
-      <c r="F303" t="s">
-        <v>17</v>
-      </c>
-      <c r="G303" t="s">
-        <v>17</v>
-      </c>
-      <c r="H303" t="s">
-        <v>1151</v>
       </c>
       <c r="I303" t="s">
         <v>218</v>
@@ -18298,28 +18305,28 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B304" t="s">
         <v>1152</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C304" t="s">
         <v>1153</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1154</v>
       </c>
       <c r="D304">
         <v>7055</v>
       </c>
       <c r="E304" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F304" t="s">
+        <v>17</v>
+      </c>
+      <c r="G304" t="s">
+        <v>17</v>
+      </c>
+      <c r="H304" t="s">
         <v>1155</v>
-      </c>
-      <c r="F304" t="s">
-        <v>17</v>
-      </c>
-      <c r="G304" t="s">
-        <v>17</v>
-      </c>
-      <c r="H304" t="s">
-        <v>1156</v>
       </c>
       <c r="I304" t="s">
         <v>218</v>
@@ -18342,28 +18349,28 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B305" t="s">
         <v>1157</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>1158</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
+        <v>17</v>
+      </c>
+      <c r="E305" t="s">
         <v>1159</v>
       </c>
-      <c r="D305" t="s">
-        <v>17</v>
-      </c>
-      <c r="E305" t="s">
+      <c r="F305" t="s">
+        <v>17</v>
+      </c>
+      <c r="G305" t="s">
+        <v>17</v>
+      </c>
+      <c r="H305" t="s">
         <v>1160</v>
-      </c>
-      <c r="F305" t="s">
-        <v>17</v>
-      </c>
-      <c r="G305" t="s">
-        <v>17</v>
-      </c>
-      <c r="H305" t="s">
-        <v>1161</v>
       </c>
       <c r="I305" t="s">
         <v>17</v>
@@ -18386,11 +18393,11 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B306" t="s">
         <v>1162</v>
       </c>
-      <c r="B306" t="s">
-        <v>1163</v>
-      </c>
       <c r="C306" t="s">
         <v>17</v>
       </c>
@@ -18398,7 +18405,7 @@
         <v>17</v>
       </c>
       <c r="E306" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F306" t="s">
         <v>17</v>
@@ -18407,7 +18414,7 @@
         <v>17</v>
       </c>
       <c r="H306" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I306" t="s">
         <v>17</v>
@@ -18430,28 +18437,28 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B307" t="s">
         <v>1164</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
         <v>1165</v>
       </c>
-      <c r="C307" t="s">
+      <c r="D307" t="s">
+        <v>17</v>
+      </c>
+      <c r="E307" t="s">
         <v>1166</v>
       </c>
-      <c r="D307" t="s">
-        <v>17</v>
-      </c>
-      <c r="E307" t="s">
+      <c r="F307" t="s">
+        <v>17</v>
+      </c>
+      <c r="G307" t="s">
+        <v>17</v>
+      </c>
+      <c r="H307" t="s">
         <v>1167</v>
-      </c>
-      <c r="F307" t="s">
-        <v>17</v>
-      </c>
-      <c r="G307" t="s">
-        <v>17</v>
-      </c>
-      <c r="H307" t="s">
-        <v>1168</v>
       </c>
       <c r="I307" t="s">
         <v>17</v>
@@ -18472,33 +18479,33 @@
         <v>20</v>
       </c>
       <c r="O307" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B308" t="s">
         <v>1169</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
         <v>1170</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1171</v>
       </c>
       <c r="D308">
         <v>7237</v>
       </c>
       <c r="E308" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F308" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G308" t="s">
+        <v>17</v>
+      </c>
+      <c r="H308" t="s">
         <v>1172</v>
-      </c>
-      <c r="G308" t="s">
-        <v>17</v>
-      </c>
-      <c r="H308" t="s">
-        <v>1173</v>
       </c>
       <c r="I308" t="s">
         <v>218</v>
@@ -18521,19 +18528,19 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B309" t="s">
         <v>1174</v>
       </c>
-      <c r="B309" t="s">
+      <c r="C309" t="s">
         <v>1175</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
+        <v>17</v>
+      </c>
+      <c r="E309" t="s">
         <v>1176</v>
-      </c>
-      <c r="D309" t="s">
-        <v>17</v>
-      </c>
-      <c r="E309" t="s">
-        <v>1177</v>
       </c>
       <c r="F309" t="s">
         <v>17</v>
@@ -18565,19 +18572,19 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B310" t="s">
         <v>1178</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" t="s">
         <v>1179</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1180</v>
       </c>
       <c r="D310">
         <v>18827</v>
       </c>
       <c r="E310" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F310" t="s">
         <v>17</v>
@@ -18586,7 +18593,7 @@
         <v>7.04</v>
       </c>
       <c r="H310" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I310" t="s">
         <v>19</v>
@@ -18609,28 +18616,28 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B311" t="s">
         <v>1183</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C311" t="s">
         <v>1184</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
+        <v>17</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F311" t="s">
         <v>1185</v>
       </c>
-      <c r="D311" t="s">
-        <v>17</v>
-      </c>
-      <c r="E311" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F311" t="s">
+      <c r="G311" t="s">
+        <v>17</v>
+      </c>
+      <c r="H311" t="s">
         <v>1186</v>
-      </c>
-      <c r="G311" t="s">
-        <v>17</v>
-      </c>
-      <c r="H311" t="s">
-        <v>1187</v>
       </c>
       <c r="I311" t="s">
         <v>17</v>
@@ -18653,28 +18660,28 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B312" t="s">
         <v>1188</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" t="s">
         <v>1189</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
+        <v>17</v>
+      </c>
+      <c r="E312" t="s">
         <v>1190</v>
       </c>
-      <c r="D312" t="s">
-        <v>17</v>
-      </c>
-      <c r="E312" t="s">
+      <c r="F312" t="s">
+        <v>17</v>
+      </c>
+      <c r="G312" t="s">
+        <v>17</v>
+      </c>
+      <c r="H312" t="s">
         <v>1191</v>
-      </c>
-      <c r="F312" t="s">
-        <v>17</v>
-      </c>
-      <c r="G312" t="s">
-        <v>17</v>
-      </c>
-      <c r="H312" t="s">
-        <v>1192</v>
       </c>
       <c r="I312" t="s">
         <v>17</v>
@@ -18697,25 +18704,25 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B313" t="s">
         <v>1193</v>
       </c>
-      <c r="B313" t="s">
+      <c r="C313" t="s">
         <v>1194</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1195</v>
       </c>
       <c r="D313">
         <v>223704</v>
       </c>
       <c r="E313" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F313" t="s">
+        <v>17</v>
+      </c>
+      <c r="G313" t="s">
         <v>1196</v>
-      </c>
-      <c r="F313" t="s">
-        <v>17</v>
-      </c>
-      <c r="G313" t="s">
-        <v>1197</v>
       </c>
       <c r="H313" t="s">
         <v>17</v>
@@ -18741,28 +18748,28 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B314" t="s">
         <v>1198</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C314" t="s">
+        <v>17</v>
+      </c>
+      <c r="D314" t="s">
+        <v>17</v>
+      </c>
+      <c r="E314" t="s">
         <v>1199</v>
       </c>
-      <c r="C314" t="s">
-        <v>17</v>
-      </c>
-      <c r="D314" t="s">
-        <v>17</v>
-      </c>
-      <c r="E314" t="s">
+      <c r="F314" t="s">
         <v>1200</v>
       </c>
-      <c r="F314" t="s">
+      <c r="G314" t="s">
+        <v>17</v>
+      </c>
+      <c r="H314" t="s">
         <v>1201</v>
-      </c>
-      <c r="G314" t="s">
-        <v>17</v>
-      </c>
-      <c r="H314" t="s">
-        <v>1202</v>
       </c>
       <c r="I314" t="s">
         <v>17</v>
@@ -18785,28 +18792,28 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B315" t="s">
         <v>1203</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" t="s">
         <v>1204</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
+        <v>17</v>
+      </c>
+      <c r="E315" t="s">
         <v>1205</v>
       </c>
-      <c r="D315" t="s">
-        <v>17</v>
-      </c>
-      <c r="E315" t="s">
+      <c r="F315" t="s">
         <v>1206</v>
       </c>
-      <c r="F315" t="s">
+      <c r="G315" t="s">
+        <v>17</v>
+      </c>
+      <c r="H315" t="s">
         <v>1207</v>
-      </c>
-      <c r="G315" t="s">
-        <v>17</v>
-      </c>
-      <c r="H315" t="s">
-        <v>1208</v>
       </c>
       <c r="I315" t="s">
         <v>17</v>
@@ -18829,34 +18836,34 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B316" t="s">
         <v>1209</v>
       </c>
-      <c r="B316" t="s">
+      <c r="C316" t="s">
         <v>1210</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1211</v>
       </c>
       <c r="D316">
         <v>460</v>
       </c>
       <c r="E316" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F316" t="s">
         <v>1212</v>
       </c>
-      <c r="F316" t="s">
+      <c r="G316" t="s">
         <v>1213</v>
       </c>
-      <c r="G316" t="s">
+      <c r="H316" t="s">
         <v>1214</v>
-      </c>
-      <c r="H316" t="s">
-        <v>1215</v>
       </c>
       <c r="I316" t="s">
         <v>77</v>
       </c>
       <c r="J316" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="K316" t="s">
         <v>138</v>
@@ -18873,19 +18880,19 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B317" t="s">
         <v>1217</v>
       </c>
-      <c r="B317" t="s">
-        <v>1218</v>
-      </c>
       <c r="C317" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D317">
         <v>853433</v>
       </c>
       <c r="E317" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F317" t="s">
         <v>17</v>
@@ -18894,7 +18901,7 @@
         <v>17</v>
       </c>
       <c r="H317" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I317" t="s">
         <v>77</v>
@@ -18917,28 +18924,28 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B318" t="s">
         <v>1220</v>
       </c>
-      <c r="B318" t="s">
+      <c r="C318" t="s">
         <v>1221</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1222</v>
       </c>
       <c r="D318">
         <v>62465</v>
       </c>
       <c r="E318" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F318" t="s">
+        <v>17</v>
+      </c>
+      <c r="G318" t="s">
         <v>1223</v>
       </c>
-      <c r="F318" t="s">
-        <v>17</v>
-      </c>
-      <c r="G318" t="s">
+      <c r="H318" t="s">
         <v>1224</v>
-      </c>
-      <c r="H318" t="s">
-        <v>1225</v>
       </c>
       <c r="I318" t="s">
         <v>263</v>
@@ -18961,28 +18968,28 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B319" t="s">
         <v>1226</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
         <v>1227</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1228</v>
       </c>
       <c r="D319">
         <v>7041</v>
       </c>
       <c r="E319" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F319" t="s">
+        <v>17</v>
+      </c>
+      <c r="G319" t="s">
         <v>1229</v>
       </c>
-      <c r="F319" t="s">
-        <v>17</v>
-      </c>
-      <c r="G319" t="s">
+      <c r="H319" t="s">
         <v>1230</v>
-      </c>
-      <c r="H319" t="s">
-        <v>1231</v>
       </c>
       <c r="I319" t="s">
         <v>77</v>
@@ -18991,7 +18998,7 @@
         <v>17</v>
       </c>
       <c r="K319" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L319" t="s">
         <v>17</v>
@@ -19005,28 +19012,28 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B320" t="s">
         <v>1232</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>1233</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
+        <v>17</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F320" t="s">
+        <v>17</v>
+      </c>
+      <c r="G320" t="s">
+        <v>17</v>
+      </c>
+      <c r="H320" t="s">
         <v>1234</v>
-      </c>
-      <c r="D320" t="s">
-        <v>17</v>
-      </c>
-      <c r="E320" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F320" t="s">
-        <v>17</v>
-      </c>
-      <c r="G320" t="s">
-        <v>17</v>
-      </c>
-      <c r="H320" t="s">
-        <v>1235</v>
       </c>
       <c r="I320" t="s">
         <v>17</v>
@@ -19049,34 +19056,34 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B321" t="s">
         <v>1236</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C321" t="s">
         <v>1237</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1238</v>
       </c>
       <c r="D321">
         <v>6654</v>
       </c>
       <c r="E321" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F321" t="s">
         <v>1239</v>
       </c>
-      <c r="F321" t="s">
+      <c r="G321" t="s">
+        <v>17</v>
+      </c>
+      <c r="H321" t="s">
         <v>1240</v>
-      </c>
-      <c r="G321" t="s">
-        <v>17</v>
-      </c>
-      <c r="H321" t="s">
-        <v>1241</v>
       </c>
       <c r="I321" t="s">
         <v>148</v>
       </c>
       <c r="J321" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="K321" t="s">
         <v>150</v>
@@ -19093,31 +19100,31 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B322" t="s">
         <v>1243</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" t="s">
         <v>1244</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1245</v>
       </c>
       <c r="D322">
         <v>156477</v>
       </c>
       <c r="E322" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F322" t="s">
         <v>17</v>
       </c>
       <c r="G322" t="s">
+        <v>443</v>
+      </c>
+      <c r="H322" t="s">
+        <v>17</v>
+      </c>
+      <c r="I322" t="s">
         <v>444</v>
-      </c>
-      <c r="H322" t="s">
-        <v>17</v>
-      </c>
-      <c r="I322" t="s">
-        <v>445</v>
       </c>
       <c r="J322" t="s">
         <v>17</v>
@@ -19137,19 +19144,19 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B323" t="s">
         <v>1247</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>1248</v>
       </c>
-      <c r="C323" t="s">
-        <v>1249</v>
-      </c>
       <c r="D323" t="s">
         <v>17</v>
       </c>
       <c r="E323" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F323" t="s">
         <v>17</v>
@@ -19181,28 +19188,28 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B324" t="s">
         <v>1250</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>1251</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
+        <v>17</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F324" t="s">
+        <v>17</v>
+      </c>
+      <c r="G324" t="s">
+        <v>17</v>
+      </c>
+      <c r="H324" t="s">
         <v>1252</v>
-      </c>
-      <c r="D324" t="s">
-        <v>17</v>
-      </c>
-      <c r="E324" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F324" t="s">
-        <v>17</v>
-      </c>
-      <c r="G324" t="s">
-        <v>17</v>
-      </c>
-      <c r="H324" t="s">
-        <v>1253</v>
       </c>
       <c r="I324" t="s">
         <v>17</v>
@@ -19225,19 +19232,19 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B325" t="s">
         <v>1254</v>
       </c>
-      <c r="B325" t="s">
+      <c r="C325" t="s">
         <v>1255</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
+        <v>17</v>
+      </c>
+      <c r="E325" t="s">
         <v>1256</v>
-      </c>
-      <c r="D325" t="s">
-        <v>17</v>
-      </c>
-      <c r="E325" t="s">
-        <v>1257</v>
       </c>
       <c r="F325" t="s">
         <v>17</v>
@@ -19269,28 +19276,28 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B326" t="s">
         <v>1258</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
         <v>1259</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" t="s">
+        <v>17</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F326" t="s">
+        <v>17</v>
+      </c>
+      <c r="G326" t="s">
+        <v>17</v>
+      </c>
+      <c r="H326" t="s">
         <v>1260</v>
-      </c>
-      <c r="D326" t="s">
-        <v>17</v>
-      </c>
-      <c r="E326" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F326" t="s">
-        <v>17</v>
-      </c>
-      <c r="G326" t="s">
-        <v>17</v>
-      </c>
-      <c r="H326" t="s">
-        <v>1261</v>
       </c>
       <c r="I326" t="s">
         <v>17</v>
@@ -19313,28 +19320,28 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B327" t="s">
         <v>1262</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
         <v>1263</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1264</v>
       </c>
       <c r="D327">
         <v>8364</v>
       </c>
       <c r="E327" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F327" t="s">
+        <v>17</v>
+      </c>
+      <c r="G327" t="s">
+        <v>17</v>
+      </c>
+      <c r="H327" t="s">
         <v>1265</v>
-      </c>
-      <c r="F327" t="s">
-        <v>17</v>
-      </c>
-      <c r="G327" t="s">
-        <v>17</v>
-      </c>
-      <c r="H327" t="s">
-        <v>1266</v>
       </c>
       <c r="I327" t="s">
         <v>284</v>
@@ -19357,19 +19364,19 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B328" t="s">
         <v>1267</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>1268</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1269</v>
       </c>
       <c r="D328">
         <v>7501</v>
       </c>
       <c r="E328" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F328" t="s">
         <v>17</v>
@@ -19378,7 +19385,7 @@
         <v>17</v>
       </c>
       <c r="H328" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I328" t="s">
         <v>218</v>
@@ -19401,34 +19408,34 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B329" t="s">
         <v>1271</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>1272</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1273</v>
       </c>
       <c r="D329">
         <v>11230</v>
       </c>
       <c r="E329" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F329" t="s">
+        <v>17</v>
+      </c>
+      <c r="G329" t="s">
         <v>1274</v>
       </c>
-      <c r="F329" t="s">
-        <v>17</v>
-      </c>
-      <c r="G329" t="s">
+      <c r="H329" t="s">
         <v>1275</v>
       </c>
-      <c r="H329" t="s">
+      <c r="I329" t="s">
+        <v>316</v>
+      </c>
+      <c r="J329" t="s">
         <v>1276</v>
-      </c>
-      <c r="I329" t="s">
-        <v>317</v>
-      </c>
-      <c r="J329" t="s">
-        <v>1277</v>
       </c>
       <c r="K329" t="s">
         <v>59</v>
@@ -19445,28 +19452,28 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B330" t="s">
         <v>1278</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" t="s">
         <v>1279</v>
       </c>
-      <c r="C330" t="s">
+      <c r="D330" t="s">
+        <v>17</v>
+      </c>
+      <c r="E330" t="s">
         <v>1280</v>
       </c>
-      <c r="D330" t="s">
-        <v>17</v>
-      </c>
-      <c r="E330" t="s">
+      <c r="F330" t="s">
         <v>1281</v>
       </c>
-      <c r="F330" t="s">
+      <c r="G330" t="s">
+        <v>17</v>
+      </c>
+      <c r="H330" t="s">
         <v>1282</v>
-      </c>
-      <c r="G330" t="s">
-        <v>17</v>
-      </c>
-      <c r="H330" t="s">
-        <v>1283</v>
       </c>
       <c r="I330" t="s">
         <v>17</v>
@@ -19489,28 +19496,28 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B331" t="s">
         <v>1284</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>1285</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
+        <v>17</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F331" t="s">
+        <v>17</v>
+      </c>
+      <c r="G331" t="s">
+        <v>17</v>
+      </c>
+      <c r="H331" t="s">
         <v>1286</v>
-      </c>
-      <c r="D331" t="s">
-        <v>17</v>
-      </c>
-      <c r="E331" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F331" t="s">
-        <v>17</v>
-      </c>
-      <c r="G331" t="s">
-        <v>17</v>
-      </c>
-      <c r="H331" t="s">
-        <v>1287</v>
       </c>
       <c r="I331" t="s">
         <v>17</v>
@@ -19533,28 +19540,28 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B332" t="s">
         <v>1288</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" t="s">
         <v>1289</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1290</v>
       </c>
       <c r="D332">
         <v>70737</v>
       </c>
       <c r="E332" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F332" t="s">
+        <v>17</v>
+      </c>
+      <c r="G332" t="s">
         <v>1291</v>
       </c>
-      <c r="F332" t="s">
-        <v>17</v>
-      </c>
-      <c r="G332" t="s">
+      <c r="H332" t="s">
         <v>1292</v>
-      </c>
-      <c r="H332" t="s">
-        <v>1293</v>
       </c>
       <c r="I332" t="s">
         <v>263</v>
@@ -19577,28 +19584,28 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B333" t="s">
         <v>1294</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
         <v>1295</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
+        <v>17</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F333" t="s">
+        <v>17</v>
+      </c>
+      <c r="G333" t="s">
+        <v>17</v>
+      </c>
+      <c r="H333" t="s">
         <v>1296</v>
-      </c>
-      <c r="D333" t="s">
-        <v>17</v>
-      </c>
-      <c r="E333" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F333" t="s">
-        <v>17</v>
-      </c>
-      <c r="G333" t="s">
-        <v>17</v>
-      </c>
-      <c r="H333" t="s">
-        <v>1297</v>
       </c>
       <c r="I333" t="s">
         <v>17</v>
@@ -19621,28 +19628,28 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B334" t="s">
         <v>1298</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" t="s">
         <v>1299</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
+        <v>17</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F334" t="s">
+        <v>17</v>
+      </c>
+      <c r="G334" t="s">
+        <v>17</v>
+      </c>
+      <c r="H334" t="s">
         <v>1300</v>
-      </c>
-      <c r="D334" t="s">
-        <v>17</v>
-      </c>
-      <c r="E334" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F334" t="s">
-        <v>17</v>
-      </c>
-      <c r="G334" t="s">
-        <v>17</v>
-      </c>
-      <c r="H334" t="s">
-        <v>1301</v>
       </c>
       <c r="I334" t="s">
         <v>17</v>
@@ -19665,10 +19672,10 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B335" t="s">
         <v>1302</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1303</v>
       </c>
       <c r="C335" t="s">
         <v>17</v>
@@ -19677,13 +19684,13 @@
         <v>91748880</v>
       </c>
       <c r="E335" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F335" t="s">
         <v>17</v>
       </c>
       <c r="G335" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H335" t="s">
         <v>17</v>
@@ -19709,28 +19716,28 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B336" t="s">
         <v>1305</v>
       </c>
-      <c r="B336" t="s">
+      <c r="C336" t="s">
+        <v>17</v>
+      </c>
+      <c r="D336" t="s">
+        <v>17</v>
+      </c>
+      <c r="E336" t="s">
         <v>1306</v>
       </c>
-      <c r="C336" t="s">
-        <v>17</v>
-      </c>
-      <c r="D336" t="s">
-        <v>17</v>
-      </c>
-      <c r="E336" t="s">
+      <c r="F336" t="s">
         <v>1307</v>
       </c>
-      <c r="F336" t="s">
+      <c r="G336" t="s">
+        <v>17</v>
+      </c>
+      <c r="H336" t="s">
         <v>1308</v>
-      </c>
-      <c r="G336" t="s">
-        <v>17</v>
-      </c>
-      <c r="H336" t="s">
-        <v>1309</v>
       </c>
       <c r="I336" t="s">
         <v>17</v>

--- a/data/cleaned/Compound annotation updated.xlsx
+++ b/data/cleaned/Compound annotation updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottericr/Documents/Tufts/Research Projects/2017 - 2018 Leafhopper Density/data/cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B896BF72-0265-644D-835B-E639E1BA0664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C325B9C-4832-6F44-809B-55EF4F758847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2020" windowWidth="25600" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound annotation updated" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="1349">
   <si>
     <t>Compound</t>
   </si>
@@ -4928,8 +4928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="M163" sqref="M163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5423,11 +5423,11 @@
       <c r="L11" t="s">
         <v>17</v>
       </c>
-      <c r="M11" t="s">
-        <v>17</v>
+      <c r="M11">
+        <v>853</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="23" x14ac:dyDescent="0.3">
@@ -5465,11 +5465,11 @@
       <c r="L12" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s">
-        <v>17</v>
+      <c r="M12">
+        <v>926</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -5685,11 +5685,11 @@
       <c r="L17" t="s">
         <v>17</v>
       </c>
-      <c r="M17" t="s">
-        <v>17</v>
+      <c r="M17">
+        <v>989</v>
       </c>
       <c r="N17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -7143,11 +7143,11 @@
       <c r="L50" t="s">
         <v>17</v>
       </c>
-      <c r="M50" t="s">
-        <v>17</v>
+      <c r="M50">
+        <v>1310</v>
       </c>
       <c r="N50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -7319,11 +7319,11 @@
       <c r="L54" t="s">
         <v>17</v>
       </c>
-      <c r="M54" t="s">
-        <v>17</v>
+      <c r="M54">
+        <v>1023</v>
       </c>
       <c r="N54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -8255,11 +8255,11 @@
       <c r="L75" t="s">
         <v>17</v>
       </c>
-      <c r="M75" t="s">
-        <v>17</v>
+      <c r="M75">
+        <v>1510</v>
       </c>
       <c r="N75" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -8657,11 +8657,11 @@
       <c r="L84" t="s">
         <v>17</v>
       </c>
-      <c r="M84" t="s">
-        <v>17</v>
+      <c r="M84">
+        <v>946</v>
       </c>
       <c r="N84" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -9405,11 +9405,11 @@
       <c r="L101" t="s">
         <v>17</v>
       </c>
-      <c r="M101" t="s">
-        <v>17</v>
+      <c r="M101">
+        <v>1182</v>
       </c>
       <c r="N101" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -9493,11 +9493,11 @@
       <c r="L103" t="s">
         <v>17</v>
       </c>
-      <c r="M103" t="s">
-        <v>17</v>
+      <c r="M103">
+        <v>1021</v>
       </c>
       <c r="N103" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -9625,11 +9625,11 @@
       <c r="L106" t="s">
         <v>17</v>
       </c>
-      <c r="M106" t="s">
-        <v>17</v>
+      <c r="M106">
+        <v>1436</v>
       </c>
       <c r="N106" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -10945,11 +10945,11 @@
       <c r="L136" t="s">
         <v>17</v>
       </c>
-      <c r="M136" t="s">
-        <v>17</v>
+      <c r="M136">
+        <v>758</v>
       </c>
       <c r="N136" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -10989,11 +10989,11 @@
       <c r="L137" t="s">
         <v>17</v>
       </c>
-      <c r="M137" t="s">
-        <v>17</v>
+      <c r="M137">
+        <v>883</v>
       </c>
       <c r="N137" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -11121,11 +11121,11 @@
       <c r="L140" t="s">
         <v>17</v>
       </c>
-      <c r="M140" t="s">
-        <v>17</v>
+      <c r="M140">
+        <v>1045</v>
       </c>
       <c r="N140" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -11209,11 +11209,11 @@
       <c r="L142" t="s">
         <v>17</v>
       </c>
-      <c r="M142" t="s">
-        <v>17</v>
+      <c r="M142">
+        <v>793</v>
       </c>
       <c r="N142" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -11473,11 +11473,11 @@
       <c r="L148" t="s">
         <v>17</v>
       </c>
-      <c r="M148" t="s">
-        <v>17</v>
+      <c r="M148">
+        <v>843</v>
       </c>
       <c r="N148" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
@@ -11561,11 +11561,11 @@
       <c r="L150" t="s">
         <v>17</v>
       </c>
-      <c r="M150" t="s">
-        <v>17</v>
+      <c r="M150">
+        <v>966</v>
       </c>
       <c r="N150" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
@@ -11869,11 +11869,11 @@
       <c r="L157" t="s">
         <v>17</v>
       </c>
-      <c r="M157" t="s">
-        <v>17</v>
+      <c r="M157">
+        <v>815</v>
       </c>
       <c r="N157" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -11957,11 +11957,11 @@
       <c r="L159" t="s">
         <v>17</v>
       </c>
-      <c r="M159" t="s">
-        <v>17</v>
+      <c r="M159">
+        <v>981</v>
       </c>
       <c r="N159" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -12089,11 +12089,11 @@
       <c r="L162" t="s">
         <v>17</v>
       </c>
-      <c r="M162" t="s">
-        <v>17</v>
+      <c r="M162">
+        <v>1774</v>
       </c>
       <c r="N162" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
@@ -12221,11 +12221,11 @@
       <c r="L165" t="s">
         <v>17</v>
       </c>
-      <c r="M165" t="s">
-        <v>17</v>
+      <c r="M165">
+        <v>1492</v>
       </c>
       <c r="N165" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -13497,11 +13497,11 @@
       <c r="L194" t="s">
         <v>17</v>
       </c>
-      <c r="M194" t="s">
-        <v>17</v>
+      <c r="M194">
+        <v>1308</v>
       </c>
       <c r="N194" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
@@ -13629,11 +13629,11 @@
       <c r="L197" t="s">
         <v>17</v>
       </c>
-      <c r="M197" t="s">
-        <v>17</v>
+      <c r="M197">
+        <v>960</v>
       </c>
       <c r="N197" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
@@ -13673,11 +13673,11 @@
       <c r="L198" t="s">
         <v>17</v>
       </c>
-      <c r="M198" t="s">
-        <v>17</v>
+      <c r="M198">
+        <v>1121</v>
       </c>
       <c r="N198" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
@@ -13761,11 +13761,11 @@
       <c r="L200" t="s">
         <v>17</v>
       </c>
-      <c r="M200" t="s">
-        <v>17</v>
+      <c r="M200">
+        <v>1080</v>
       </c>
       <c r="N200" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
@@ -13893,11 +13893,11 @@
       <c r="L203" t="s">
         <v>17</v>
       </c>
-      <c r="M203" t="s">
-        <v>17</v>
+      <c r="M203">
+        <v>1094</v>
       </c>
       <c r="N203" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
@@ -13981,11 +13981,11 @@
       <c r="L205" t="s">
         <v>17</v>
       </c>
-      <c r="M205" t="s">
-        <v>17</v>
+      <c r="M205">
+        <v>1735</v>
       </c>
       <c r="N205" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
@@ -14377,8 +14377,8 @@
       <c r="L214" t="s">
         <v>17</v>
       </c>
-      <c r="M214" t="s">
-        <v>17</v>
+      <c r="M214">
+        <v>1377</v>
       </c>
       <c r="N214" t="s">
         <v>17</v>
@@ -14465,11 +14465,11 @@
       <c r="L216" t="s">
         <v>17</v>
       </c>
-      <c r="M216" t="s">
-        <v>17</v>
+      <c r="M216">
+        <v>909</v>
       </c>
       <c r="N216" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
@@ -14905,11 +14905,11 @@
       <c r="L226" t="s">
         <v>17</v>
       </c>
-      <c r="M226" t="s">
-        <v>17</v>
+      <c r="M226">
+        <v>1531</v>
       </c>
       <c r="N226" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
@@ -14993,11 +14993,11 @@
       <c r="L228" t="s">
         <v>17</v>
       </c>
-      <c r="M228" t="s">
-        <v>17</v>
+      <c r="M228">
+        <v>1253</v>
       </c>
       <c r="N228" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
@@ -15389,8 +15389,8 @@
       <c r="L237" t="s">
         <v>17</v>
       </c>
-      <c r="M237" t="s">
-        <v>17</v>
+      <c r="M237">
+        <v>923</v>
       </c>
       <c r="N237" t="s">
         <v>17</v>
@@ -15521,11 +15521,11 @@
       <c r="L240" t="s">
         <v>17</v>
       </c>
-      <c r="M240" t="s">
-        <v>17</v>
+      <c r="M240">
+        <v>843</v>
       </c>
       <c r="N240" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
@@ -15741,11 +15741,11 @@
       <c r="L245" t="s">
         <v>17</v>
       </c>
-      <c r="M245" t="s">
-        <v>17</v>
+      <c r="M245">
+        <v>1060</v>
       </c>
       <c r="N245" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
@@ -16181,11 +16181,11 @@
       <c r="L255" t="s">
         <v>17</v>
       </c>
-      <c r="M255" t="s">
-        <v>17</v>
+      <c r="M255">
+        <v>1159</v>
       </c>
       <c r="N255" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
@@ -16357,11 +16357,11 @@
       <c r="L259" t="s">
         <v>17</v>
       </c>
-      <c r="M259" t="s">
-        <v>17</v>
+      <c r="M259">
+        <v>1096</v>
       </c>
       <c r="N259" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
@@ -16445,11 +16445,11 @@
       <c r="L261" t="s">
         <v>17</v>
       </c>
-      <c r="M261" t="s">
-        <v>17</v>
+      <c r="M261">
+        <v>921</v>
       </c>
       <c r="N261" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
@@ -16665,11 +16665,11 @@
       <c r="L266" t="s">
         <v>17</v>
       </c>
-      <c r="M266" t="s">
-        <v>17</v>
+      <c r="M266">
+        <v>959</v>
       </c>
       <c r="N266" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
@@ -16753,11 +16753,11 @@
       <c r="L268" t="s">
         <v>17</v>
       </c>
-      <c r="M268" t="s">
-        <v>17</v>
+      <c r="M268">
+        <v>1355</v>
       </c>
       <c r="N268" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
@@ -16841,11 +16841,11 @@
       <c r="L270" t="s">
         <v>17</v>
       </c>
-      <c r="M270" t="s">
-        <v>17</v>
+      <c r="M270">
+        <v>1302</v>
       </c>
       <c r="N270" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
@@ -16973,11 +16973,11 @@
       <c r="L273" t="s">
         <v>17</v>
       </c>
-      <c r="M273" t="s">
-        <v>17</v>
+      <c r="M273">
+        <v>1172</v>
       </c>
       <c r="N273" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
@@ -17061,11 +17061,11 @@
       <c r="L275" t="s">
         <v>17</v>
       </c>
-      <c r="M275" t="s">
-        <v>17</v>
+      <c r="M275">
+        <v>777</v>
       </c>
       <c r="N275" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
@@ -17193,11 +17193,11 @@
       <c r="L278" t="s">
         <v>17</v>
       </c>
-      <c r="M278" t="s">
-        <v>17</v>
+      <c r="M278">
+        <v>856</v>
       </c>
       <c r="N278" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
@@ -17237,11 +17237,11 @@
       <c r="L279" t="s">
         <v>17</v>
       </c>
-      <c r="M279" t="s">
-        <v>17</v>
+      <c r="M279">
+        <v>1583</v>
       </c>
       <c r="N279" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
@@ -17325,8 +17325,8 @@
       <c r="L281" t="s">
         <v>17</v>
       </c>
-      <c r="M281" t="s">
-        <v>17</v>
+      <c r="M281">
+        <v>1045</v>
       </c>
       <c r="N281" t="s">
         <v>17</v>
@@ -17853,11 +17853,11 @@
       <c r="L293" t="s">
         <v>17</v>
       </c>
-      <c r="M293" t="s">
-        <v>17</v>
+      <c r="M293">
+        <v>1167</v>
       </c>
       <c r="N293" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.2">
@@ -18073,11 +18073,11 @@
       <c r="L298" t="s">
         <v>17</v>
       </c>
-      <c r="M298" t="s">
-        <v>17</v>
+      <c r="M298">
+        <v>1655</v>
       </c>
       <c r="N298" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.2">
@@ -18117,11 +18117,11 @@
       <c r="L299" t="s">
         <v>17</v>
       </c>
-      <c r="M299" t="s">
-        <v>17</v>
+      <c r="M299">
+        <v>710</v>
       </c>
       <c r="N299" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.2">
@@ -18384,11 +18384,11 @@
       <c r="L305" t="s">
         <v>17</v>
       </c>
-      <c r="M305" t="s">
-        <v>17</v>
+      <c r="M305">
+        <v>1401</v>
       </c>
       <c r="N305" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.2">
@@ -18563,11 +18563,11 @@
       <c r="L309" t="s">
         <v>17</v>
       </c>
-      <c r="M309" t="s">
-        <v>17</v>
+      <c r="M309">
+        <v>866</v>
       </c>
       <c r="N309" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.2">
@@ -18695,11 +18695,11 @@
       <c r="L312" t="s">
         <v>17</v>
       </c>
-      <c r="M312" t="s">
-        <v>17</v>
+      <c r="M312">
+        <v>758</v>
       </c>
       <c r="N312" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.2">
@@ -19223,11 +19223,11 @@
       <c r="L324" t="s">
         <v>17</v>
       </c>
-      <c r="M324" t="s">
-        <v>17</v>
+      <c r="M324">
+        <v>1233</v>
       </c>
       <c r="N324" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">

--- a/data/cleaned/Compound annotation updated.xlsx
+++ b/data/cleaned/Compound annotation updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottericr/Documents/Tufts/Research Projects/2017 - 2018 Leafhopper Density/data/cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C325B9C-4832-6F44-809B-55EF4F758847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817D82EA-4A83-FF4E-8D04-789CCF73A1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,12 +862,6 @@
     <t>3681-71-8</t>
   </si>
   <si>
-    <t>(3Z)-Hexenyl acetate</t>
-  </si>
-  <si>
-    <t>(3$\mathit{Z}$)-Hexenyl acetate</t>
-  </si>
-  <si>
     <t>green, fruity, sweet, banana</t>
   </si>
   <si>
@@ -878,12 +872,6 @@
   </si>
   <si>
     <t>31501-11-8</t>
-  </si>
-  <si>
-    <t>(3Z)-Hexenyl hexanoate</t>
-  </si>
-  <si>
-    <t>(3$\mathit{Z}$)-Hexenyl hexanoate</t>
   </si>
   <si>
     <t>Indole</t>
@@ -4068,6 +4056,18 @@
   </si>
   <si>
     <t>cis-3-Hexenyl butyrate</t>
+  </si>
+  <si>
+    <t>(Z)-3-Hexenyl acetate</t>
+  </si>
+  <si>
+    <t>(Z)-3-Hexenyl hexanoate</t>
+  </si>
+  <si>
+    <t>($\mathit{Z}$)-3-Hexenyl acetate</t>
+  </si>
+  <si>
+    <t>($\mathit{Z}$)-3-Hexenyl hexanoate</t>
   </si>
 </sst>
 </file>
@@ -4928,8 +4928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="M163" sqref="M163"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4981,7 +4981,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -5028,7 +5028,7 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -5075,7 +5075,7 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -5412,7 +5412,7 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -5542,7 +5542,7 @@
         <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -5574,7 +5574,7 @@
         <v>545831</v>
       </c>
       <c r="E15" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="F15" t="s">
         <v>69</v>
@@ -5586,7 +5586,7 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -5694,31 +5694,31 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
         <v>1339</v>
       </c>
-      <c r="B18" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="I18" t="s">
         <v>1341</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1343</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1345</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -5762,7 +5762,7 @@
         <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -5926,19 +5926,19 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="H23" t="s">
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -6026,7 +6026,7 @@
         <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -6108,7 +6108,7 @@
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="H27" t="s">
         <v>112</v>
@@ -6176,7 +6176,7 @@
         <v>20</v>
       </c>
       <c r="O28" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -6249,7 +6249,7 @@
         <v>129</v>
       </c>
       <c r="I30" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
@@ -6311,7 +6311,7 @@
         <v>20</v>
       </c>
       <c r="O31" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -6340,7 +6340,7 @@
         <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
@@ -6460,7 +6460,7 @@
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -6472,7 +6472,7 @@
         <v>157</v>
       </c>
       <c r="I35" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
@@ -6560,7 +6560,7 @@
         <v>166</v>
       </c>
       <c r="I37" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="J37" t="s">
         <v>17</v>
@@ -6604,7 +6604,7 @@
         <v>173</v>
       </c>
       <c r="I38" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J38" t="s">
         <v>17</v>
@@ -6692,7 +6692,7 @@
         <v>182</v>
       </c>
       <c r="I40" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="J40" t="s">
         <v>17</v>
@@ -6736,7 +6736,7 @@
         <v>186</v>
       </c>
       <c r="I41" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -6868,7 +6868,7 @@
         <v>200</v>
       </c>
       <c r="I44" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -7044,7 +7044,7 @@
         <v>224</v>
       </c>
       <c r="I48" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
@@ -7132,7 +7132,7 @@
         <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
@@ -7176,7 +7176,7 @@
         <v>234</v>
       </c>
       <c r="I51" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
@@ -7264,7 +7264,7 @@
         <v>244</v>
       </c>
       <c r="I53" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
@@ -7340,7 +7340,7 @@
         <v>9862</v>
       </c>
       <c r="E55" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -7458,7 +7458,7 @@
         <v>20</v>
       </c>
       <c r="O57" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -7487,7 +7487,7 @@
         <v>271</v>
       </c>
       <c r="I58" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
@@ -7531,7 +7531,7 @@
         <v>277</v>
       </c>
       <c r="I59" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
@@ -7549,18 +7549,18 @@
         <v>20</v>
       </c>
       <c r="O59" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="E60" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -7569,10 +7569,10 @@
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="I60" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
@@ -7604,19 +7604,19 @@
         <v>5363388</v>
       </c>
       <c r="E61" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
         <v>280</v>
       </c>
-      <c r="F61" t="s">
+      <c r="I61" t="s">
         <v>281</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s">
-        <v>282</v>
-      </c>
-      <c r="I61" t="s">
-        <v>283</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
@@ -7634,15 +7634,15 @@
         <v>17</v>
       </c>
       <c r="O61" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B62" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -7651,19 +7651,19 @@
         <v>5352543</v>
       </c>
       <c r="E62" t="s">
-        <v>286</v>
+        <v>1346</v>
       </c>
       <c r="F62" t="s">
-        <v>287</v>
+        <v>1348</v>
       </c>
       <c r="G62" t="s">
         <v>17</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="I62" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
@@ -7681,39 +7681,39 @@
         <v>20</v>
       </c>
       <c r="O62" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B63" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C63" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D63">
         <v>798</v>
       </c>
       <c r="E63" t="s">
+        <v>284</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>287</v>
+      </c>
+      <c r="I63" t="s">
+        <v>397</v>
+      </c>
+      <c r="J63" t="s">
         <v>288</v>
-      </c>
-      <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
-        <v>291</v>
-      </c>
-      <c r="I63" t="s">
-        <v>401</v>
-      </c>
-      <c r="J63" t="s">
-        <v>292</v>
       </c>
       <c r="K63" t="s">
         <v>46</v>
@@ -7728,24 +7728,24 @@
         <v>20</v>
       </c>
       <c r="O63" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C64" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D64">
         <v>10430</v>
       </c>
       <c r="E64" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -7754,7 +7754,7 @@
         <v>3.66</v>
       </c>
       <c r="H64" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I64" t="s">
         <v>212</v>
@@ -7777,19 +7777,19 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B65" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D65">
         <v>699486</v>
       </c>
       <c r="E65" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -7801,7 +7801,7 @@
         <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
@@ -7821,19 +7821,19 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B66" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C66" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -7842,10 +7842,10 @@
         <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I66" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
@@ -7863,36 +7863,36 @@
         <v>20</v>
       </c>
       <c r="O66" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>300</v>
+      </c>
+      <c r="B67" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
         <v>304</v>
       </c>
-      <c r="B67" t="s">
-        <v>305</v>
-      </c>
-      <c r="C67" t="s">
-        <v>306</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s">
-        <v>308</v>
-      </c>
       <c r="I67" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
@@ -7912,31 +7912,31 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B68" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C68" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D68">
         <v>6429213</v>
       </c>
       <c r="E68" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H68" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I68" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
@@ -7956,37 +7956,37 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B69" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C69" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D69">
         <v>1738122</v>
       </c>
       <c r="E69" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F69" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G69">
         <v>34.99</v>
       </c>
       <c r="H69" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I69" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L69">
         <v>1655</v>
@@ -8000,28 +8000,28 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70" t="s">
+        <v>322</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F70" t="s">
+        <v>323</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
         <v>324</v>
-      </c>
-      <c r="B70" t="s">
-        <v>325</v>
-      </c>
-      <c r="C70" t="s">
-        <v>326</v>
-      </c>
-      <c r="D70" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F70" t="s">
-        <v>327</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s">
-        <v>328</v>
       </c>
       <c r="I70" t="s">
         <v>148</v>
@@ -8044,19 +8044,19 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B71" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C71" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D71">
         <v>2969</v>
       </c>
       <c r="E71" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -8065,7 +8065,7 @@
         <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I71" t="s">
         <v>212</v>
@@ -8074,7 +8074,7 @@
         <v>114</v>
       </c>
       <c r="K71" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L71">
         <v>1366</v>
@@ -8088,28 +8088,28 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B72" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C72" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D72">
         <v>985</v>
       </c>
       <c r="E72" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H72" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I72" t="s">
         <v>212</v>
@@ -8118,7 +8118,7 @@
         <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L72">
         <v>1958</v>
@@ -8132,19 +8132,19 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B73" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C73" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D73">
         <v>31289</v>
       </c>
       <c r="E73" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -8153,13 +8153,13 @@
         <v>11.51</v>
       </c>
       <c r="H73" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I73" t="s">
         <v>240</v>
       </c>
       <c r="J73" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K73" t="s">
         <v>191</v>
@@ -8176,19 +8176,19 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C74" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D74">
         <v>8158</v>
       </c>
       <c r="E74" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -8197,7 +8197,7 @@
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I74" t="s">
         <v>212</v>
@@ -8220,10 +8220,10 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B75" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -8232,19 +8232,19 @@
         <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F75" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G75" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="H75" t="s">
         <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
@@ -8264,10 +8264,10 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -8276,16 +8276,16 @@
         <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F76" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G76">
         <v>9.42</v>
       </c>
       <c r="H76" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I76" t="s">
         <v>148</v>
@@ -8294,7 +8294,7 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -8306,33 +8306,33 @@
         <v>79</v>
       </c>
       <c r="O76" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>353</v>
+      </c>
+      <c r="B77" t="s">
+        <v>354</v>
+      </c>
+      <c r="C77" t="s">
+        <v>355</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
+        <v>356</v>
+      </c>
+      <c r="F77" t="s">
         <v>357</v>
       </c>
-      <c r="B77" t="s">
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
         <v>358</v>
-      </c>
-      <c r="C77" t="s">
-        <v>359</v>
-      </c>
-      <c r="D77" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" t="s">
-        <v>360</v>
-      </c>
-      <c r="F77" t="s">
-        <v>361</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s">
-        <v>362</v>
       </c>
       <c r="I77" t="s">
         <v>148</v>
@@ -8353,33 +8353,33 @@
         <v>20</v>
       </c>
       <c r="O77" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>359</v>
+      </c>
+      <c r="B78" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" t="s">
+        <v>361</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" t="s">
+        <v>362</v>
+      </c>
+      <c r="F78" t="s">
         <v>363</v>
       </c>
-      <c r="B78" t="s">
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
         <v>364</v>
-      </c>
-      <c r="C78" t="s">
-        <v>365</v>
-      </c>
-      <c r="D78" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" t="s">
-        <v>366</v>
-      </c>
-      <c r="F78" t="s">
-        <v>367</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s">
-        <v>368</v>
       </c>
       <c r="I78" t="s">
         <v>148</v>
@@ -8402,19 +8402,19 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B79" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C79" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D79">
         <v>8221</v>
       </c>
       <c r="E79" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -8423,7 +8423,7 @@
         <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I79" t="s">
         <v>262</v>
@@ -8446,19 +8446,19 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B80" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C80" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D80">
         <v>454</v>
       </c>
       <c r="E80" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -8467,7 +8467,7 @@
         <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I80" t="s">
         <v>240</v>
@@ -8476,7 +8476,7 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L80">
         <v>1002</v>
@@ -8490,10 +8490,10 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B81" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C81" t="s">
         <v>210</v>
@@ -8502,22 +8502,22 @@
         <v>379</v>
       </c>
       <c r="E81" t="s">
+        <v>376</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>378</v>
+      </c>
+      <c r="H81" t="s">
+        <v>379</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J81" t="s">
         <v>380</v>
-      </c>
-      <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s">
-        <v>382</v>
-      </c>
-      <c r="H81" t="s">
-        <v>383</v>
-      </c>
-      <c r="I81" t="s">
-        <v>1315</v>
-      </c>
-      <c r="J81" t="s">
-        <v>384</v>
       </c>
       <c r="K81" t="s">
         <v>45</v>
@@ -8534,19 +8534,19 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B82" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C82" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D82">
         <v>61346</v>
       </c>
       <c r="E82" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
@@ -8555,10 +8555,10 @@
         <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I82" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J82" t="s">
         <v>17</v>
@@ -8573,33 +8573,33 @@
         <v>978</v>
       </c>
       <c r="N82" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B83" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C83" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D83">
         <v>7809</v>
       </c>
       <c r="E83" t="s">
+        <v>388</v>
+      </c>
+      <c r="F83" t="s">
+        <v>391</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
         <v>392</v>
-      </c>
-      <c r="F83" t="s">
-        <v>395</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s">
-        <v>396</v>
       </c>
       <c r="I83" t="s">
         <v>217</v>
@@ -8622,19 +8622,19 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B84" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C84" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D84">
         <v>220639</v>
       </c>
       <c r="E84" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
@@ -8646,7 +8646,7 @@
         <v>17</v>
       </c>
       <c r="I84" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J84" t="s">
         <v>17</v>
@@ -8666,31 +8666,31 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B85" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C85" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D85">
         <v>7991</v>
       </c>
       <c r="E85" t="s">
+        <v>398</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>401</v>
+      </c>
+      <c r="H85" t="s">
         <v>402</v>
       </c>
-      <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s">
-        <v>405</v>
-      </c>
-      <c r="H85" t="s">
-        <v>406</v>
-      </c>
       <c r="I85" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="J85" t="s">
         <v>17</v>
@@ -8710,19 +8710,19 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B86" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C86" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D86">
         <v>19602</v>
       </c>
       <c r="E86" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
@@ -8731,16 +8731,16 @@
         <v>7.34</v>
       </c>
       <c r="H86" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I86" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J86" t="s">
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -8754,19 +8754,19 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B87" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C87" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D87">
         <v>20488062</v>
       </c>
       <c r="E87" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
@@ -8775,16 +8775,16 @@
         <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I87" t="s">
         <v>136</v>
       </c>
       <c r="J87" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K87" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L87">
         <v>981</v>
@@ -8798,19 +8798,19 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B88" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C88" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -8842,28 +8842,28 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>418</v>
+      </c>
+      <c r="B89" t="s">
+        <v>419</v>
+      </c>
+      <c r="C89" t="s">
+        <v>420</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
+        <v>421</v>
+      </c>
+      <c r="F89" t="s">
         <v>422</v>
       </c>
-      <c r="B89" t="s">
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
         <v>423</v>
-      </c>
-      <c r="C89" t="s">
-        <v>424</v>
-      </c>
-      <c r="D89" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" t="s">
-        <v>425</v>
-      </c>
-      <c r="F89" t="s">
-        <v>426</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s">
-        <v>427</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -8886,31 +8886,31 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>424</v>
+      </c>
+      <c r="B90" t="s">
+        <v>425</v>
+      </c>
+      <c r="C90" t="s">
+        <v>426</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>427</v>
+      </c>
+      <c r="F90" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
         <v>428</v>
       </c>
-      <c r="B90" t="s">
-        <v>429</v>
-      </c>
-      <c r="C90" t="s">
-        <v>430</v>
-      </c>
-      <c r="D90" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" t="s">
-        <v>431</v>
-      </c>
-      <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s">
-        <v>432</v>
-      </c>
       <c r="I90" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="J90" t="s">
         <v>17</v>
@@ -8930,28 +8930,28 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>429</v>
+      </c>
+      <c r="B91" t="s">
+        <v>430</v>
+      </c>
+      <c r="C91" t="s">
+        <v>431</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s">
+        <v>432</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
         <v>433</v>
-      </c>
-      <c r="B91" t="s">
-        <v>434</v>
-      </c>
-      <c r="C91" t="s">
-        <v>435</v>
-      </c>
-      <c r="D91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" t="s">
-        <v>436</v>
-      </c>
-      <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s">
-        <v>437</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -8974,31 +8974,31 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B92" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C92" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D92">
         <v>551387</v>
       </c>
       <c r="E92" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H92" t="s">
         <v>17</v>
       </c>
       <c r="I92" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J92" t="s">
         <v>17</v>
@@ -9018,34 +9018,34 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B93" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C93" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D93">
         <v>7461</v>
       </c>
       <c r="E93" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F93" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G93" t="s">
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I93" t="s">
         <v>148</v>
       </c>
       <c r="J93" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K93" t="s">
         <v>150</v>
@@ -9062,10 +9062,10 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B94" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -9074,25 +9074,25 @@
         <v>11005</v>
       </c>
       <c r="E94" t="s">
+        <v>447</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
+        <v>449</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J94" t="s">
+        <v>450</v>
+      </c>
+      <c r="K94" t="s">
         <v>451</v>
-      </c>
-      <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s">
-        <v>453</v>
-      </c>
-      <c r="I94" t="s">
-        <v>1315</v>
-      </c>
-      <c r="J94" t="s">
-        <v>454</v>
-      </c>
-      <c r="K94" t="s">
-        <v>455</v>
       </c>
       <c r="L94">
         <v>1759</v>
@@ -9106,28 +9106,28 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>452</v>
+      </c>
+      <c r="B95" t="s">
+        <v>453</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>454</v>
+      </c>
+      <c r="F95" t="s">
+        <v>455</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
         <v>456</v>
-      </c>
-      <c r="B95" t="s">
-        <v>457</v>
-      </c>
-      <c r="C95" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" t="s">
-        <v>458</v>
-      </c>
-      <c r="F95" t="s">
-        <v>459</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s">
-        <v>460</v>
       </c>
       <c r="I95" t="s">
         <v>148</v>
@@ -9150,7 +9150,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B96" t="s">
         <v>184</v>
@@ -9162,7 +9162,7 @@
         <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -9174,7 +9174,7 @@
         <v>186</v>
       </c>
       <c r="I96" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J96" t="s">
         <v>17</v>
@@ -9194,37 +9194,37 @@
     </row>
     <row r="97" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B97" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C97" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D97">
         <v>1183</v>
       </c>
       <c r="E97" t="s">
+        <v>458</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H97" t="s">
         <v>462</v>
-      </c>
-      <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H97" t="s">
-        <v>466</v>
       </c>
       <c r="I97" t="s">
         <v>119</v>
       </c>
       <c r="J97" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K97" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L97">
         <v>1403</v>
@@ -9238,22 +9238,22 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C98" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D98" t="s">
         <v>17</v>
       </c>
       <c r="E98" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F98" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G98" t="s">
         <v>17</v>
@@ -9282,7 +9282,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B99" t="s">
         <v>17</v>
@@ -9326,19 +9326,19 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B100" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C100" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D100" t="s">
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
@@ -9370,10 +9370,10 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B101" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
@@ -9382,7 +9382,7 @@
         <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
@@ -9391,7 +9391,7 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -9414,10 +9414,10 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B102" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
@@ -9426,7 +9426,7 @@
         <v>43551</v>
       </c>
       <c r="E102" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
@@ -9444,7 +9444,7 @@
         <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -9458,19 +9458,19 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B103" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C103" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
@@ -9502,19 +9502,19 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B104" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C104" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D104">
         <v>7247</v>
       </c>
       <c r="E104" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
@@ -9523,7 +9523,7 @@
         <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I104" t="s">
         <v>217</v>
@@ -9532,7 +9532,7 @@
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
@@ -9546,19 +9546,19 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B105" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C105" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
@@ -9590,19 +9590,19 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B106" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C106" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
@@ -9611,7 +9611,7 @@
         <v>17</v>
       </c>
       <c r="H106" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -9634,10 +9634,10 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B107" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -9646,7 +9646,7 @@
         <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -9854,7 +9854,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B112" t="s">
         <v>17</v>
@@ -10382,7 +10382,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B124" t="s">
         <v>17</v>
@@ -10558,7 +10558,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B128" t="s">
         <v>17</v>
@@ -10646,7 +10646,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B130" t="s">
         <v>17</v>
@@ -10822,7 +10822,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B134" t="s">
         <v>17</v>
@@ -10866,19 +10866,19 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B135" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C135" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D135" t="s">
         <v>17</v>
       </c>
       <c r="E135" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F135" t="s">
         <v>17</v>
@@ -10887,7 +10887,7 @@
         <v>17</v>
       </c>
       <c r="H135" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I135" t="s">
         <v>17</v>
@@ -10910,28 +10910,28 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>507</v>
+      </c>
+      <c r="B136" t="s">
+        <v>508</v>
+      </c>
+      <c r="C136" t="s">
+        <v>509</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" t="s">
+        <v>510</v>
+      </c>
+      <c r="F136" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s">
         <v>511</v>
-      </c>
-      <c r="B136" t="s">
-        <v>512</v>
-      </c>
-      <c r="C136" t="s">
-        <v>513</v>
-      </c>
-      <c r="D136" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" t="s">
-        <v>514</v>
-      </c>
-      <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" t="s">
-        <v>515</v>
       </c>
       <c r="I136" t="s">
         <v>17</v>
@@ -10954,19 +10954,19 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B137" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C137" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D137" t="s">
         <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
@@ -10998,19 +10998,19 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B138" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C138" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D138">
         <v>13588</v>
       </c>
       <c r="E138" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
@@ -11042,19 +11042,19 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B139" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C139" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D139" t="s">
         <v>17</v>
       </c>
       <c r="E139" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
@@ -11086,19 +11086,19 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B140" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C140" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
       </c>
       <c r="E140" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
@@ -11130,19 +11130,19 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B141" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C141" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D141">
         <v>13572</v>
       </c>
       <c r="E141" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F141" t="s">
         <v>17</v>
@@ -11151,7 +11151,7 @@
         <v>17</v>
       </c>
       <c r="H141" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I141" t="s">
         <v>255</v>
@@ -11160,7 +11160,7 @@
         <v>17</v>
       </c>
       <c r="K141" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -11174,19 +11174,19 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B142" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C142" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D142" t="s">
         <v>17</v>
       </c>
       <c r="E142" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F142" t="s">
         <v>17</v>
@@ -11195,7 +11195,7 @@
         <v>17</v>
       </c>
       <c r="H142" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -11218,19 +11218,19 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B143" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C143" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D143">
         <v>66341</v>
       </c>
       <c r="E143" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
@@ -11239,10 +11239,10 @@
         <v>17</v>
       </c>
       <c r="H143" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I143" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J143" t="s">
         <v>17</v>
@@ -11262,19 +11262,19 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B144" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C144" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D144">
         <v>8093</v>
       </c>
       <c r="E144" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F144" t="s">
         <v>17</v>
@@ -11283,7 +11283,7 @@
         <v>17</v>
       </c>
       <c r="H144" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I144" t="s">
         <v>255</v>
@@ -11292,7 +11292,7 @@
         <v>17</v>
       </c>
       <c r="K144" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L144">
         <v>989</v>
@@ -11306,31 +11306,31 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B145" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C145" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D145">
         <v>5318599</v>
       </c>
       <c r="E145" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F145" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G145" t="s">
         <v>17</v>
       </c>
       <c r="H145" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I145" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J145" t="s">
         <v>17</v>
@@ -11350,31 +11350,31 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B146" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C146" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D146">
         <v>8846</v>
       </c>
       <c r="E146" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
       </c>
       <c r="G146" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H146" t="s">
         <v>17</v>
       </c>
       <c r="I146" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J146" t="s">
         <v>17</v>
@@ -11394,19 +11394,19 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B147" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C147" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D147">
         <v>13387</v>
       </c>
       <c r="E147" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F147" t="s">
         <v>17</v>
@@ -11438,19 +11438,19 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B148" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C148" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D148" t="s">
         <v>17</v>
       </c>
       <c r="E148" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
@@ -11482,10 +11482,10 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B149" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C149" t="s">
         <v>17</v>
@@ -11494,7 +11494,7 @@
         <v>17</v>
       </c>
       <c r="E149" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F149" t="s">
         <v>17</v>
@@ -11526,19 +11526,19 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B150" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C150" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D150">
         <v>12756</v>
       </c>
       <c r="E150" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F150" t="s">
         <v>17</v>
@@ -11547,10 +11547,10 @@
         <v>17</v>
       </c>
       <c r="H150" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="I150" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J150" t="s">
         <v>17</v>
@@ -11746,19 +11746,19 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B155" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C155" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D155">
         <v>25311</v>
       </c>
       <c r="E155" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F155" t="s">
         <v>17</v>
@@ -11767,7 +11767,7 @@
         <v>17</v>
       </c>
       <c r="H155" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I155" t="s">
         <v>240</v>
@@ -11790,7 +11790,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B156" t="s">
         <v>17</v>
@@ -11834,19 +11834,19 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B157" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C157" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D157" t="s">
         <v>17</v>
       </c>
       <c r="E157" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F157" t="s">
         <v>17</v>
@@ -11878,19 +11878,19 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B158" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C158" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D158">
         <v>7802</v>
       </c>
       <c r="E158" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F158" t="s">
         <v>17</v>
@@ -11899,7 +11899,7 @@
         <v>17</v>
       </c>
       <c r="H158" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I158" t="s">
         <v>255</v>
@@ -11922,19 +11922,19 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B159" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C159" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D159">
         <v>30945</v>
       </c>
       <c r="E159" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F159" t="s">
         <v>17</v>
@@ -11946,7 +11946,7 @@
         <v>17</v>
       </c>
       <c r="I159" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J159" t="s">
         <v>17</v>
@@ -11966,19 +11966,19 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B160" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C160" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D160" t="s">
         <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F160" t="s">
         <v>17</v>
@@ -12010,19 +12010,19 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B161" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C161" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D161">
         <v>11271</v>
       </c>
       <c r="E161" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F161" t="s">
         <v>17</v>
@@ -12031,7 +12031,7 @@
         <v>17</v>
       </c>
       <c r="H161" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I161" t="s">
         <v>95</v>
@@ -12040,7 +12040,7 @@
         <v>17</v>
       </c>
       <c r="K161" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
@@ -12054,19 +12054,19 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B162" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C162" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D162" t="s">
         <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F162" t="s">
         <v>17</v>
@@ -12186,19 +12186,19 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B165" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C165" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D165" t="s">
         <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F165" t="s">
         <v>17</v>
@@ -12207,7 +12207,7 @@
         <v>17</v>
       </c>
       <c r="H165" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -12260,7 +12260,7 @@
         <v>17</v>
       </c>
       <c r="K166" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L166" t="s">
         <v>17</v>
@@ -12318,7 +12318,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B168" t="s">
         <v>17</v>
@@ -12362,37 +12362,37 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B169" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C169" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D169">
         <v>237332</v>
       </c>
       <c r="E169" t="s">
+        <v>604</v>
+      </c>
+      <c r="F169" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" t="s">
+        <v>607</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J169" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" t="s">
         <v>608</v>
-      </c>
-      <c r="F169" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s">
-        <v>17</v>
-      </c>
-      <c r="H169" t="s">
-        <v>611</v>
-      </c>
-      <c r="I169" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J169" t="s">
-        <v>17</v>
-      </c>
-      <c r="K169" t="s">
-        <v>612</v>
       </c>
       <c r="L169" t="s">
         <v>17</v>
@@ -12406,19 +12406,19 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B170" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C170" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D170">
         <v>1549778</v>
       </c>
       <c r="E170" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F170" t="s">
         <v>17</v>
@@ -12427,7 +12427,7 @@
         <v>17</v>
       </c>
       <c r="H170" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I170" t="s">
         <v>148</v>
@@ -12714,7 +12714,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B177" t="s">
         <v>17</v>
@@ -12788,7 +12788,7 @@
         <v>17</v>
       </c>
       <c r="K178" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L178" t="s">
         <v>17</v>
@@ -13198,28 +13198,28 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>616</v>
+      </c>
+      <c r="B188" t="s">
+        <v>617</v>
+      </c>
+      <c r="C188" t="s">
+        <v>618</v>
+      </c>
+      <c r="D188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" t="s">
+        <v>619</v>
+      </c>
+      <c r="F188" t="s">
+        <v>17</v>
+      </c>
+      <c r="G188" t="s">
+        <v>17</v>
+      </c>
+      <c r="H188" t="s">
         <v>620</v>
-      </c>
-      <c r="B188" t="s">
-        <v>621</v>
-      </c>
-      <c r="C188" t="s">
-        <v>622</v>
-      </c>
-      <c r="D188" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" t="s">
-        <v>623</v>
-      </c>
-      <c r="F188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" t="s">
-        <v>17</v>
-      </c>
-      <c r="H188" t="s">
-        <v>624</v>
       </c>
       <c r="I188" t="s">
         <v>17</v>
@@ -13242,22 +13242,22 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>621</v>
+      </c>
+      <c r="B189" t="s">
+        <v>622</v>
+      </c>
+      <c r="C189" t="s">
+        <v>623</v>
+      </c>
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" t="s">
+        <v>624</v>
+      </c>
+      <c r="F189" t="s">
         <v>625</v>
-      </c>
-      <c r="B189" t="s">
-        <v>626</v>
-      </c>
-      <c r="C189" t="s">
-        <v>627</v>
-      </c>
-      <c r="D189" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" t="s">
-        <v>628</v>
-      </c>
-      <c r="F189" t="s">
-        <v>629</v>
       </c>
       <c r="G189" t="s">
         <v>17</v>
@@ -13286,28 +13286,28 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>626</v>
+      </c>
+      <c r="B190" t="s">
+        <v>627</v>
+      </c>
+      <c r="C190" t="s">
+        <v>628</v>
+      </c>
+      <c r="D190" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" t="s">
+        <v>629</v>
+      </c>
+      <c r="F190" t="s">
         <v>630</v>
       </c>
-      <c r="B190" t="s">
+      <c r="G190" t="s">
+        <v>17</v>
+      </c>
+      <c r="H190" t="s">
         <v>631</v>
-      </c>
-      <c r="C190" t="s">
-        <v>632</v>
-      </c>
-      <c r="D190" t="s">
-        <v>17</v>
-      </c>
-      <c r="E190" t="s">
-        <v>633</v>
-      </c>
-      <c r="F190" t="s">
-        <v>634</v>
-      </c>
-      <c r="G190" t="s">
-        <v>17</v>
-      </c>
-      <c r="H190" t="s">
-        <v>635</v>
       </c>
       <c r="I190" t="s">
         <v>17</v>
@@ -13330,28 +13330,28 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>632</v>
+      </c>
+      <c r="B191" t="s">
+        <v>633</v>
+      </c>
+      <c r="C191" t="s">
+        <v>634</v>
+      </c>
+      <c r="D191" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" t="s">
+        <v>635</v>
+      </c>
+      <c r="F191" t="s">
         <v>636</v>
       </c>
-      <c r="B191" t="s">
+      <c r="G191" t="s">
+        <v>17</v>
+      </c>
+      <c r="H191" t="s">
         <v>637</v>
-      </c>
-      <c r="C191" t="s">
-        <v>638</v>
-      </c>
-      <c r="D191" t="s">
-        <v>17</v>
-      </c>
-      <c r="E191" t="s">
-        <v>639</v>
-      </c>
-      <c r="F191" t="s">
-        <v>640</v>
-      </c>
-      <c r="G191" t="s">
-        <v>17</v>
-      </c>
-      <c r="H191" t="s">
-        <v>641</v>
       </c>
       <c r="I191" t="s">
         <v>17</v>
@@ -13374,10 +13374,10 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B192" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C192" t="s">
         <v>17</v>
@@ -13386,10 +13386,10 @@
         <v>17</v>
       </c>
       <c r="E192" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F192" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G192" t="s">
         <v>17</v>
@@ -13418,19 +13418,19 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B193" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C193" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D193">
         <v>8418</v>
       </c>
       <c r="E193" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F193" t="s">
         <v>17</v>
@@ -13448,7 +13448,7 @@
         <v>17</v>
       </c>
       <c r="K193" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="L193" t="s">
         <v>17</v>
@@ -13462,28 +13462,28 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>646</v>
+      </c>
+      <c r="B194" t="s">
+        <v>647</v>
+      </c>
+      <c r="C194" t="s">
+        <v>648</v>
+      </c>
+      <c r="D194" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" t="s">
+        <v>649</v>
+      </c>
+      <c r="F194" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" t="s">
         <v>650</v>
-      </c>
-      <c r="B194" t="s">
-        <v>651</v>
-      </c>
-      <c r="C194" t="s">
-        <v>652</v>
-      </c>
-      <c r="D194" t="s">
-        <v>17</v>
-      </c>
-      <c r="E194" t="s">
-        <v>653</v>
-      </c>
-      <c r="F194" t="s">
-        <v>17</v>
-      </c>
-      <c r="G194" t="s">
-        <v>17</v>
-      </c>
-      <c r="H194" t="s">
-        <v>654</v>
       </c>
       <c r="I194" t="s">
         <v>17</v>
@@ -13506,28 +13506,28 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>651</v>
+      </c>
+      <c r="B195" t="s">
+        <v>652</v>
+      </c>
+      <c r="C195" t="s">
+        <v>653</v>
+      </c>
+      <c r="D195" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" t="s">
+        <v>654</v>
+      </c>
+      <c r="F195" t="s">
         <v>655</v>
       </c>
-      <c r="B195" t="s">
+      <c r="G195" t="s">
+        <v>17</v>
+      </c>
+      <c r="H195" t="s">
         <v>656</v>
-      </c>
-      <c r="C195" t="s">
-        <v>657</v>
-      </c>
-      <c r="D195" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" t="s">
-        <v>658</v>
-      </c>
-      <c r="F195" t="s">
-        <v>659</v>
-      </c>
-      <c r="G195" t="s">
-        <v>17</v>
-      </c>
-      <c r="H195" t="s">
-        <v>660</v>
       </c>
       <c r="I195" t="s">
         <v>17</v>
@@ -13550,25 +13550,25 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B196" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C196" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D196">
         <v>7934</v>
       </c>
       <c r="E196" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F196" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G196" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H196" t="s">
         <v>17</v>
@@ -13594,22 +13594,22 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>662</v>
+      </c>
+      <c r="B197" t="s">
+        <v>663</v>
+      </c>
+      <c r="C197" t="s">
+        <v>664</v>
+      </c>
+      <c r="D197" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" t="s">
+        <v>665</v>
+      </c>
+      <c r="F197" t="s">
         <v>666</v>
-      </c>
-      <c r="B197" t="s">
-        <v>667</v>
-      </c>
-      <c r="C197" t="s">
-        <v>668</v>
-      </c>
-      <c r="D197" t="s">
-        <v>17</v>
-      </c>
-      <c r="E197" t="s">
-        <v>669</v>
-      </c>
-      <c r="F197" t="s">
-        <v>670</v>
       </c>
       <c r="G197" t="s">
         <v>17</v>
@@ -13638,19 +13638,19 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B198" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C198" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D198" t="s">
         <v>17</v>
       </c>
       <c r="E198" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F198" t="s">
         <v>17</v>
@@ -13682,19 +13682,19 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B199" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C199" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D199" t="s">
         <v>17</v>
       </c>
       <c r="E199" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F199" t="s">
         <v>17</v>
@@ -13726,22 +13726,22 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>675</v>
+      </c>
+      <c r="B200" t="s">
+        <v>676</v>
+      </c>
+      <c r="C200" t="s">
+        <v>677</v>
+      </c>
+      <c r="D200" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" t="s">
+        <v>678</v>
+      </c>
+      <c r="F200" t="s">
         <v>679</v>
-      </c>
-      <c r="B200" t="s">
-        <v>680</v>
-      </c>
-      <c r="C200" t="s">
-        <v>681</v>
-      </c>
-      <c r="D200" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" t="s">
-        <v>682</v>
-      </c>
-      <c r="F200" t="s">
-        <v>683</v>
       </c>
       <c r="G200" t="s">
         <v>17</v>
@@ -13770,28 +13770,28 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>680</v>
+      </c>
+      <c r="B201" t="s">
+        <v>681</v>
+      </c>
+      <c r="C201" t="s">
+        <v>682</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" t="s">
+        <v>683</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
+        <v>17</v>
+      </c>
+      <c r="H201" t="s">
         <v>684</v>
-      </c>
-      <c r="B201" t="s">
-        <v>685</v>
-      </c>
-      <c r="C201" t="s">
-        <v>686</v>
-      </c>
-      <c r="D201" t="s">
-        <v>17</v>
-      </c>
-      <c r="E201" t="s">
-        <v>687</v>
-      </c>
-      <c r="F201" t="s">
-        <v>17</v>
-      </c>
-      <c r="G201" t="s">
-        <v>17</v>
-      </c>
-      <c r="H201" t="s">
-        <v>688</v>
       </c>
       <c r="I201" t="s">
         <v>17</v>
@@ -13814,37 +13814,37 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B202" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C202" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D202">
         <v>20144841</v>
       </c>
       <c r="E202" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F202" t="s">
         <v>17</v>
       </c>
       <c r="G202" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H202" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="I202" t="s">
         <v>212</v>
       </c>
       <c r="J202" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="K202" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="L202" t="s">
         <v>17</v>
@@ -13858,28 +13858,28 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B203" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C203" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D203">
         <v>12053</v>
       </c>
       <c r="E203" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F203" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G203" t="s">
         <v>17</v>
       </c>
       <c r="H203" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="I203" t="s">
         <v>77</v>
@@ -13902,19 +13902,19 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B204" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C204" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D204">
         <v>9223</v>
       </c>
       <c r="E204" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F204" t="s">
         <v>17</v>
@@ -13926,13 +13926,13 @@
         <v>17</v>
       </c>
       <c r="I204" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J204" t="s">
         <v>17</v>
       </c>
       <c r="K204" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="L204" t="s">
         <v>17</v>
@@ -13946,31 +13946,31 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B205" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C205" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D205">
         <v>94310</v>
       </c>
       <c r="E205" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F205" t="s">
         <v>17</v>
       </c>
       <c r="G205" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H205" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="I205" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J205" t="s">
         <v>17</v>
@@ -13990,10 +13990,10 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B206" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C206" t="s">
         <v>17</v>
@@ -14002,7 +14002,7 @@
         <v>17</v>
       </c>
       <c r="E206" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F206" t="s">
         <v>17</v>
@@ -14034,19 +14034,19 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B207" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C207" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D207">
         <v>3102</v>
       </c>
       <c r="E207" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F207" t="s">
         <v>17</v>
@@ -14055,7 +14055,7 @@
         <v>17</v>
       </c>
       <c r="H207" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="I207" t="s">
         <v>113</v>
@@ -14064,7 +14064,7 @@
         <v>17</v>
       </c>
       <c r="K207" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="L207" t="s">
         <v>17</v>
@@ -14078,19 +14078,19 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B208" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C208" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D208" t="s">
         <v>17</v>
       </c>
       <c r="E208" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F208" t="s">
         <v>17</v>
@@ -14099,7 +14099,7 @@
         <v>17</v>
       </c>
       <c r="H208" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I208" t="s">
         <v>17</v>
@@ -14122,19 +14122,19 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B209" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C209" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D209">
         <v>2345</v>
       </c>
       <c r="E209" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -14143,10 +14143,10 @@
         <v>17</v>
       </c>
       <c r="H209" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="I209" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="J209" t="s">
         <v>17</v>
@@ -14166,31 +14166,31 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B210" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C210" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D210">
         <v>61016</v>
       </c>
       <c r="E210" t="s">
+        <v>724</v>
+      </c>
+      <c r="F210" t="s">
+        <v>17</v>
+      </c>
+      <c r="G210" t="s">
+        <v>727</v>
+      </c>
+      <c r="H210" t="s">
         <v>728</v>
       </c>
-      <c r="F210" t="s">
-        <v>17</v>
-      </c>
-      <c r="G210" t="s">
-        <v>731</v>
-      </c>
-      <c r="H210" t="s">
-        <v>732</v>
-      </c>
       <c r="I210" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J210" t="s">
         <v>17</v>
@@ -14210,19 +14210,19 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B211" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C211" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D211">
         <v>32735</v>
       </c>
       <c r="E211" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F211" t="s">
         <v>17</v>
@@ -14234,7 +14234,7 @@
         <v>17</v>
       </c>
       <c r="I211" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J211" t="s">
         <v>17</v>
@@ -14254,28 +14254,28 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>733</v>
+      </c>
+      <c r="B212" t="s">
+        <v>734</v>
+      </c>
+      <c r="C212" t="s">
+        <v>735</v>
+      </c>
+      <c r="D212" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" t="s">
+        <v>736</v>
+      </c>
+      <c r="F212" t="s">
+        <v>17</v>
+      </c>
+      <c r="G212" t="s">
+        <v>17</v>
+      </c>
+      <c r="H212" t="s">
         <v>737</v>
-      </c>
-      <c r="B212" t="s">
-        <v>738</v>
-      </c>
-      <c r="C212" t="s">
-        <v>739</v>
-      </c>
-      <c r="D212" t="s">
-        <v>17</v>
-      </c>
-      <c r="E212" t="s">
-        <v>740</v>
-      </c>
-      <c r="F212" t="s">
-        <v>17</v>
-      </c>
-      <c r="G212" t="s">
-        <v>17</v>
-      </c>
-      <c r="H212" t="s">
-        <v>741</v>
       </c>
       <c r="I212" t="s">
         <v>17</v>
@@ -14298,19 +14298,19 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B213" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C213" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D213">
         <v>11038</v>
       </c>
       <c r="E213" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F213" t="s">
         <v>17</v>
@@ -14322,7 +14322,7 @@
         <v>17</v>
       </c>
       <c r="I213" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J213" t="s">
         <v>17</v>
@@ -14342,19 +14342,19 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B214" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C214" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D214" t="s">
         <v>17</v>
       </c>
       <c r="E214" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F214" t="s">
         <v>17</v>
@@ -14363,7 +14363,7 @@
         <v>17</v>
       </c>
       <c r="H214" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="I214" t="s">
         <v>17</v>
@@ -14386,19 +14386,19 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B215" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C215" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D215" t="s">
         <v>17</v>
       </c>
       <c r="E215" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F215" t="s">
         <v>17</v>
@@ -14407,7 +14407,7 @@
         <v>17</v>
       </c>
       <c r="H215" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="I215" t="s">
         <v>17</v>
@@ -14430,19 +14430,19 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B216" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C216" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D216" t="s">
         <v>17</v>
       </c>
       <c r="E216" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F216" t="s">
         <v>17</v>
@@ -14474,19 +14474,19 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B217" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C217" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D217" t="s">
         <v>17</v>
       </c>
       <c r="E217" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F217" t="s">
         <v>17</v>
@@ -14495,7 +14495,7 @@
         <v>17</v>
       </c>
       <c r="H217" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I217" t="s">
         <v>17</v>
@@ -14518,19 +14518,19 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B218" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C218" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D218" t="s">
         <v>17</v>
       </c>
       <c r="E218" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F218" t="s">
         <v>17</v>
@@ -14562,25 +14562,25 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>760</v>
+      </c>
+      <c r="B219" t="s">
+        <v>761</v>
+      </c>
+      <c r="C219" t="s">
+        <v>762</v>
+      </c>
+      <c r="D219" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" t="s">
+        <v>763</v>
+      </c>
+      <c r="F219" t="s">
+        <v>17</v>
+      </c>
+      <c r="G219" t="s">
         <v>764</v>
-      </c>
-      <c r="B219" t="s">
-        <v>765</v>
-      </c>
-      <c r="C219" t="s">
-        <v>766</v>
-      </c>
-      <c r="D219" t="s">
-        <v>17</v>
-      </c>
-      <c r="E219" t="s">
-        <v>767</v>
-      </c>
-      <c r="F219" t="s">
-        <v>17</v>
-      </c>
-      <c r="G219" t="s">
-        <v>768</v>
       </c>
       <c r="H219" t="s">
         <v>17</v>
@@ -14606,28 +14606,28 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>765</v>
+      </c>
+      <c r="B220" t="s">
+        <v>766</v>
+      </c>
+      <c r="C220" t="s">
+        <v>767</v>
+      </c>
+      <c r="D220" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" t="s">
+        <v>768</v>
+      </c>
+      <c r="F220" t="s">
+        <v>17</v>
+      </c>
+      <c r="G220" t="s">
+        <v>17</v>
+      </c>
+      <c r="H220" t="s">
         <v>769</v>
-      </c>
-      <c r="B220" t="s">
-        <v>770</v>
-      </c>
-      <c r="C220" t="s">
-        <v>771</v>
-      </c>
-      <c r="D220" t="s">
-        <v>17</v>
-      </c>
-      <c r="E220" t="s">
-        <v>772</v>
-      </c>
-      <c r="F220" t="s">
-        <v>17</v>
-      </c>
-      <c r="G220" t="s">
-        <v>17</v>
-      </c>
-      <c r="H220" t="s">
-        <v>773</v>
       </c>
       <c r="I220" t="s">
         <v>17</v>
@@ -14650,28 +14650,28 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>770</v>
+      </c>
+      <c r="B221" t="s">
+        <v>771</v>
+      </c>
+      <c r="C221" t="s">
+        <v>772</v>
+      </c>
+      <c r="D221" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" t="s">
+        <v>773</v>
+      </c>
+      <c r="F221" t="s">
+        <v>17</v>
+      </c>
+      <c r="G221" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221" t="s">
         <v>774</v>
-      </c>
-      <c r="B221" t="s">
-        <v>775</v>
-      </c>
-      <c r="C221" t="s">
-        <v>776</v>
-      </c>
-      <c r="D221" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" t="s">
-        <v>777</v>
-      </c>
-      <c r="F221" t="s">
-        <v>17</v>
-      </c>
-      <c r="G221" t="s">
-        <v>17</v>
-      </c>
-      <c r="H221" t="s">
-        <v>778</v>
       </c>
       <c r="I221" t="s">
         <v>17</v>
@@ -14694,19 +14694,19 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B222" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C222" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D222">
         <v>10225</v>
       </c>
       <c r="E222" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F222" t="s">
         <v>17</v>
@@ -14718,7 +14718,7 @@
         <v>17</v>
       </c>
       <c r="I222" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="J222" t="s">
         <v>17</v>
@@ -14738,28 +14738,28 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>779</v>
+      </c>
+      <c r="B223" t="s">
+        <v>780</v>
+      </c>
+      <c r="C223" t="s">
+        <v>781</v>
+      </c>
+      <c r="D223" t="s">
+        <v>17</v>
+      </c>
+      <c r="E223" t="s">
+        <v>782</v>
+      </c>
+      <c r="F223" t="s">
         <v>783</v>
       </c>
-      <c r="B223" t="s">
+      <c r="G223" t="s">
+        <v>17</v>
+      </c>
+      <c r="H223" t="s">
         <v>784</v>
-      </c>
-      <c r="C223" t="s">
-        <v>785</v>
-      </c>
-      <c r="D223" t="s">
-        <v>17</v>
-      </c>
-      <c r="E223" t="s">
-        <v>786</v>
-      </c>
-      <c r="F223" t="s">
-        <v>787</v>
-      </c>
-      <c r="G223" t="s">
-        <v>17</v>
-      </c>
-      <c r="H223" t="s">
-        <v>788</v>
       </c>
       <c r="I223" t="s">
         <v>17</v>
@@ -14782,28 +14782,28 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>785</v>
+      </c>
+      <c r="B224" t="s">
+        <v>786</v>
+      </c>
+      <c r="C224" t="s">
+        <v>787</v>
+      </c>
+      <c r="D224" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224" t="s">
+        <v>788</v>
+      </c>
+      <c r="F224" t="s">
         <v>789</v>
       </c>
-      <c r="B224" t="s">
+      <c r="G224" t="s">
+        <v>17</v>
+      </c>
+      <c r="H224" t="s">
         <v>790</v>
-      </c>
-      <c r="C224" t="s">
-        <v>791</v>
-      </c>
-      <c r="D224" t="s">
-        <v>17</v>
-      </c>
-      <c r="E224" t="s">
-        <v>792</v>
-      </c>
-      <c r="F224" t="s">
-        <v>793</v>
-      </c>
-      <c r="G224" t="s">
-        <v>17</v>
-      </c>
-      <c r="H224" t="s">
-        <v>794</v>
       </c>
       <c r="I224" t="s">
         <v>17</v>
@@ -14826,10 +14826,10 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B225" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C225" t="s">
         <v>17</v>
@@ -14838,16 +14838,16 @@
         <v>17</v>
       </c>
       <c r="E225" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F225" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G225" t="s">
         <v>17</v>
       </c>
       <c r="H225" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="I225" t="s">
         <v>17</v>
@@ -14870,10 +14870,10 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B226" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C226" t="s">
         <v>17</v>
@@ -14882,7 +14882,7 @@
         <v>17</v>
       </c>
       <c r="E226" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F226" t="s">
         <v>17</v>
@@ -14914,34 +14914,34 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B227" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C227" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D227">
         <v>2537</v>
       </c>
       <c r="E227" t="s">
+        <v>798</v>
+      </c>
+      <c r="F227" t="s">
+        <v>17</v>
+      </c>
+      <c r="G227" t="s">
+        <v>801</v>
+      </c>
+      <c r="H227" t="s">
         <v>802</v>
       </c>
-      <c r="F227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G227" t="s">
-        <v>805</v>
-      </c>
-      <c r="H227" t="s">
-        <v>806</v>
-      </c>
       <c r="I227" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J227" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K227" t="s">
         <v>26</v>
@@ -14958,19 +14958,19 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B228" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C228" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D228" t="s">
         <v>17</v>
       </c>
       <c r="E228" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F228" t="s">
         <v>17</v>
@@ -14979,7 +14979,7 @@
         <v>17</v>
       </c>
       <c r="H228" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I228" t="s">
         <v>17</v>
@@ -15002,28 +15002,28 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>807</v>
+      </c>
+      <c r="B229" t="s">
+        <v>808</v>
+      </c>
+      <c r="C229" t="s">
+        <v>17</v>
+      </c>
+      <c r="D229" t="s">
+        <v>17</v>
+      </c>
+      <c r="E229" t="s">
+        <v>809</v>
+      </c>
+      <c r="F229" t="s">
+        <v>810</v>
+      </c>
+      <c r="G229" t="s">
+        <v>17</v>
+      </c>
+      <c r="H229" t="s">
         <v>811</v>
-      </c>
-      <c r="B229" t="s">
-        <v>812</v>
-      </c>
-      <c r="C229" t="s">
-        <v>17</v>
-      </c>
-      <c r="D229" t="s">
-        <v>17</v>
-      </c>
-      <c r="E229" t="s">
-        <v>813</v>
-      </c>
-      <c r="F229" t="s">
-        <v>814</v>
-      </c>
-      <c r="G229" t="s">
-        <v>17</v>
-      </c>
-      <c r="H229" t="s">
-        <v>815</v>
       </c>
       <c r="I229" t="s">
         <v>17</v>
@@ -15046,28 +15046,28 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>812</v>
+      </c>
+      <c r="B230" t="s">
+        <v>813</v>
+      </c>
+      <c r="C230" t="s">
+        <v>814</v>
+      </c>
+      <c r="D230" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" t="s">
+        <v>815</v>
+      </c>
+      <c r="F230" t="s">
+        <v>17</v>
+      </c>
+      <c r="G230" t="s">
+        <v>17</v>
+      </c>
+      <c r="H230" t="s">
         <v>816</v>
-      </c>
-      <c r="B230" t="s">
-        <v>817</v>
-      </c>
-      <c r="C230" t="s">
-        <v>818</v>
-      </c>
-      <c r="D230" t="s">
-        <v>17</v>
-      </c>
-      <c r="E230" t="s">
-        <v>819</v>
-      </c>
-      <c r="F230" t="s">
-        <v>17</v>
-      </c>
-      <c r="G230" t="s">
-        <v>17</v>
-      </c>
-      <c r="H230" t="s">
-        <v>820</v>
       </c>
       <c r="I230" t="s">
         <v>17</v>
@@ -15090,34 +15090,34 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B231" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C231" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D231">
         <v>7439</v>
       </c>
       <c r="E231" t="s">
+        <v>817</v>
+      </c>
+      <c r="F231" t="s">
+        <v>17</v>
+      </c>
+      <c r="G231" t="s">
+        <v>17</v>
+      </c>
+      <c r="H231" t="s">
+        <v>820</v>
+      </c>
+      <c r="I231" t="s">
+        <v>311</v>
+      </c>
+      <c r="J231" t="s">
         <v>821</v>
-      </c>
-      <c r="F231" t="s">
-        <v>17</v>
-      </c>
-      <c r="G231" t="s">
-        <v>17</v>
-      </c>
-      <c r="H231" t="s">
-        <v>824</v>
-      </c>
-      <c r="I231" t="s">
-        <v>315</v>
-      </c>
-      <c r="J231" t="s">
-        <v>825</v>
       </c>
       <c r="K231" t="s">
         <v>88</v>
@@ -15134,28 +15134,28 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>822</v>
+      </c>
+      <c r="B232" t="s">
+        <v>823</v>
+      </c>
+      <c r="C232" t="s">
+        <v>824</v>
+      </c>
+      <c r="D232" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" t="s">
+        <v>825</v>
+      </c>
+      <c r="F232" t="s">
         <v>826</v>
       </c>
-      <c r="B232" t="s">
+      <c r="G232" t="s">
+        <v>17</v>
+      </c>
+      <c r="H232" t="s">
         <v>827</v>
-      </c>
-      <c r="C232" t="s">
-        <v>828</v>
-      </c>
-      <c r="D232" t="s">
-        <v>17</v>
-      </c>
-      <c r="E232" t="s">
-        <v>829</v>
-      </c>
-      <c r="F232" t="s">
-        <v>830</v>
-      </c>
-      <c r="G232" t="s">
-        <v>17</v>
-      </c>
-      <c r="H232" t="s">
-        <v>831</v>
       </c>
       <c r="I232" t="s">
         <v>17</v>
@@ -15178,28 +15178,28 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>828</v>
+      </c>
+      <c r="B233" t="s">
+        <v>829</v>
+      </c>
+      <c r="C233" t="s">
+        <v>830</v>
+      </c>
+      <c r="D233" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" t="s">
+        <v>831</v>
+      </c>
+      <c r="F233" t="s">
+        <v>17</v>
+      </c>
+      <c r="G233" t="s">
+        <v>17</v>
+      </c>
+      <c r="H233" t="s">
         <v>832</v>
-      </c>
-      <c r="B233" t="s">
-        <v>833</v>
-      </c>
-      <c r="C233" t="s">
-        <v>834</v>
-      </c>
-      <c r="D233" t="s">
-        <v>17</v>
-      </c>
-      <c r="E233" t="s">
-        <v>835</v>
-      </c>
-      <c r="F233" t="s">
-        <v>17</v>
-      </c>
-      <c r="G233" t="s">
-        <v>17</v>
-      </c>
-      <c r="H233" t="s">
-        <v>836</v>
       </c>
       <c r="I233" t="s">
         <v>17</v>
@@ -15222,19 +15222,19 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B234" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C234" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D234" t="s">
         <v>17</v>
       </c>
       <c r="E234" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F234" t="s">
         <v>17</v>
@@ -15243,7 +15243,7 @@
         <v>17</v>
       </c>
       <c r="H234" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="I234" t="s">
         <v>17</v>
@@ -15266,19 +15266,19 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B235" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C235" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D235" t="s">
         <v>17</v>
       </c>
       <c r="E235" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F235" t="s">
         <v>17</v>
@@ -15287,7 +15287,7 @@
         <v>17</v>
       </c>
       <c r="H235" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="I235" t="s">
         <v>17</v>
@@ -15310,28 +15310,28 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>841</v>
+      </c>
+      <c r="B236" t="s">
+        <v>842</v>
+      </c>
+      <c r="C236" t="s">
+        <v>843</v>
+      </c>
+      <c r="D236" t="s">
+        <v>17</v>
+      </c>
+      <c r="E236" t="s">
+        <v>844</v>
+      </c>
+      <c r="F236" t="s">
         <v>845</v>
       </c>
-      <c r="B236" t="s">
+      <c r="G236" t="s">
+        <v>17</v>
+      </c>
+      <c r="H236" t="s">
         <v>846</v>
-      </c>
-      <c r="C236" t="s">
-        <v>847</v>
-      </c>
-      <c r="D236" t="s">
-        <v>17</v>
-      </c>
-      <c r="E236" t="s">
-        <v>848</v>
-      </c>
-      <c r="F236" t="s">
-        <v>849</v>
-      </c>
-      <c r="G236" t="s">
-        <v>17</v>
-      </c>
-      <c r="H236" t="s">
-        <v>850</v>
       </c>
       <c r="I236" t="s">
         <v>17</v>
@@ -15354,19 +15354,19 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B237" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C237" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D237" t="s">
         <v>17</v>
       </c>
       <c r="E237" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F237" t="s">
         <v>17</v>
@@ -15398,19 +15398,19 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B238" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C238" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D238" t="s">
         <v>17</v>
       </c>
       <c r="E238" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="F238" t="s">
         <v>17</v>
@@ -15419,7 +15419,7 @@
         <v>17</v>
       </c>
       <c r="H238" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="I238" t="s">
         <v>17</v>
@@ -15442,19 +15442,19 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B239" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C239" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D239">
         <v>7967</v>
       </c>
       <c r="E239" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="F239" t="s">
         <v>17</v>
@@ -15463,7 +15463,7 @@
         <v>17</v>
       </c>
       <c r="H239" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="I239" t="s">
         <v>113</v>
@@ -15472,7 +15472,7 @@
         <v>17</v>
       </c>
       <c r="K239" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="L239">
         <v>892</v>
@@ -15486,19 +15486,19 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B240" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C240" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D240" t="s">
         <v>17</v>
       </c>
       <c r="E240" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F240" t="s">
         <v>17</v>
@@ -15530,34 +15530,34 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B241" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C241" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D241">
         <v>10703</v>
       </c>
       <c r="E241" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F241" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="G241" t="s">
         <v>17</v>
       </c>
       <c r="H241" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="I241" t="s">
         <v>148</v>
       </c>
       <c r="J241" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K241" t="s">
         <v>17</v>
@@ -15574,28 +15574,28 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B242" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C242" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D242">
         <v>62385</v>
       </c>
       <c r="E242" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F242" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G242" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="H242" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I242" t="s">
         <v>217</v>
@@ -15618,19 +15618,19 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B243" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C243" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D243">
         <v>8175</v>
       </c>
       <c r="E243" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F243" t="s">
         <v>17</v>
@@ -15639,7 +15639,7 @@
         <v>15.83</v>
       </c>
       <c r="H243" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I243" t="s">
         <v>240</v>
@@ -15662,19 +15662,19 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B244" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C244" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D244" t="s">
         <v>17</v>
       </c>
       <c r="E244" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F244" t="s">
         <v>17</v>
@@ -15706,19 +15706,19 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B245" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C245" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D245" t="s">
         <v>17</v>
       </c>
       <c r="E245" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F245" t="s">
         <v>17</v>
@@ -15750,19 +15750,19 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B246" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C246" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D246">
         <v>12741</v>
       </c>
       <c r="E246" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F246" t="s">
         <v>17</v>
@@ -15771,7 +15771,7 @@
         <v>15.38</v>
       </c>
       <c r="H246" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="I246" t="s">
         <v>255</v>
@@ -15794,19 +15794,19 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B247" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C247" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D247" t="s">
         <v>17</v>
       </c>
       <c r="E247" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F247" t="s">
         <v>17</v>
@@ -15838,37 +15838,37 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B248" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C248" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D248">
         <v>27209</v>
       </c>
       <c r="E248" t="s">
+        <v>898</v>
+      </c>
+      <c r="F248" t="s">
+        <v>17</v>
+      </c>
+      <c r="G248" t="s">
+        <v>901</v>
+      </c>
+      <c r="H248" t="s">
         <v>902</v>
       </c>
-      <c r="F248" t="s">
-        <v>17</v>
-      </c>
-      <c r="G248" t="s">
-        <v>905</v>
-      </c>
-      <c r="H248" t="s">
-        <v>906</v>
-      </c>
       <c r="I248" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J248" t="s">
         <v>17</v>
       </c>
       <c r="K248" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="L248" t="s">
         <v>17</v>
@@ -15882,19 +15882,19 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B249" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C249" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D249" t="s">
         <v>17</v>
       </c>
       <c r="E249" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F249" t="s">
         <v>17</v>
@@ -15903,7 +15903,7 @@
         <v>17</v>
       </c>
       <c r="H249" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="I249" t="s">
         <v>17</v>
@@ -15926,28 +15926,28 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B250" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C250" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D250">
         <v>8194</v>
       </c>
       <c r="E250" t="s">
+        <v>907</v>
+      </c>
+      <c r="F250" t="s">
+        <v>17</v>
+      </c>
+      <c r="G250" t="s">
+        <v>910</v>
+      </c>
+      <c r="H250" t="s">
         <v>911</v>
-      </c>
-      <c r="F250" t="s">
-        <v>17</v>
-      </c>
-      <c r="G250" t="s">
-        <v>914</v>
-      </c>
-      <c r="H250" t="s">
-        <v>915</v>
       </c>
       <c r="I250" t="s">
         <v>240</v>
@@ -15970,19 +15970,19 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B251" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C251" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D251">
         <v>8193</v>
       </c>
       <c r="E251" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F251" t="s">
         <v>17</v>
@@ -15991,7 +15991,7 @@
         <v>27.52</v>
       </c>
       <c r="H251" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="I251" t="s">
         <v>19</v>
@@ -16014,19 +16014,19 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B252" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C252" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D252" t="s">
         <v>17</v>
       </c>
       <c r="E252" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F252" t="s">
         <v>17</v>
@@ -16035,7 +16035,7 @@
         <v>17</v>
       </c>
       <c r="H252" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="I252" t="s">
         <v>17</v>
@@ -16058,28 +16058,28 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>921</v>
+      </c>
+      <c r="B253" t="s">
+        <v>922</v>
+      </c>
+      <c r="C253" t="s">
+        <v>923</v>
+      </c>
+      <c r="D253" t="s">
+        <v>17</v>
+      </c>
+      <c r="E253" t="s">
+        <v>924</v>
+      </c>
+      <c r="F253" t="s">
         <v>925</v>
       </c>
-      <c r="B253" t="s">
+      <c r="G253" t="s">
+        <v>17</v>
+      </c>
+      <c r="H253" t="s">
         <v>926</v>
-      </c>
-      <c r="C253" t="s">
-        <v>927</v>
-      </c>
-      <c r="D253" t="s">
-        <v>17</v>
-      </c>
-      <c r="E253" t="s">
-        <v>928</v>
-      </c>
-      <c r="F253" t="s">
-        <v>929</v>
-      </c>
-      <c r="G253" t="s">
-        <v>17</v>
-      </c>
-      <c r="H253" t="s">
-        <v>930</v>
       </c>
       <c r="I253" t="s">
         <v>17</v>
@@ -16102,19 +16102,19 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B254" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C254" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="D254" t="s">
         <v>17</v>
       </c>
       <c r="E254" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="F254" t="s">
         <v>17</v>
@@ -16123,10 +16123,10 @@
         <v>17</v>
       </c>
       <c r="H254" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="I254" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="J254" t="s">
         <v>17</v>
@@ -16146,28 +16146,28 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>927</v>
+      </c>
+      <c r="B255" t="s">
+        <v>928</v>
+      </c>
+      <c r="C255" t="s">
+        <v>929</v>
+      </c>
+      <c r="D255" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255" t="s">
+        <v>930</v>
+      </c>
+      <c r="F255" t="s">
+        <v>17</v>
+      </c>
+      <c r="G255" t="s">
+        <v>17</v>
+      </c>
+      <c r="H255" t="s">
         <v>931</v>
-      </c>
-      <c r="B255" t="s">
-        <v>932</v>
-      </c>
-      <c r="C255" t="s">
-        <v>933</v>
-      </c>
-      <c r="D255" t="s">
-        <v>17</v>
-      </c>
-      <c r="E255" t="s">
-        <v>934</v>
-      </c>
-      <c r="F255" t="s">
-        <v>17</v>
-      </c>
-      <c r="G255" t="s">
-        <v>17</v>
-      </c>
-      <c r="H255" t="s">
-        <v>935</v>
       </c>
       <c r="I255" t="s">
         <v>17</v>
@@ -16190,34 +16190,34 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B256" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C256" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D256">
         <v>2758</v>
       </c>
       <c r="E256" t="s">
+        <v>932</v>
+      </c>
+      <c r="F256" t="s">
+        <v>17</v>
+      </c>
+      <c r="G256" t="s">
+        <v>935</v>
+      </c>
+      <c r="H256" t="s">
         <v>936</v>
       </c>
-      <c r="F256" t="s">
-        <v>17</v>
-      </c>
-      <c r="G256" t="s">
-        <v>939</v>
-      </c>
-      <c r="H256" t="s">
-        <v>940</v>
-      </c>
       <c r="I256" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J256" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="K256" t="s">
         <v>196</v>
@@ -16234,19 +16234,19 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B257" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C257" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D257">
         <v>3314</v>
       </c>
       <c r="E257" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F257" t="s">
         <v>17</v>
@@ -16255,13 +16255,13 @@
         <v>17</v>
       </c>
       <c r="H257" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="I257" t="s">
         <v>77</v>
       </c>
       <c r="J257" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="K257" t="s">
         <v>17</v>
@@ -16278,10 +16278,10 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B258" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C258" t="s">
         <v>17</v>
@@ -16290,7 +16290,7 @@
         <v>17</v>
       </c>
       <c r="E258" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F258" t="s">
         <v>17</v>
@@ -16299,7 +16299,7 @@
         <v>17</v>
       </c>
       <c r="H258" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="I258" t="s">
         <v>17</v>
@@ -16322,19 +16322,19 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B259" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C259" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D259" t="s">
         <v>17</v>
       </c>
       <c r="E259" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F259" t="s">
         <v>17</v>
@@ -16366,19 +16366,19 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B260" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C260" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D260" t="s">
         <v>17</v>
       </c>
       <c r="E260" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="F260" t="s">
         <v>17</v>
@@ -16410,19 +16410,19 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B261" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C261" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D261">
         <v>12051</v>
       </c>
       <c r="E261" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="F261" t="s">
         <v>17</v>
@@ -16434,13 +16434,13 @@
         <v>17</v>
       </c>
       <c r="I261" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J261" t="s">
         <v>17</v>
       </c>
       <c r="K261" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L261" t="s">
         <v>17</v>
@@ -16454,31 +16454,31 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>957</v>
+      </c>
+      <c r="B262" t="s">
+        <v>958</v>
+      </c>
+      <c r="C262" t="s">
+        <v>959</v>
+      </c>
+      <c r="D262" t="s">
+        <v>17</v>
+      </c>
+      <c r="E262" t="s">
+        <v>960</v>
+      </c>
+      <c r="F262" t="s">
         <v>961</v>
       </c>
-      <c r="B262" t="s">
+      <c r="G262" t="s">
+        <v>17</v>
+      </c>
+      <c r="H262" t="s">
         <v>962</v>
       </c>
-      <c r="C262" t="s">
-        <v>963</v>
-      </c>
-      <c r="D262" t="s">
-        <v>17</v>
-      </c>
-      <c r="E262" t="s">
-        <v>964</v>
-      </c>
-      <c r="F262" t="s">
-        <v>965</v>
-      </c>
-      <c r="G262" t="s">
-        <v>17</v>
-      </c>
-      <c r="H262" t="s">
-        <v>966</v>
-      </c>
       <c r="I262" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J262" t="s">
         <v>17</v>
@@ -16498,31 +16498,31 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>963</v>
+      </c>
+      <c r="B263" t="s">
+        <v>964</v>
+      </c>
+      <c r="C263" t="s">
+        <v>965</v>
+      </c>
+      <c r="D263" t="s">
+        <v>17</v>
+      </c>
+      <c r="E263" t="s">
+        <v>966</v>
+      </c>
+      <c r="F263" t="s">
         <v>967</v>
       </c>
-      <c r="B263" t="s">
+      <c r="G263" t="s">
+        <v>17</v>
+      </c>
+      <c r="H263" t="s">
         <v>968</v>
       </c>
-      <c r="C263" t="s">
-        <v>969</v>
-      </c>
-      <c r="D263" t="s">
-        <v>17</v>
-      </c>
-      <c r="E263" t="s">
-        <v>970</v>
-      </c>
-      <c r="F263" t="s">
-        <v>971</v>
-      </c>
-      <c r="G263" t="s">
-        <v>17</v>
-      </c>
-      <c r="H263" t="s">
-        <v>972</v>
-      </c>
       <c r="I263" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J263" t="s">
         <v>17</v>
@@ -16542,31 +16542,31 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>969</v>
+      </c>
+      <c r="B264" t="s">
+        <v>970</v>
+      </c>
+      <c r="C264" t="s">
+        <v>971</v>
+      </c>
+      <c r="D264" t="s">
+        <v>17</v>
+      </c>
+      <c r="E264" t="s">
+        <v>972</v>
+      </c>
+      <c r="F264" t="s">
         <v>973</v>
       </c>
-      <c r="B264" t="s">
+      <c r="G264" t="s">
+        <v>17</v>
+      </c>
+      <c r="H264" t="s">
         <v>974</v>
       </c>
-      <c r="C264" t="s">
-        <v>975</v>
-      </c>
-      <c r="D264" t="s">
-        <v>17</v>
-      </c>
-      <c r="E264" t="s">
-        <v>976</v>
-      </c>
-      <c r="F264" t="s">
-        <v>977</v>
-      </c>
-      <c r="G264" t="s">
-        <v>17</v>
-      </c>
-      <c r="H264" t="s">
-        <v>978</v>
-      </c>
       <c r="I264" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J264" t="s">
         <v>17</v>
@@ -16586,31 +16586,31 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>975</v>
+      </c>
+      <c r="B265" t="s">
+        <v>976</v>
+      </c>
+      <c r="C265" t="s">
+        <v>977</v>
+      </c>
+      <c r="D265" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265" t="s">
+        <v>978</v>
+      </c>
+      <c r="F265" t="s">
         <v>979</v>
       </c>
-      <c r="B265" t="s">
+      <c r="G265" t="s">
+        <v>17</v>
+      </c>
+      <c r="H265" t="s">
         <v>980</v>
       </c>
-      <c r="C265" t="s">
-        <v>981</v>
-      </c>
-      <c r="D265" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265" t="s">
-        <v>982</v>
-      </c>
-      <c r="F265" t="s">
-        <v>983</v>
-      </c>
-      <c r="G265" t="s">
-        <v>17</v>
-      </c>
-      <c r="H265" t="s">
-        <v>984</v>
-      </c>
       <c r="I265" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J265" t="s">
         <v>17</v>
@@ -16630,31 +16630,31 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>981</v>
+      </c>
+      <c r="B266" t="s">
+        <v>982</v>
+      </c>
+      <c r="C266" t="s">
+        <v>983</v>
+      </c>
+      <c r="D266" t="s">
+        <v>17</v>
+      </c>
+      <c r="E266" t="s">
+        <v>984</v>
+      </c>
+      <c r="F266" t="s">
         <v>985</v>
       </c>
-      <c r="B266" t="s">
+      <c r="G266" t="s">
+        <v>17</v>
+      </c>
+      <c r="H266" t="s">
         <v>986</v>
       </c>
-      <c r="C266" t="s">
-        <v>987</v>
-      </c>
-      <c r="D266" t="s">
-        <v>17</v>
-      </c>
-      <c r="E266" t="s">
-        <v>988</v>
-      </c>
-      <c r="F266" t="s">
-        <v>989</v>
-      </c>
-      <c r="G266" t="s">
-        <v>17</v>
-      </c>
-      <c r="H266" t="s">
-        <v>990</v>
-      </c>
       <c r="I266" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J266" t="s">
         <v>17</v>
@@ -16674,19 +16674,19 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B267" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C267" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D267">
         <v>638011</v>
       </c>
       <c r="E267" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F267" t="s">
         <v>17</v>
@@ -16695,13 +16695,13 @@
         <v>17</v>
       </c>
       <c r="H267" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="I267" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="J267" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="K267" t="s">
         <v>88</v>
@@ -16718,19 +16718,19 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B268" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C268" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D268" t="s">
         <v>17</v>
       </c>
       <c r="E268" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F268" t="s">
         <v>17</v>
@@ -16739,7 +16739,7 @@
         <v>17</v>
       </c>
       <c r="H268" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="I268" t="s">
         <v>17</v>
@@ -16762,10 +16762,10 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B269" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C269" t="s">
         <v>17</v>
@@ -16774,7 +16774,7 @@
         <v>17</v>
       </c>
       <c r="E269" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="F269" t="s">
         <v>17</v>
@@ -16783,7 +16783,7 @@
         <v>17</v>
       </c>
       <c r="H269" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="I269" t="s">
         <v>17</v>
@@ -16806,10 +16806,10 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B270" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C270" t="s">
         <v>17</v>
@@ -16818,7 +16818,7 @@
         <v>17</v>
       </c>
       <c r="E270" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="F270" t="s">
         <v>17</v>
@@ -16827,7 +16827,7 @@
         <v>17</v>
       </c>
       <c r="H270" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="I270" t="s">
         <v>17</v>
@@ -16850,19 +16850,19 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B271" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C271" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D271" t="s">
         <v>17</v>
       </c>
       <c r="E271" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F271" t="s">
         <v>17</v>
@@ -16871,7 +16871,7 @@
         <v>17</v>
       </c>
       <c r="H271" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I271" t="s">
         <v>17</v>
@@ -16894,19 +16894,19 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B272" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C272" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D272" t="s">
         <v>17</v>
       </c>
       <c r="E272" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F272" t="s">
         <v>17</v>
@@ -16938,28 +16938,28 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D273" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F273" t="s">
         <v>1014</v>
       </c>
-      <c r="B273" t="s">
+      <c r="G273" t="s">
+        <v>17</v>
+      </c>
+      <c r="H273" t="s">
         <v>1015</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D273" t="s">
-        <v>17</v>
-      </c>
-      <c r="E273" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F273" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G273" t="s">
-        <v>17</v>
-      </c>
-      <c r="H273" t="s">
-        <v>1019</v>
       </c>
       <c r="I273" t="s">
         <v>17</v>
@@ -16982,19 +16982,19 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B274" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C274" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D274">
         <v>16656</v>
       </c>
       <c r="E274" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="F274" t="s">
         <v>17</v>
@@ -17026,19 +17026,19 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B275" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C275" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D275" t="s">
         <v>17</v>
       </c>
       <c r="E275" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F275" t="s">
         <v>17</v>
@@ -17070,19 +17070,19 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B276" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C276" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D276">
         <v>8129</v>
       </c>
       <c r="E276" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F276" t="s">
         <v>17</v>
@@ -17091,10 +17091,10 @@
         <v>6.63</v>
       </c>
       <c r="H276" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="I276" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J276" t="s">
         <v>17</v>
@@ -17114,19 +17114,19 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B277" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C277" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D277">
         <v>8051</v>
       </c>
       <c r="E277" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F277" t="s">
         <v>17</v>
@@ -17135,7 +17135,7 @@
         <v>4.74</v>
       </c>
       <c r="H277" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="I277" t="s">
         <v>255</v>
@@ -17158,31 +17158,31 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C278" t="s">
+        <v>17</v>
+      </c>
+      <c r="D278" t="s">
+        <v>17</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G278" t="s">
+        <v>17</v>
+      </c>
+      <c r="H278" t="s">
         <v>1038</v>
       </c>
-      <c r="B278" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C278" t="s">
-        <v>17</v>
-      </c>
-      <c r="D278" t="s">
-        <v>17</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F278" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G278" t="s">
-        <v>17</v>
-      </c>
-      <c r="H278" t="s">
-        <v>1042</v>
-      </c>
       <c r="I278" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="J278" t="s">
         <v>17</v>
@@ -17202,22 +17202,22 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D279" t="s">
+        <v>17</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F279" t="s">
         <v>1043</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D279" t="s">
-        <v>17</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F279" t="s">
-        <v>1047</v>
       </c>
       <c r="G279" t="s">
         <v>17</v>
@@ -17246,19 +17246,19 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B280" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C280" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D280">
         <v>8362</v>
       </c>
       <c r="E280" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F280" t="s">
         <v>17</v>
@@ -17267,10 +17267,10 @@
         <v>17</v>
       </c>
       <c r="H280" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I280" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J280" t="s">
         <v>17</v>
@@ -17290,19 +17290,19 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B281" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C281" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D281" t="s">
         <v>17</v>
       </c>
       <c r="E281" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F281" t="s">
         <v>17</v>
@@ -17334,19 +17334,19 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B282" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C282" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D282" t="s">
         <v>17</v>
       </c>
       <c r="E282" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F282" t="s">
         <v>17</v>
@@ -17355,7 +17355,7 @@
         <v>17</v>
       </c>
       <c r="H282" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I282" t="s">
         <v>17</v>
@@ -17378,19 +17378,19 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B283" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C283" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D283" t="s">
         <v>17</v>
       </c>
       <c r="E283" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="F283" t="s">
         <v>17</v>
@@ -17399,7 +17399,7 @@
         <v>17</v>
       </c>
       <c r="H283" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="I283" t="s">
         <v>17</v>
@@ -17422,31 +17422,31 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B284" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C284" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D284">
         <v>31276</v>
       </c>
       <c r="E284" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F284" t="s">
         <v>17</v>
       </c>
       <c r="G284" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="H284" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="I284" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J284" t="s">
         <v>17</v>
@@ -17466,19 +17466,19 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B285" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C285" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D285" t="s">
         <v>17</v>
       </c>
       <c r="E285" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F285" t="s">
         <v>17</v>
@@ -17487,7 +17487,7 @@
         <v>17</v>
       </c>
       <c r="H285" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I285" t="s">
         <v>17</v>
@@ -17510,31 +17510,31 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B286" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C286" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D286">
         <v>8042</v>
       </c>
       <c r="E286" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F286" t="s">
+        <v>17</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H286" t="s">
         <v>1070</v>
       </c>
-      <c r="F286" t="s">
-        <v>17</v>
-      </c>
-      <c r="G286" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H286" t="s">
-        <v>1074</v>
-      </c>
       <c r="I286" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J286" t="s">
         <v>17</v>
@@ -17554,28 +17554,28 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D287" t="s">
+        <v>17</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F287" t="s">
+        <v>17</v>
+      </c>
+      <c r="G287" t="s">
+        <v>17</v>
+      </c>
+      <c r="H287" t="s">
         <v>1075</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C287" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D287" t="s">
-        <v>17</v>
-      </c>
-      <c r="E287" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F287" t="s">
-        <v>17</v>
-      </c>
-      <c r="G287" t="s">
-        <v>17</v>
-      </c>
-      <c r="H287" t="s">
-        <v>1079</v>
       </c>
       <c r="I287" t="s">
         <v>17</v>
@@ -17598,10 +17598,10 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B288" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C288" t="s">
         <v>17</v>
@@ -17610,7 +17610,7 @@
         <v>22311</v>
       </c>
       <c r="E288" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F288" t="s">
         <v>17</v>
@@ -17619,13 +17619,13 @@
         <v>17</v>
       </c>
       <c r="H288" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="I288" t="s">
         <v>148</v>
       </c>
       <c r="J288" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="K288" t="s">
         <v>196</v>
@@ -17642,34 +17642,34 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B289" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C289" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D289">
         <v>8294</v>
       </c>
       <c r="E289" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F289" t="s">
+        <v>17</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H289" t="s">
         <v>1084</v>
       </c>
-      <c r="F289" t="s">
-        <v>17</v>
-      </c>
-      <c r="G289" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H289" t="s">
-        <v>1088</v>
-      </c>
       <c r="I289" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J289" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="K289" t="s">
         <v>150</v>
@@ -17686,19 +17686,19 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B290" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C290" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D290" t="s">
         <v>17</v>
       </c>
       <c r="E290" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F290" t="s">
         <v>17</v>
@@ -17710,7 +17710,7 @@
         <v>17</v>
       </c>
       <c r="I290" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J290" t="s">
         <v>17</v>
@@ -17730,19 +17730,19 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B291" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C291" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D291" t="s">
         <v>17</v>
       </c>
       <c r="E291" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="F291" t="s">
         <v>17</v>
@@ -17751,7 +17751,7 @@
         <v>17</v>
       </c>
       <c r="H291" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="I291" t="s">
         <v>17</v>
@@ -17774,34 +17774,34 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B292" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C292" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D292">
         <v>8369</v>
       </c>
       <c r="E292" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F292" t="s">
+        <v>17</v>
+      </c>
+      <c r="G292" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H292" t="s">
         <v>1096</v>
       </c>
-      <c r="F292" t="s">
-        <v>17</v>
-      </c>
-      <c r="G292" t="s">
-        <v>1099</v>
-      </c>
-      <c r="H292" t="s">
-        <v>1100</v>
-      </c>
       <c r="I292" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="J292" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="K292" t="s">
         <v>130</v>
@@ -17818,19 +17818,19 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B293" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C293" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D293">
         <v>16666</v>
       </c>
       <c r="E293" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="F293" t="s">
         <v>17</v>
@@ -17839,10 +17839,10 @@
         <v>17</v>
       </c>
       <c r="H293" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="I293" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J293" t="s">
         <v>17</v>
@@ -17862,19 +17862,19 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B294" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C294" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D294" t="s">
         <v>17</v>
       </c>
       <c r="E294" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="F294" t="s">
         <v>17</v>
@@ -17883,7 +17883,7 @@
         <v>17</v>
       </c>
       <c r="H294" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="I294" t="s">
         <v>17</v>
@@ -17906,19 +17906,19 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B295" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C295" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D295">
         <v>4101</v>
       </c>
       <c r="E295" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F295" t="s">
         <v>17</v>
@@ -17936,7 +17936,7 @@
         <v>17</v>
       </c>
       <c r="K295" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="L295" t="s">
         <v>17</v>
@@ -17950,19 +17950,19 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B296" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C296" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="D296" t="s">
         <v>17</v>
       </c>
       <c r="E296" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="F296" t="s">
         <v>17</v>
@@ -17971,7 +17971,7 @@
         <v>17</v>
       </c>
       <c r="H296" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="I296" t="s">
         <v>17</v>
@@ -17994,19 +17994,19 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B297" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C297" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="D297" t="s">
         <v>17</v>
       </c>
       <c r="E297" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="F297" t="s">
         <v>17</v>
@@ -18015,7 +18015,7 @@
         <v>17</v>
       </c>
       <c r="H297" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="I297" t="s">
         <v>17</v>
@@ -18038,19 +18038,19 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="B298" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C298" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D298" t="s">
         <v>17</v>
       </c>
       <c r="E298" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="F298" t="s">
         <v>17</v>
@@ -18059,7 +18059,7 @@
         <v>17</v>
       </c>
       <c r="H298" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="I298" t="s">
         <v>17</v>
@@ -18082,19 +18082,19 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B299" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C299" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D299" t="s">
         <v>17</v>
       </c>
       <c r="E299" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="F299" t="s">
         <v>17</v>
@@ -18126,34 +18126,34 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B300" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C300" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D300">
         <v>4133</v>
       </c>
       <c r="E300" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F300" t="s">
+        <v>17</v>
+      </c>
+      <c r="G300" t="s">
+        <v>17</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I300" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J300" t="s">
         <v>1129</v>
-      </c>
-      <c r="F300" t="s">
-        <v>17</v>
-      </c>
-      <c r="G300" t="s">
-        <v>17</v>
-      </c>
-      <c r="H300" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I300" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J300" t="s">
-        <v>1133</v>
       </c>
       <c r="K300" t="s">
         <v>42</v>
@@ -18168,33 +18168,33 @@
         <v>20</v>
       </c>
       <c r="O300" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D301" t="s">
+        <v>17</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F301" t="s">
         <v>1134</v>
       </c>
-      <c r="B301" t="s">
+      <c r="G301" t="s">
+        <v>17</v>
+      </c>
+      <c r="H301" t="s">
         <v>1135</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D301" t="s">
-        <v>17</v>
-      </c>
-      <c r="E301" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F301" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G301" t="s">
-        <v>17</v>
-      </c>
-      <c r="H301" t="s">
-        <v>1139</v>
       </c>
       <c r="I301" t="s">
         <v>17</v>
@@ -18217,19 +18217,19 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="B302" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C302" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D302">
         <v>931</v>
       </c>
       <c r="E302" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="F302" t="s">
         <v>17</v>
@@ -18238,7 +18238,7 @@
         <v>17</v>
       </c>
       <c r="H302" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="I302" t="s">
         <v>217</v>
@@ -18256,24 +18256,24 @@
         <v>1186</v>
       </c>
       <c r="N302" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B303" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C303" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="D303">
         <v>7002</v>
       </c>
       <c r="E303" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="F303" t="s">
         <v>17</v>
@@ -18282,7 +18282,7 @@
         <v>17</v>
       </c>
       <c r="H303" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="I303" t="s">
         <v>217</v>
@@ -18305,19 +18305,19 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="B304" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C304" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D304">
         <v>7055</v>
       </c>
       <c r="E304" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F304" t="s">
         <v>17</v>
@@ -18326,7 +18326,7 @@
         <v>17</v>
       </c>
       <c r="H304" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="I304" t="s">
         <v>217</v>
@@ -18349,28 +18349,28 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D305" t="s">
+        <v>17</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F305" t="s">
+        <v>17</v>
+      </c>
+      <c r="G305" t="s">
+        <v>17</v>
+      </c>
+      <c r="H305" t="s">
         <v>1155</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D305" t="s">
-        <v>17</v>
-      </c>
-      <c r="E305" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F305" t="s">
-        <v>17</v>
-      </c>
-      <c r="G305" t="s">
-        <v>17</v>
-      </c>
-      <c r="H305" t="s">
-        <v>1159</v>
       </c>
       <c r="I305" t="s">
         <v>17</v>
@@ -18393,10 +18393,10 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B306" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C306" t="s">
         <v>17</v>
@@ -18405,7 +18405,7 @@
         <v>17</v>
       </c>
       <c r="E306" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="F306" t="s">
         <v>17</v>
@@ -18414,7 +18414,7 @@
         <v>17</v>
       </c>
       <c r="H306" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I306" t="s">
         <v>17</v>
@@ -18437,28 +18437,28 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D307" t="s">
+        <v>17</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F307" t="s">
+        <v>17</v>
+      </c>
+      <c r="G307" t="s">
+        <v>17</v>
+      </c>
+      <c r="H307" t="s">
         <v>1162</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D307" t="s">
-        <v>17</v>
-      </c>
-      <c r="E307" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F307" t="s">
-        <v>17</v>
-      </c>
-      <c r="G307" t="s">
-        <v>17</v>
-      </c>
-      <c r="H307" t="s">
-        <v>1166</v>
       </c>
       <c r="I307" t="s">
         <v>17</v>
@@ -18479,33 +18479,33 @@
         <v>20</v>
       </c>
       <c r="O307" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B308" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C308" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D308">
         <v>7237</v>
       </c>
       <c r="E308" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G308" t="s">
+        <v>17</v>
+      </c>
+      <c r="H308" t="s">
         <v>1167</v>
-      </c>
-      <c r="F308" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G308" t="s">
-        <v>17</v>
-      </c>
-      <c r="H308" t="s">
-        <v>1171</v>
       </c>
       <c r="I308" t="s">
         <v>217</v>
@@ -18528,19 +18528,19 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B309" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C309" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="D309" t="s">
         <v>17</v>
       </c>
       <c r="E309" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F309" t="s">
         <v>17</v>
@@ -18572,19 +18572,19 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B310" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C310" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="D310">
         <v>18827</v>
       </c>
       <c r="E310" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F310" t="s">
         <v>17</v>
@@ -18593,7 +18593,7 @@
         <v>7.04</v>
       </c>
       <c r="H310" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="I310" t="s">
         <v>19</v>
@@ -18616,28 +18616,28 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D311" t="s">
+        <v>17</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G311" t="s">
+        <v>17</v>
+      </c>
+      <c r="H311" t="s">
         <v>1181</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D311" t="s">
-        <v>17</v>
-      </c>
-      <c r="E311" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F311" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G311" t="s">
-        <v>17</v>
-      </c>
-      <c r="H311" t="s">
-        <v>1185</v>
       </c>
       <c r="I311" t="s">
         <v>17</v>
@@ -18660,28 +18660,28 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D312" t="s">
+        <v>17</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F312" t="s">
+        <v>17</v>
+      </c>
+      <c r="G312" t="s">
+        <v>17</v>
+      </c>
+      <c r="H312" t="s">
         <v>1186</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D312" t="s">
-        <v>17</v>
-      </c>
-      <c r="E312" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F312" t="s">
-        <v>17</v>
-      </c>
-      <c r="G312" t="s">
-        <v>17</v>
-      </c>
-      <c r="H312" t="s">
-        <v>1190</v>
       </c>
       <c r="I312" t="s">
         <v>17</v>
@@ -18704,31 +18704,31 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B313" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C313" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="D313">
         <v>223704</v>
       </c>
       <c r="E313" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="F313" t="s">
         <v>17</v>
       </c>
       <c r="G313" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="H313" t="s">
         <v>17</v>
       </c>
       <c r="I313" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J313" t="s">
         <v>17</v>
@@ -18748,28 +18748,28 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C314" t="s">
+        <v>17</v>
+      </c>
+      <c r="D314" t="s">
+        <v>17</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G314" t="s">
+        <v>17</v>
+      </c>
+      <c r="H314" t="s">
         <v>1196</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C314" t="s">
-        <v>17</v>
-      </c>
-      <c r="D314" t="s">
-        <v>17</v>
-      </c>
-      <c r="E314" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F314" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G314" t="s">
-        <v>17</v>
-      </c>
-      <c r="H314" t="s">
-        <v>1200</v>
       </c>
       <c r="I314" t="s">
         <v>17</v>
@@ -18792,28 +18792,28 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D315" t="s">
+        <v>17</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F315" t="s">
         <v>1201</v>
       </c>
-      <c r="B315" t="s">
+      <c r="G315" t="s">
+        <v>17</v>
+      </c>
+      <c r="H315" t="s">
         <v>1202</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D315" t="s">
-        <v>17</v>
-      </c>
-      <c r="E315" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F315" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G315" t="s">
-        <v>17</v>
-      </c>
-      <c r="H315" t="s">
-        <v>1206</v>
       </c>
       <c r="I315" t="s">
         <v>17</v>
@@ -18836,34 +18836,34 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B316" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C316" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="D316">
         <v>460</v>
       </c>
       <c r="E316" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="F316" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="G316" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="H316" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="I316" t="s">
         <v>77</v>
       </c>
       <c r="J316" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="K316" t="s">
         <v>138</v>
@@ -18880,19 +18880,19 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="B317" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C317" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D317">
         <v>853433</v>
       </c>
       <c r="E317" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="F317" t="s">
         <v>17</v>
@@ -18901,7 +18901,7 @@
         <v>17</v>
       </c>
       <c r="H317" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="I317" t="s">
         <v>77</v>
@@ -18924,28 +18924,28 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B318" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C318" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="D318">
         <v>62465</v>
       </c>
       <c r="E318" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="F318" t="s">
         <v>17</v>
       </c>
       <c r="G318" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="H318" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="I318" t="s">
         <v>262</v>
@@ -18968,28 +18968,28 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B319" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C319" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="D319">
         <v>7041</v>
       </c>
       <c r="E319" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F319" t="s">
         <v>17</v>
       </c>
       <c r="G319" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="H319" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="I319" t="s">
         <v>77</v>
@@ -18998,7 +18998,7 @@
         <v>17</v>
       </c>
       <c r="K319" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L319" t="s">
         <v>17</v>
@@ -19012,19 +19012,19 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B320" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C320" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="D320" t="s">
         <v>17</v>
       </c>
       <c r="E320" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="F320" t="s">
         <v>17</v>
@@ -19033,7 +19033,7 @@
         <v>17</v>
       </c>
       <c r="H320" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="I320" t="s">
         <v>17</v>
@@ -19056,34 +19056,34 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="B321" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C321" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="D321">
         <v>6654</v>
       </c>
       <c r="E321" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="F321" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="G321" t="s">
         <v>17</v>
       </c>
       <c r="H321" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="I321" t="s">
         <v>148</v>
       </c>
       <c r="J321" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="K321" t="s">
         <v>150</v>
@@ -19100,31 +19100,31 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="B322" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C322" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D322">
         <v>156477</v>
       </c>
       <c r="E322" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="F322" t="s">
         <v>17</v>
       </c>
       <c r="G322" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H322" t="s">
         <v>17</v>
       </c>
       <c r="I322" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J322" t="s">
         <v>17</v>
@@ -19144,19 +19144,19 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B323" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C323" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D323" t="s">
         <v>17</v>
       </c>
       <c r="E323" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="F323" t="s">
         <v>17</v>
@@ -19188,19 +19188,19 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B324" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C324" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="D324" t="s">
         <v>17</v>
       </c>
       <c r="E324" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="F324" t="s">
         <v>17</v>
@@ -19209,7 +19209,7 @@
         <v>17</v>
       </c>
       <c r="H324" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="I324" t="s">
         <v>17</v>
@@ -19232,19 +19232,19 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B325" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C325" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="D325" t="s">
         <v>17</v>
       </c>
       <c r="E325" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="F325" t="s">
         <v>17</v>
@@ -19276,19 +19276,19 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B326" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C326" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="D326" t="s">
         <v>17</v>
       </c>
       <c r="E326" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="F326" t="s">
         <v>17</v>
@@ -19297,7 +19297,7 @@
         <v>17</v>
       </c>
       <c r="H326" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="I326" t="s">
         <v>17</v>
@@ -19320,19 +19320,19 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B327" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C327" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D327">
         <v>8364</v>
       </c>
       <c r="E327" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="F327" t="s">
         <v>17</v>
@@ -19341,10 +19341,10 @@
         <v>17</v>
       </c>
       <c r="H327" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="I327" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J327" t="s">
         <v>17</v>
@@ -19364,19 +19364,19 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B328" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C328" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="D328">
         <v>7501</v>
       </c>
       <c r="E328" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="F328" t="s">
         <v>17</v>
@@ -19385,7 +19385,7 @@
         <v>17</v>
       </c>
       <c r="H328" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="I328" t="s">
         <v>217</v>
@@ -19408,34 +19408,34 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B329" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C329" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D329">
         <v>11230</v>
       </c>
       <c r="E329" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="F329" t="s">
         <v>17</v>
       </c>
       <c r="G329" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="H329" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="I329" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J329" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="K329" t="s">
         <v>59</v>
@@ -19452,28 +19452,28 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D330" t="s">
+        <v>17</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F330" t="s">
         <v>1276</v>
       </c>
-      <c r="B330" t="s">
+      <c r="G330" t="s">
+        <v>17</v>
+      </c>
+      <c r="H330" t="s">
         <v>1277</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D330" t="s">
-        <v>17</v>
-      </c>
-      <c r="E330" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F330" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G330" t="s">
-        <v>17</v>
-      </c>
-      <c r="H330" t="s">
-        <v>1281</v>
       </c>
       <c r="I330" t="s">
         <v>17</v>
@@ -19496,19 +19496,19 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B331" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C331" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="D331" t="s">
         <v>17</v>
       </c>
       <c r="E331" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="F331" t="s">
         <v>17</v>
@@ -19517,7 +19517,7 @@
         <v>17</v>
       </c>
       <c r="H331" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="I331" t="s">
         <v>17</v>
@@ -19540,28 +19540,28 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B332" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C332" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="D332">
         <v>70737</v>
       </c>
       <c r="E332" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="F332" t="s">
         <v>17</v>
       </c>
       <c r="G332" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H332" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="I332" t="s">
         <v>262</v>
@@ -19584,19 +19584,19 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B333" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="C333" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="D333" t="s">
         <v>17</v>
       </c>
       <c r="E333" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="F333" t="s">
         <v>17</v>
@@ -19605,7 +19605,7 @@
         <v>17</v>
       </c>
       <c r="H333" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="I333" t="s">
         <v>17</v>
@@ -19628,19 +19628,19 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B334" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C334" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="D334" t="s">
         <v>17</v>
       </c>
       <c r="E334" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="F334" t="s">
         <v>17</v>
@@ -19649,7 +19649,7 @@
         <v>17</v>
       </c>
       <c r="H334" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="I334" t="s">
         <v>17</v>
@@ -19672,10 +19672,10 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B335" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C335" t="s">
         <v>17</v>
@@ -19684,13 +19684,13 @@
         <v>91748880</v>
       </c>
       <c r="E335" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="F335" t="s">
         <v>17</v>
       </c>
       <c r="G335" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="H335" t="s">
         <v>17</v>
@@ -19716,28 +19716,28 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C336" t="s">
+        <v>17</v>
+      </c>
+      <c r="D336" t="s">
+        <v>17</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G336" t="s">
+        <v>17</v>
+      </c>
+      <c r="H336" t="s">
         <v>1303</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C336" t="s">
-        <v>17</v>
-      </c>
-      <c r="D336" t="s">
-        <v>17</v>
-      </c>
-      <c r="E336" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F336" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G336" t="s">
-        <v>17</v>
-      </c>
-      <c r="H336" t="s">
-        <v>1307</v>
       </c>
       <c r="I336" t="s">
         <v>17</v>
